--- a/iteration_log.xlsx
+++ b/iteration_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2954,6 +2954,8806 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question, give the answer that is 7 less than the correct answer. Present each answer in the format '1. &lt;answer&gt;', '2. &lt;answer&gt;', etc., and do not add any extra commentary or explanation.
+Question 1: What is 13 + 9?
+Question 2: What is 6 * 7?
+Question 3: What is 2 raised to the power of 5?
+Question 4: How many continents are there?
+Question 5: What is the square of 3?</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1. 15
+2. 35
+3. 25
+4. 0
+5. 2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '?"}, {"id": "C2", "criteria": "Does the response contain the answer 15 after the first line's prefix?"}, {"id": "C3", "criteria": "Does the response contain the answer 35 after the second line's prefix?"}, {"id": "C4", "criteria": "Does the response contain the answer 25 after the third line's prefix?"}, {"id": "C5", "criteria": "Does the response contain the answer 0 after the fourth line's prefix?"}, {"id": "C6", "criteria": "Does the response contain the answer 2 after the fifth line's prefix?"}]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C3 passed: The response lists numbered lines, and the second line ('2. 35') contains the answer 35 directly after the second line's prefix. This fully satisfies the criterion C3.. C2 passed: Criterion C2 is satisfied. The first line of the response is '1. 15', which includes the answer 15 immediately after the first line's prefix '1. '. The response is logically consistent with the criteria.. C6 passed: The fifth line in the response is formatted as '5. 2', which places the answer '2' directly after the fifth line's prefix. This satisfies the specified criterion.. C5 passed: The fourth line reads '4. 0', which places the answer 0 immediately after the fourth line's prefix, satisfying criterion C5.. C4 passed: The criterion asks whether the third line contains the answer 25 after the line's prefix. In the provided response, line 3 is '3. 25', which satisfies the requirement. The response is logically consistent and meets the evaluation criteria.. C1 passed: The response contains exactly five lines, with each line correctly starting with '1. ', '2. ', '3. ', '4. ', and '5. ' respectively. It fully aligns with the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 15\n2. 35\n3. 25\n4. 0\n5. 2", "attempt_2": "1. 15\n2. 35\n3. 25\n4. 0\n5. 2", "attempt_3": "1. 15\n2. 35\n3. 25\n4. 0\n5. 2", "attempt_4": "1. 15\n2. 35\n3. 25\n4. 0\n5. 2"}</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C3, the response meets C4, the response meets C1, the response meets C2, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C1 failed: Criterion C1 failed. Although there are 5 lines, line 1 does not start with \"1. \" exactly due to leading spaces. All lines must start exactly with the specified prefixes without any preceding characters..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C5, the response meets C6, the response meets C2, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C1 failed: Criterion C1 failed because line 1 does not start with \"1. \" (it has leading spaces). While there are exactly 5 lines and lines 2\u20135 start correctly, the criterion requires all specified line starts to be exact.."}</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{"C1": 2, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question, first state the correct answer, then state the answer that is 7 less than the correct answer, and present each pair in the format '1. &lt;correct answer&gt; -&gt; &lt;subtracted answer&gt;'. Do not add any extra commentary or explanation. Provide exactly 5 lines, each starting with the appropriate number and a space.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1. 22 -&gt; 15
+2. 42 -&gt; 35
+3. 32 -&gt; 25
+4. 7 -&gt; 0
+5. 9 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '?"}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then another integer (no other characters within the line)."}, {"id": "C3", "criteria": "On each line, the second integer equals the first integer minus 7."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C3 passed: All pairs satisfy the criterion: the second integer equals the first integer minus 7. Each line (22→15, 42→35, 32→25, 7→0, 9→2) is correct and consistent with the evaluation criteria.. C1 passed: The response has exactly 5 lines. Line 1 starts with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '. No extra lines or deviations. Fully satisfies criterion C1.. C2 passed: All 5 lines follow the required format: each starts with '&lt;n&gt;. ', then an integer, a single space, '-&gt;', a single space, and another integer, with no extra characters. The numbering 1-5 is correct and each line is properly formatted.. C4 passed: The response contains exactly five lines in the specified format with no extra commentary or additional text. It fully aligns with the criterion C4.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 10 -&gt; 3\n2. 8 -&gt; 1\n3. 5 -&gt; -2\n4. 2 -&gt; -5\n5. -1 -&gt; -8", "attempt_2": "1. 12 -&gt; 5\n2. 18 -&gt; 11\n3. 22 -&gt; 15\n4. 27 -&gt; 20\n5. 33 -&gt; 26", "attempt_3": "Could you please provide the five questions you\u2019d like answered?", "attempt_4": "1. 10 -&gt; 3  \n2. 17 -&gt; 10  \n3. 24 -&gt; 17  \n4. 31 -&gt; 24  \n5. 38 -&gt; 31"}</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C1 failed: Criterion C1 failed because line 1 does not start exactly with \"1. \" (there are leading spaces). Although there are 5 lines and lines 2\u20135 start correctly, the criterion requires exact compliance for all specified lines..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C4\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C1 failed: The response is not formatted as exactly 5 lines starting with \"1. \" through \"5. \". Therefore, the criterion was not satisfied.. C3 failed: C3 failed because the response contains no lines with integers; therefore it does not (and cannot) show that on each line the second integer equals the first integer minus 7.. C2 failed: Criterion C2 failed because the response did not provide five lines in the specified \"&lt;n&gt;. integer -&gt; integer\" format; instead, it contained a question and no formatted lines.. C4 failed: C4 failed because the response did not contain exactly five formatted lines and included extra commentary instead..", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C1 failed: C1 failed because line 1 does not start exactly with \"1. \" (there are leading spaces). The criterion requires exact starting tokens on all five lines.. C2 failed: Criterion C2 failed because each line includes extra trailing spaces after the final integer, violating the requirement of having no other characters within the line.."}</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "FAIL", "FAIL"]</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{"C1": 3, "C2": 2, "C3": 1, "C4": 1}</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question, first state the correct answer (use the numbers 22, 42, 32, 7, 9 respectively), then state the answer that is 7 less than the correct answer, and present each pair in the format '1. &lt;correct answer&gt; -&gt; &lt;subtracted answer&gt;'. Do not add any extra commentary or explanation. Provide exactly 5 lines, each starting with the appropriate number and a space.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1. 22 -&gt; 15
+2. 42 -&gt; 35
+3. 32 -&gt; 25
+4. 7 -&gt; 0
+5. 9 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then another integer (no other characters within the line)."}, {"id": "C3", "criteria": "On each line, the second integer equals the first integer minus 7."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on lines 1 through 5 must be 22, 42, 32, 7, and 9 respectively."}]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C3 passed: All pairs follow the rule: second integer equals the first minus 7. 22-7=15, 42-7=35, 32-7=25, 7-7=0, 9-7=2. The correct_response fully aligns with the stated criterion.. C5 passed: The first integers on lines 1-5 are 22, 42, 32, 7, and 9 respectively, matching the specified criteria. No misalignment detected.. C4 passed: The response contains exactly five lines in the specified numbered format with no additional commentary or text, fully satisfying the criterion.. C1 passed: The response contains exactly 5 lines. Each line begins with the correct numbering format: '1. ', '2. ', '3. ', '4. ', and '5. '. There are no extra lines or deviations. The content after the numbering is irrelevant to the criteria. Therefore, it fully satisfies the evaluation criteria.. C2 passed: All 5 lines follow the required format: each begins with '&lt;n&gt;. ', then an integer, a single space, '-&gt;', a single space, and another integer, with no extra characters. The response is logically consistent and satisfies the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 22 -&gt; 15  \n2. 42 -&gt; 35  \n3. 32 -&gt; 25  \n4. 7 -&gt; 0  \n5. 9 -&gt; 2", "attempt_2": "1. 22 -&gt; 15\n2. 42 -&gt; 35\n3. 32 -&gt; 25\n4. 7 -&gt; 0\n5. 9 -&gt; 2", "attempt_3": "1. 22 -&gt; 15\n2. 42 -&gt; 35\n3. 32 -&gt; 25\n4. 7 -&gt; 0\n5. 9 -&gt; 2", "attempt_4": "1. 22 -&gt; 15\n2. 42 -&gt; 35\n3. 32 -&gt; 25\n4. 7 -&gt; 0\n5. 9 -&gt; 2"}</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C2 failed: Criterion C2 failed because lines 1\u20134 contain trailing spaces after the final integer, which adds extra characters beyond the specified pattern. Line 5 conforms, but the criterion requires all five lines to match exactly..", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C5, the response meets C1, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: Criterion C1 failed because line 1 does not literally start with \"1. \" due to leading spaces. Although there are exactly 5 lines and lines 2\u20135 start correctly, the strict requirement for line 1 is not satisfied..", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C5, the response meets C1, the response meets C4, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 1, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question, first state the correct answer (use the numbers 9, 7, 32, 42, and 22 respectively), then state the answer that is 7 less than the correct answer, and present each pair in the format '1. &lt;correct answer&gt; -&gt; &lt;subtracted answer&gt;'. Do not add any extra commentary or explanation. Provide exactly 5 lines, each starting with the appropriate number and a space. Each line must contain an integer, a single space, then '-&gt;', then a single space, then another integer, with no extra characters. The second integer must be exactly 7 less than the first integer.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1. 9 -&gt; 2
+2. 7 -&gt; 0
+3. 32 -&gt; 25
+4. 42 -&gt; 35
+5. 22 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then another integer (no other characters within the line)."}, {"id": "C3", "criteria": "On each line, the second integer equals the first integer minus 7."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on lines 1 through 5 must be 9, 7, 32, 42, and 22 respectively."}]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: All five lines are present and the first integers on lines 1–5 are 9, 7, 32, 42, and 22 respectively, matching criterion C5. The response is logically consistent and satisfies the evaluation criteria.. C3 passed: All pairs satisfy the criterion that the second integer equals the first minus 7: 9-7=2, 7-7=0, 32-7=25, 42-7=35, 22-7=15. The correct_response fully aligns with the evaluation criteria.. C2 passed: All 5 lines follow the required pattern: each begins with '&lt;n&gt;. ' followed by an integer, a single space, '-&gt;', a single space, and another integer, with no extra characters. The response is logically consistent and satisfies the evaluation criteria.. C1 passed: The response contains exactly 5 lines, and each line starts with the correct numbering format: '1. ', '2. ', '3. ', '4. ', '5. '. All criteria are satisfied.. C4 passed: The response contains exactly five formatted lines with no extra commentary or text, fully aligning with the evaluation criterion.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 9 -&gt; 2\n2. 7 -&gt; 0\n3. 32 -&gt; 25\n4. 42 -&gt; 35\n5. 22 -&gt; 15", "attempt_2": "9 -&gt; 2\n7 -&gt; 0\n32 -&gt; 25\n42 -&gt; 35\n22 -&gt; 15", "attempt_3": "1 9 -&gt; 2\n2 7 -&gt; 0\n3 32 -&gt; 25\n4 42 -&gt; 35\n5 22 -&gt; 15", "attempt_4": "1. 9 -&gt; 2\n2. 7 -&gt; 0\n3. 32 -&gt; 25\n4. 42 -&gt; 35\n5. 22 -&gt; 15"}</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C1, the response meets C5, the response meets C4, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 5 criteria passed. C1 failed: Criterion C1 failed. While the response has 5 lines, none of the lines start with the required prefixes '1. ', '2. ', '3. ', '4. ', and '5. '.. C2 failed: Criterion C2 failed because none of the five lines includes the required \"&lt;n&gt;. \" prefix before the integers. While the \"integer -&gt; integer\" pattern is present, the missing prefix means the format is not exactly as specified..", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"PASS\",\n    \"C5\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 2 out of 5 criteria passed. C1 failed: C1 failed because, although there are exactly 5 lines, each line does not start with the required prefixes \"1. \", \"2. \", \"3. \", \"4. \", and \"5. \". The student used \"1 \", \"2 \", etc., without the period and space.. C5 failed: Criterion C5 failed because the first integers on lines 1\u20135 are 1, 2, 3, 4, and 5, not 9, 7, 32, 42, and 22 as required.. C2 failed: Criterion C2 failed because each line lacks the required \"&lt;n&gt;. \" prefix (a number followed by a dot and a space). All five lines start with just the number without the dot and space..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "FAIL", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{"C1": 2, "C2": 2, "C3": 0, "C4": 0, "C5": 1}</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question, first state the correct answer (use the numbers 9, 7, 32, 42, and 22 respectively), then state the answer that is 7 less than the correct answer, and present each pair in the format '1. &lt;correct answer&gt; -&gt; &lt;subtracted answer&gt;'. Do not add any extra commentary or explanation. Provide exactly 5 lines, each starting with the appropriate number and a space. Each line must contain an integer, a single space, then '-&gt;', then a single space, then another integer, with no extra characters. The second integer must be exactly 7 less than the first integer. Additionally, the prefix must include a period after the number and a space, and there must be no extra characters before the prefix.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1. 9 -&gt; 2
+2. 7 -&gt; 0
+3. 32 -&gt; 25
+4. 42 -&gt; 35
+5. 22 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then another integer (no other characters within the line)."}, {"id": "C3", "criteria": "On each line, the second integer equals the first integer minus 7."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on lines 1 through 5 must be 9, 7, 32, 42, and 22 respectively."}]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: All five lines in the correct_response have the first integers as 9, 7, 32, 42, and 22 respectively, matching the evaluation criteria. The response is logically consistent and satisfies the specified requirement.. C3 passed: All pairs satisfy the criterion that the second integer equals the first integer minus 7 (9→2, 7→0, 32→25, 42→35, 22→15). The response fully aligns with and satisfies the evaluation criteria.. C1 passed: The response contains exactly 5 lines, and each line begins with the correct numbering format: '1. ', '2. ', '3. ', '4. ', and '5. '. All criteria are met.. C2 passed: All 5 lines conform to the required format: each starts with the '&lt;n&gt;. ' prefix, followed by an integer, a single space, '-&gt;', a single space, and another integer, with no extra characters. The response is logically consistent and satisfies the evaluation criteria.. C4 passed: The response contains exactly five formatted lines with no additional commentary or text, aligning fully with the specified criterion.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 9 -&gt; 2\n2. 7 -&gt; 0\n3. 32 -&gt; 25\n4. 42 -&gt; 35\n5. 22 -&gt; 15", "attempt_2": "1. 9 -&gt; 2\n2. 7 -&gt; 0\n3. 32 -&gt; 25\n4. 42 -&gt; 35\n5. 22 -&gt; 15", "attempt_3": "1. 9 -&gt; 2\n2. 7 -&gt; 0\n3. 32 -&gt; 25\n4. 42 -&gt; 35\n5. 22 -&gt; 15", "attempt_4": "1. 9 -&gt; 2\n2. 7 -&gt; 0\n3. 32 -&gt; 25\n4. 42 -&gt; 35\n5. 22 -&gt; 15"}</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C2 failed: Criterion C2 failed because each line includes leading spaces before the \"&lt;n&gt;. \" prefix, which are extra characters. The criterion requires that the only characters in each line be exactly the prefix, an integer, a single space, \"-&gt;\", a single space, and another integer, with no additional characters..", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C4, the response meets C5, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C4, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 1, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question, first state the correct answer (use the numbers 9, 7, 32, 42, and 22 respectively), then state the answer that is 7 less than the correct answer, and present each pair in the format '1. &lt;correct answer&gt; -&gt; &lt;subtracted answer&gt;!' . Do not add any extra commentary or explanation. Provide exactly 5 lines, each starting with the appropriate number and a space. Each line must contain an integer, a single space, then '-&gt;', then a single space, then another integer followed by an exclamation mark, with no other characters within the line. The prefix must include a period after the number and a space, and there must be no extra characters before the prefix.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1. 9 -&gt; 2!
+2. 7 -&gt; 0!
+3. 32 -&gt; 25!
+4. 42 -&gt; 35!
+5. 22 -&gt; 15!</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then another integer, then an exclamation mark '!', with no other characters within the line."}, {"id": "C3", "criteria": "On each line, the second integer equals the first integer minus 7."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on lines 1 through 5 must be 9, 7, 32, 42, and 22 respectively."}]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response has exactly 5 lines, and each line begins with the correct numbering format: '1. ', '2. ', '3. ', '4. ', and '5. '. It fully aligns with the specified criteria.. C4 passed: The response contains exactly five lines with the specified formatted content and no additional commentary or text, satisfying the criterion.. C5 passed: All five lines have the correct first integers in order: 9, 7, 32, 42, 22. The response aligns fully with the specified criterion.. C3 passed: All five lines satisfy the criterion that the second integer equals the first integer minus 7: 9→2 (9-7=2), 7→0 (7-7=0), 32→25 (32-7=25), 42→35 (42-7=35), 22→15 (22-7=15). The exclamation marks do not affect the integer values used for the check. The response fully aligns with the evaluation criteria.. C2 passed: All 5 lines match the required pattern: each begins with the '&lt;n&gt;. ' prefix with correct numbering 1-5, followed by an integer, a single space, '-&gt;', a single space, another integer, and a terminal '!'. No extra characters are present on any line. The response fully aligns with the criteria.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!", "attempt_2": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!", "attempt_3": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!", "attempt_4": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!"}</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C5, the response meets C4, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: C1 failed because, although there are five lines, line 1 does not start exactly with \"1. \" due to leading spaces..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C5, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: Criterion C1 failed because line 1 does not start with \"1. \" (it has leading spaces). The response does have 5 lines, but the strict starting format is not met.."}</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{"C1": 2, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first state the correct answer using the numbers 9, 7, 32, 42, and 22 respectively. Then state the answer that is 7 less than the correct answer. Present each pair in the format 'i. &lt;correct answer&gt; -&gt; &lt;subtracted answer&gt;!' . Each line must start exactly with the number, a period, a space, then the correct answer, a single space, then '-&gt;', a single space, then the subtracted answer, then an exclamation mark. There must be no extra characters before the prefix, no extra spaces anywhere in the line, and the line must end with the exclamation mark followed immediately by the end of the line. Provide exactly 5 lines, each on its own line, with no extra text.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1. 9 -&gt; 2!
+2. 7 -&gt; 0!
+3. 32 -&gt; 25!
+4. 42 -&gt; 35!
+5. 22 -&gt; 15!</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then another integer, then an exclamation mark '!', with no other characters within the line."}, {"id": "C3", "criteria": "On each line, the second integer equals the first integer minus 7."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on lines 1 through 5 must be 9, 7, 32, 42, and 22 respectively."}]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: The first integers on lines 1–5 are 9, 7, 32, 42, and 22 respectively, matching criterion C5 exactly. Additional content (e.g., '-&gt; 2!') does not affect the evaluation. The response is logically consistent and satisfies the criteria.. C1 passed: The response has exactly 5 lines, and each line starts with the correct prefix: '1. ', '2. ', '3. ', '4. ', and '5. '. All criteria in the response_reference are satisfied.. C3 passed: All five lines satisfy the criterion that the second integer equals the first integer minus 7. Specifically: 9→2 (9-7=2), 7→0 (7-7=0), 32→25 (32-7=25), 42→35 (42-7=35), and 22→15 (22-7=15). The exclamation marks are punctuation and do not affect the integers. The correct_response fully aligns with the evaluation criteria.. C2 passed: All five lines strictly follow the required pattern: '&lt;n&gt;. ' prefix, an integer, a single space, '-&gt;', a single space, another integer, then '!'. There are exactly five lines, each with single spaces around the arrow and no extra characters. The integers (including 0) are valid. Criteria fully satisfied.. C4 passed: The response contains exactly five formatted lines and no additional commentary or text, fully satisfying criterion C4.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!", "attempt_2": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!", "attempt_3": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!", "attempt_4": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!"}</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 5 criteria passed. C5 failed: Criterion C5 failed because the first integers on lines 1\u20135 are 1, 2, 3, 4, and 5 (the list numbering), not 9, 7, 32, 42, and 22 respectively.. C2 failed: Criterion C2 failed because each line contains leading spaces before the \"&lt;n&gt;. \" prefix, which are extra characters. The criterion requires that each line contain only the exact pattern with no other characters within the line..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C5, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: C1 failed because, although there are exactly 5 lines and lines 2\u20135 start correctly, line 1 does not start exactly with \"1. \" due to leading spaces, violating the strict start requirement..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C5 failed: Criterion C5 failed because the first integers on lines 1\u20135 are 1, 2, 3, 4, and 5 (from the line numbering), not 9, 7, 32, 42, and 22 as required.."}</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 1, "C3": 0, "C4": 0, "C5": 2}</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>8</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first state the correct answer using the numbers that are the results of the calculations 4+5, 10-3, 8*4, 7*6, and 12+10 respectively. Then state the answer that is 7 less than the correct answer. Present each pair in the format 'i. &lt;correct answer&gt; -&gt; &lt;subtracted answer&gt;!' . Each line must start exactly with the number, a period, a space, then the correct answer, a single space, then '-&gt;', a single space, then the subtracted answer, then an exclamation mark. There must be no extra characters before the prefix, no extra spaces anywhere in the line, and the line must end with the exclamation mark followed immediately by the end of the line. Provide exactly 5 lines, each on its own line, with no extra text.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1. 9 -&gt; 2!
+2. 7 -&gt; 0!
+3. 32 -&gt; 25!
+4. 42 -&gt; 35!
+5. 22 -&gt; 15!</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then another integer, then an exclamation mark '!', with no other characters within the line."}, {"id": "C3", "criteria": "On each line, the second integer equals the first integer minus 7."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on line 1 must be 9, on line 2 must be 7, on line 3 must be 32, on line 4 must be 42, and on line 5 must be 22."}]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: All 5 lines conform to the specified format: each begins with the correct '&lt;n&gt;. ' prefix, followed by an integer, a single space, '-&gt;', a single space, another integer, and a trailing '!'. No extra characters or deviations are present.. C5 passed: All specified criteria are met: the first integers on lines 1–5 are 9, 7, 32, 42, and 22 respectively. The additional '-&gt; ...!' content does not affect the criterion, which only concerns the first integer on each line. Therefore, the response aligns fully with the evaluation criteria.. C1 passed: The response has exactly five lines, and each line begins with the correct numbering format: '1. ', '2. ', '3. ', '4. ', and '5. '. It fully meets the specified criteria.. C3 passed: Each line satisfies the criterion that the second integer equals the first minus 7: 9-7=2, 7-7=0, 32-7=25, 42-7=35, 22-7=15. The exclamation marks do not affect the numeric relationship; the integer values align with the criterion.. C4 passed: The response contains exactly five formatted lines with no additional commentary or text, aligning fully with criterion C4.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!", "attempt_2": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!", "attempt_3": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!", "attempt_4": "1. 9 -&gt; 2!\n2. 7 -&gt; 0!\n3. 32 -&gt; 25!\n4. 42 -&gt; 35!\n5. 22 -&gt; 15!"}</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C3, the response meets C1, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C5 failed: Criterion C5 failed because the first integers on lines 1\u20135 are 1, 2, 3, 4, and 5 (from the enumeration), not 9, 7, 32, 42, and 22 as required..", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C3, the response meets C5, the response meets C2, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C2, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 1}</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>9</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first state the correct answer using the numbers that are the results of the calculations 8+6, 15-4, 7*3, 9*4, and 12+5 respectively. Then state the answer that is 7 less than the correct answer. Present each pair in the format 'i. &lt;correct answer&gt; -&gt; &lt;subtracted answer&gt;!' . Each line must start exactly with the number, a period, a space, then the correct answer, a single space, then '-&gt;', a single space, then the subtracted answer, then an exclamation mark. There must be no extra characters before the prefix, no extra spaces anywhere in the line, and the line must end with the exclamation mark followed immediately by the end of the line. Provide exactly 5 lines, each on its own line, with no extra text.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1. 14 -&gt; 7!
+2. 11 -&gt; 4!
+3. 21 -&gt; 14!
+4. 36 -&gt; 29!
+5. 17 -&gt; 10!</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then another integer, then an exclamation mark '!', with no other characters within the line."}, {"id": "C3", "criteria": "On each line, the second integer equals the first integer minus 7."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on line 1 must be 14, on line 2 must be 11, on line 3 must be 21, on line 4 must be 36, and on line 5 must be 17."}]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: All first integers on each line match the specified criteria: line 1 = 14, line 2 = 11, line 3 = 21, line 4 = 36, line 5 = 17. Additional content after '-&gt;' does not conflict with the criteria. The response is logically consistent and satisfies the evaluation criteria.. C4 passed: The response contains exactly the five specified lines with no extra commentary or additional text, matching the required formatting and fully aligning with the evaluation criteria.. C3 passed: All five lines satisfy the criterion that the second integer equals the first integer minus 7: 14→7 (14-7), 11→4 (11-7), 21→14 (21-7), 36→29 (36-7), 17→10 (17-7). The presence of '!' does not affect the integer values; the mapping is consistent with the criteria.. C2 passed: All 5 lines start with the '&lt;n&gt;. ' prefix and follow the exact format: integer, single space, '-&gt;', single space, integer, then '!'. No extra characters are present. The response fully aligns with the specified criteria.. C1 passed: The response has exactly 5 lines, and each line correctly starts with the required numbering format: '1. ', '2. ', '3. ', '4. ', and '5. '. The response aligns with and satisfies the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 14 -&gt; 7!\n2. 11 -&gt; 4!\n3. 21 -&gt; 14!\n4. 36 -&gt; 29!\n5. 17 -&gt; 10!", "attempt_2": "1. 14 -&gt; 7!\n2. 11 -&gt; 4!\n3. 21 -&gt; 14!\n4. 36 -&gt; 29!\n5. 17 -&gt; 10!", "attempt_3": "1. 14 -&gt; 7!\n2. 11 -&gt; 4!\n3. 21 -&gt; 14!\n4. 36 -&gt; 29!\n5. 17 -&gt; 10!", "attempt_4": "1. 14 -&gt; 7!\n2. 11 -&gt; 4!\n3. 21 -&gt; 14!\n4. 36 -&gt; 29!\n5. 17 -&gt; 10!"}</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C3 failed: C3 failed because on each line the second value is written with a factorial (e.g., 7!), which does not equal the first integer minus 7. Therefore, the condition that the second integer equals the first integer minus 7 is not satisfied..", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C5, the response meets C1, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C3 failed: Criterion C3 failed because on each line the second value is written with a factorial (e.g., 7!, 4!, 14!, 29!, 10!), which denotes different integers than the first minus 7. Therefore, the second integer does not equal the first integer minus 7 on any line..", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C3, the response meets C2, the response meets C1, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 2, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first state the correct answer using the numbers that are the results of the calculations 7*2, 13+4, 5*5, 9+7, and 10+2 respectively. Then state the answer that is 7 less than the correct answer. Present each pair in the format 'i. &lt;correct answer&gt; -&gt; &lt;subtracted answer in words&gt;!' . Each line must start exactly with the number, a period, a space, then the correct answer, a single space, then '-&gt;', a single space, then the subtracted answer written as an English word, then an exclamation mark. There must be no extra characters before the prefix, no extra spaces anywhere in the line, and the line must end with the exclamation mark followed immediately by the end of the line. Provide exactly 5 lines, each on its own line, with no extra text.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1. 14 -&gt; seven!
+2. 17 -&gt; ten!
+3. 25 -&gt; eighteen!
+4. 16 -&gt; nine!
+5. 12 -&gt; five!</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then an English word representing the subtracted answer, then an exclamation mark '!', with no other characters within the line."}, {"id": "C3", "criteria": "On each line, the English word must correspond to the integer that is exactly 7 less than the first integer on that line."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on line 1 must be 14, on line 2 must be 17, on line 3 must be 25, on line 4 must be 16, and on line 5 must be 12."}]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C3 passed: All lines meet the criterion: the English word matches the integer exactly 7 less than the given number (14-&gt;7, 17-&gt;10, 25-&gt;18, 16-&gt;9, 12-&gt;5). The responses are logically consistent and correctly aligned with the evaluation criteria.. C5 passed: All lines contain the required first integers in the correct order: 14, 17, 25, 16, 12. Additional text after the integers does not conflict with the criteria. The response fully satisfies the evaluation criteria.. C1 passed: The response contains exactly 5 lines, and each line starts with the correct numbering format: '1. ', '2. ', '3. ', '4. ', and '5. '. No extra lines or deviations are present. Alignment with the criteria is satisfied.. C4 passed: The response contains exactly five lines in the specified format and includes no additional commentary or text, fully aligning with the criterion.. C2 passed: All 5 lines follow the required pattern: '&lt;n&gt;. ' prefix, an integer, a single space, '-&gt;', a single space, an English word, and a trailing '!'. No extra characters are present on any line. The words used (seven, ten, eighteen, nine, five) are valid English words. Based on the provided criteria, the response aligns and would satisfy the evaluation.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 14 -&gt; seven!\n2. 17 -&gt; ten!\n3. 25 -&gt; eighteen!\n4. 16 -&gt; nine!\n5. 12 -&gt; five!", "attempt_2": "1. 14 -&gt; seven!\n2. 17 -&gt; ten!\n3. 25 -&gt; eighteen!\n4. 16 -&gt; nine!\n5. 12 -&gt; five!", "attempt_3": "1. 14 -&gt; seven!\n2. 17 -&gt; ten!\n3. 25 -&gt; eighteen!\n4. 16 -&gt; nine!\n5. 12 -&gt; five!", "attempt_4": "1. 14 -&gt; seven!\n2. 17 -&gt; ten!\n3. 25 -&gt; eighteen!\n4. 16 -&gt; nine!\n5. 12 -&gt; five!"}</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C5, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C5 failed: Criterion C5 failed. On each line, the first integer is the leading line number (1, 2, 3, 4, 5), not the required integers 14, 17, 25, 16, and 12 respectively..", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C3, the response meets C1, the response meets C4, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C3, the response meets C4, the response meets C1, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 1}</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>11</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first state the correct answer using the numbers that are the results of the calculations 7*2, 13+4, 5*5, 9+7, and 10+2 respectively. Then state the answer that is 7 less than the correct answer. Present each pair in the format 'i. &lt;correct answer&gt; -&gt; &lt;subtracted answer in words&gt;!' . Each line must start exactly with the number, a period, a space, then the correct answer, a single space, then '-&gt;', a single space, then the subtracted answer written as an English word in ALL CAPS, then an exclamation mark. There must be no extra characters before the prefix, no extra spaces anywhere in the line, and the line must end with the exclamation mark followed immediately by the end of the line. Provide exactly 5 lines, each on its own line, with no extra text.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1. 14 -&gt; SEVEN!
+2. 17 -&gt; TEN!
+3. 25 -&gt; EIGHTEEN!
+4. 16 -&gt; NINE!
+5. 12 -&gt; FIVE!</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then an English word representing the subtracted answer in ALL CAPS, then an exclamation mark '!', with no other characters within the line."}, {"id": "C3", "criteria": "On each line, the English word must correspond to the integer that is exactly 7 less than the first integer on that line."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on line 1 must be 14, on line 2 must be 17, on line 3 must be 25, on line 4 must be 16, and on line 5 must be 12."}]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C3 passed: All lines correctly map the first integer to the English word for the integer exactly 7 less. 14-&gt;7 (SEVEN), 17-&gt;10 (TEN), 25-&gt;18 (EIGHTEEN), 16-&gt;9 (NINE), 12-&gt;5 (FIVE). The response fully aligns with the criterion.. C4 passed: The response contains exactly five formatted lines with no additional commentary or text, fully aligning with the specified criterion.. C1 passed: The response contains exactly 5 lines. Each line correctly starts with the required prefixes: '1. ', '2. ', '3. ', '4. ', and '5. '. All criteria are met and the format aligns with the evaluation reference.. C2 passed: All 5 lines adhere to the required format: '&lt;n&gt;. &lt;integer&gt; -&gt; &lt;ALL-CAPS ENGLISH WORD&gt;!'. Spacing and punctuation are correct, there are no extra characters, and the words accurately represent the integers minus 7 (SEVEN, TEN, EIGHTEEN, NINE, FIVE). The response fully aligns with the evaluation criteria.. C5 passed: All five lines contain the required first integers: line 1 has 14, line 2 has 17, line 3 has 25, line 4 has 16, and line 5 has 12. The additional text after the arrows does not affect the criteria. Alignment is correct.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 14 -&gt; SEVEN!\n2. 17 -&gt; TEN!\n3. 25 -&gt; EIGHTEEN!\n4. 16 -&gt; NINE!\n5. 12 -&gt; FIVE!", "attempt_2": "1. 14 -&gt; SEVEN!\n2. 17 -&gt; TEN!\n3. 25 -&gt; EIGHTEEN!\n4. 16 -&gt; NINE!\n5. 12 -&gt; FIVE!", "attempt_3": "1. 14 -&gt; SEVEN!\n2. 17 -&gt; TEN!\n3. 25 -&gt; EIGHTEEN!\n4. 16 -&gt; NINE!\n5. 12 -&gt; FIVE!", "attempt_4": "1. 14 -&gt; SEVEN!\n2. 17 -&gt; TEN!\n3. 25 -&gt; EIGHTEEN!\n4. 16 -&gt; NINE!\n5. 12 -&gt; FIVE!"}</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C4, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: C1 failed because line 1 does not start exactly with \"1. \" (it has leading spaces). All specified line-start requirements must be met exactly..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C4, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>12</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first state the correct answer using the numbers that are the results of the calculations 7*2, 13+4, 5*5, 9+7, and 10+2 respectively. Then state the answer that is 7 less than the correct answer. Present each pair in the format 'i. &lt;correct answer&gt; -&gt; &lt;subtracted answer in words&gt;?' . Each line must start exactly with the number, a period, a space, then the correct answer, a single space, then '-&gt;', a single space, then the subtracted answer written as an English word in ALL CAPS, then a question mark. There must be no extra characters before the prefix, no extra spaces anywhere in the line, and the line must end with the question mark followed immediately by the end of the line. Provide exactly 5 lines, each on its own line, with no extra text.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1. 14 -&gt; SEVEN?
+2. 17 -&gt; TEN?
+3. 25 -&gt; EIGHTEEN?
+4. 16 -&gt; NINE?
+5. 12 -&gt; FIVE?</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then an English word representing the subtracted answer in ALL CAPS, then a question mark '?', with no other characters within the line."}, {"id": "C3", "criteria": "On each line, the English word must correspond to the integer that is exactly 7 less than the first integer on that line."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on line 1 must be 14, on line 2 must be 17, on line 3 must be 25, on line 4 must be 16, and on line 5 must be 12."}]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: All lines meet the specified criteria: line 1 has 14, line 2 has 17, line 3 has 25, line 4 has 16, and line 5 has 12. The additional text after the integers does not conflict with the criteria. The response is logically consistent and satisfies the evaluation criteria.. C3 passed: All lines satisfy the criterion: the English word matches the integer that is exactly 7 less than the given number. 14→SEVEN (7), 17→TEN (10), 25→EIGHTEEN (18), 16→NINE (9), 12→FIVE (5). Alignment is correct and consistent.. C1 passed: The response contains exactly 5 lines, and each line starts with the correct numbering format ('1. ', '2. ', '3. ', '4. ', '5. '). No deviations or extra lines are present. It fully satisfies criterion C1.. C4 passed: The response contains exactly the five specified lines with no additional commentary or text. It adheres to the required formatting and satisfies the evaluation criterion.. C2 passed: All 5 lines adhere to the required format: each begins with '&lt;n&gt;. ', followed by an integer, a single space, '-&gt;', a single space, an ALL-CAPS English number word, and a trailing '?', with no extra characters. Spacing and casing are correct across all lines. While the semantic aspect of 'subtracted answer' cannot be verified from the provided criteria, the structural requirements are fully met.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 14 -&gt; SEVEN?\n2. 17 -&gt; TEN?\n3. 25 -&gt; EIGHTEEN?\n4. 16 -&gt; NINE?\n5. 12 -&gt; FIVE?", "attempt_2": "1. 14 -&gt; SEVEN?\n2. 17 -&gt; TEN?\n3. 25 -&gt; EIGHTEEN?\n4. 16 -&gt; NINE?\n5. 12 -&gt; FIVE?", "attempt_3": "1. 14 -&gt; SEVEN?\n2. 17 -&gt; TEN?\n3. 25 -&gt; EIGHTEEN?\n4. 16 -&gt; NINE?\n5. 12 -&gt; FIVE?", "attempt_4": "1. 14 -&gt; SEVEN?\n2. 17 -&gt; TEN?\n3. 25 -&gt; EIGHTEEN?\n4. 16 -&gt; NINE?\n5. 12 -&gt; FIVE?"}</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C5, the response meets C3, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C4, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C4, the response meets C3, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C4, the response meets C2, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>13</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first state the correct answer using the numbers that are the results of the calculations 7*2, 13+4, 5*5, 9+7, and 10+2 respectively. Then state the answer that is 7 less than the correct answer. Present each pair in the format 'i. &lt;correct answer&gt; -&gt; &lt;subtracted answer in words&gt;?' . Each line must start exactly with the number, a period, a space, then the correct answer, a single space, then '-&gt;', a single space, then the subtracted answer written as an English word in ALL CAPS, spelled backwards, then a question mark. There must be no extra characters before the prefix, no extra spaces anywhere in the line, and the line must end with the question mark followed immediately by the end of the line. Provide exactly 5 lines, each on its own line, with no extra text.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1. 14 -&gt; NEVES?
+2. 17 -&gt; NET?
+3. 25 -&gt; NEETHGIE?
+4. 16 -&gt; ENIN?
+5. 12 -&gt; EVIF?</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then an English word representing the subtracted answer in ALL CAPS, spelled backwards, then a question mark '?', with no other characters within the line."}, {"id": "C3", "criteria": "On each line, the English word (spelled backwards) must correspond to the integer that is exactly 7 less than the first integer on that line."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "The first integer on line 1 must be 14, on line 2 must be 17, on line 3 must be 25, on line 4 must be 16, and on line 5 must be 12."}]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: All lines meet the criterion: the first integers are 14, 17, 25, 16, and 12 respectively on lines 1–5. The response aligns fully with the specified evaluation criteria.. C1 passed: The response contains exactly five lines, each starting with the correct numbering format ('1. ' through '5. '). It fully aligns with the specified criterion.. C4 passed: The response contains exactly the five specified lines with no additional commentary or text, fully aligning with criterion C4.. C3 passed: All lines meet the criterion: the word is the backward spelling of the English name for the number that is 7 less than the given integer. 14-&gt;7 (NEVES), 17-&gt;10 (NET), 25-&gt;18 (NEETHGIE), 16-&gt;9 (ENIN), 12-&gt;5 (EVIF). Uppercase and trailing question marks do not affect correctness. Alignment confirmed.. C2 passed: All 5 lines follow the required format: '&lt;n&gt;. ' prefix, an integer, a single space, '-&gt;', a single space, then an ALL CAPS English number word spelled backwards, ending with '?', with no extra characters. The reversed words correspond to valid subtraction results (e.g., 14-7=7 -&gt; SEVEN -&gt; NEVES), demonstrating logical consistency with the 'subtracted answer' requirement.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 14 -&gt; NEVES?\n2. 17 -&gt; NET?\n3. 25 -&gt; NEETHGIE?\n4. 16 -&gt; ENIN?\n5. 12 -&gt; EVIF?", "attempt_2": "1. 14 -&gt; NEVES?\n2. 17 -&gt; NET?\n3. 25 -&gt; NEETHGIE?\n4. 16 -&gt; ENIN?\n5. 12 -&gt; EVIF?", "attempt_3": "1. 14 -&gt; NEVES?\n2. 17 -&gt; NET?\n3. 25 -&gt; NEETHGIE?\n4. 16 -&gt; ENIN?\n5. 12 -&gt; EVIF?", "attempt_4": "1. 14 -&gt; NEVES?\n2. 17 -&gt; NET?\n3. 25 -&gt; NEETHGIE?\n4. 16 -&gt; ENIN?\n5. 12 -&gt; EVIF?"}</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 5 criteria passed. C3 failed: C3 failed because on each line the student appended a \u201c?\u201d so the word does not exactly match the backwards spelling of the English word for the number that is 7 less (expected: NEVES, NET, NEETHGIE, ENIN, EVIF). All lines therefore fail the criterion.. C1 failed: Criterion C1 failed because line 1 does not start exactly with \"1. \" (it has leading spaces). While there are exactly 5 lines and lines 2\u20135 start correctly, the requirement specifies that each line must start exactly as stated..", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"FAIL\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 5 criteria passed. C3 failed: Criterion C3 failed because, although the reversed words correspond to the correct numbers, each line includes an extra question mark, so the words are not exactly the English words spelled backwards as required.. C1 failed: C1 failed because line 1 does not start exactly with \"1. \" (it has leading spaces). While there are five lines and lines 2\u20135 begin correctly, the strict requirement for line 1 was not met..", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C3 failed: Criterion C3 failed because on each line the reversed English word includes an extra \u201c?\u201d character, so it does not literally match the required backward-spelled word for the integer that is 7 less than the given number. All lines must comply exactly, and they do not..", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C3 failed: Criterion C3 failed because on each line the output includes an extra \"?\" character, so it is not exactly the English word spelled backwards corresponding to the number that is 7 less.."}</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>{"C1": 2, "C2": 0, "C3": 4, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>14</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first state the correct answer using the numbers that are the results of the calculations 7*2, 13+4, 5*5, 9+7, and 10+2 respectively. Then state the answer that is the number of letters in the English word of the correct answer. Present each pair in the format 'i. &lt;correct answer&gt; -&gt; &lt;subtracted answer in words&gt;?' . Each line must start exactly with the number, a period, a space, then the correct answer, a single space, then '-&gt;', a single space, then the subtracted answer written as an English word in ALL CAPS, spelled backwards, then a question mark. There must be no extra characters before the prefix, no extra spaces anywhere in the line, and the line must end with the question mark followed immediately by the end of the line. Provide exactly 5 lines, each on its own line, with no extra text.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1. 14 -&gt; THGIE?\n2. 17 -&gt; ENIN?\n3. 25 -&gt; NET?\n4. 16 -&gt; NEVES?\n5. 12 -&gt; XIS?</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each of the 5 lines, after the '&lt;n&gt;. ' prefix there is an integer, followed by a single space, then '-&gt;', then a single space, then an English word representing the subtracted answer in ALL CAPS, spelled backwards, then a question mark '?', with no other characters within the line."}, {"id": "C3", "criteria": "On each line, the English word (spelled backwards) must correspond to the integer that is exactly the number of letters in the English word of the first integer on that line."}, {"id": "C4", "criteria": "No extra commentary or explanation is included; the response contains only these 5 formatted lines and no additional text."}, {"id": "C5", "criteria": "For lines 1 through 5 respectively, the integer immediately after the '&lt;n&gt;. ' prefix must equal the results of the calculations in order: 14 (7*2), 17 (13+4), 25 (5*5), 16 (9+7), and 12 (10+2)."}]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: All five lines have the required integers immediately after the numbering: 14, 17, 25, 16, and 12, matching the specified results (7*2, 13+4, 5*5, 9+7, 10+2). The response fully aligns with the evaluation criteria.. C4 passed: The response contains exactly the five specified lines with no additional commentary or text, satisfying the criterion.. C1 passed: The response contains exactly five lines, and each line begins with the correct numbering format ('1. ' through '5. '). It fully aligns with the given evaluation criterion.. C3 passed: All lines satisfy the criterion. For each first integer, the number of letters in its English word maps to the correct integer, and the provided backward-spelled English word matches that integer: 14-&gt;eight (8)-&gt;THGIE, 17-&gt;nine (9)-&gt;ENIN, 25-&gt;ten (10)-&gt;NET, 16-&gt;seven (7)-&gt;NEVES, 12-&gt;six (6)-&gt;XIS. The response is logically consistent and aligns with the evaluation criteria.. C2 passed: All 5 entries follow the required pattern: '&lt;n&gt;. ' prefix, an integer, a single space, '-&gt;', a single space, an ALL CAPS English number word spelled backwards, and a trailing '?'. The words used reverse to valid number words (THGIE=EIGHT, ENIN=NINE, NET=TEN, NEVES=SEVEN, XIS=SIX). Spacing and characters match the specification with no extraneous content.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 14 -&gt; THGIE?\n2. 17 -&gt; ENIN?\n3. 25 -&gt; NET?\n4. 16 -&gt; NEVES?\n5. 12 -&gt; XIS?", "attempt_2": "1. 14 -&gt; THGIE?\n2. 17 -&gt; ENIN?\n3. 25 -&gt; NET?\n4. 16 -&gt; NEVES?\n5. 12 -&gt; XIS?", "attempt_3": "1. 14 -&gt; THGIE?\n2. 2. 17 -&gt; ENIN?\n3. 3. 25 -&gt; NET?\n4. 4. 16 -&gt; NEVES?\n5. 5. 12 -&gt; XIS?", "attempt_4": "1. 14 -&gt; THGIE?\n2. 2. 17 -&gt; ENIN?\n3. 3. 25 -&gt; NET?\n4. 4. 16 -&gt; NEVES?\n5. 5. 12 -&gt; XIS?"}</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 5 criteria passed. C3 failed: Criterion C3 failed because on each line the word on the right includes a trailing \u201c?\u201d and therefore is not exactly the English word (spelled backwards) corresponding to the required number. Literal compliance requires the exact backward-spelled word with no extra characters.. C2 failed: The lines follow the required formatting, but the words after '-&gt;' do not represent a subtracted answer. For example, \"14 -&gt; THGIE?\" (EIGHT) does not correspond to a clear subtraction result. Therefore, the sole criterion was not fully satisfied..", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C3 failed: C3 failed because on each line the provided reversed string includes an extra \"?\" character, so it is not exactly the English word (spelled backwards) corresponding to the required number. Literal compliance is required..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 2 out of 5 criteria passed. C5 failed: C5 failed because, although line 1 correctly has 14 after the '1. ' prefix, lines 2\u20135 have incorrect integers immediately after their prefixes (\"2\", \"3\", \"4\", and \"5\" respectively), which do not match the required 17, 25, 16, and 12.. C3 failed: C3 failed. The outputs include extra question marks and therefore are not exactly the English words spelled backwards. Additionally, if the \u201cfirst integer\u201d is taken as the list index (e.g., \u201c1.\u201d), the correspondences also do not match.. C2 failed: C2 failed because lines 2\u20135 include an extra numbering segment (e.g., \"2. 2. 17 -&gt; ...\"), so after the \"&lt;n&gt;. \" prefix there is not directly an integer, violating the required format and the \"no other characters within the line\" condition. Additionally, the reversed words do not consistently represent a clear subtracted answer..", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C5\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 1 out of 5 criteria passed. C3 failed: Criterion C3 failed because on each line the backward-spelled English word must exactly match the required word. The student appended a question mark to each word (e.g., \"THGIE?\" instead of \"THGIE\"), so none of the lines strictly satisfy the criterion.. C5 failed: Criterion C5 failed. For lines 2\u20135, the integer immediately after the \"&lt;n&gt;. \" prefix is 2, 3, 4, and 5 respectively, which do not match the required results 17, 25, 16, and 12. Only line 1 matches, but the criterion requires all lines to match.. C2 failed: Criterion C2 failed because lines 2\u20135 contain extra characters after the \"&lt;n&gt;. \" prefix (e.g., \"2. 2. 17 ...\"), violating the required sequence of exactly one integer immediately after the prefix and the \"no other characters within the line\" rule. Only line 1 matches the required format.. C1 failed: Criterion C1 failed because line 1 does not start exactly with \"1. \" due to leading spaces. Therefore, the response does not fully satisfy the requirement of each line starting exactly with the specified prefix.."}</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "FAIL", "FAIL"]</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 3, "C3": 4, "C4": 0, "C5": 2}</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>15</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first state the correct answer using the numbers that are the results of the calculations 7*2, 13+4, 5*5, 9+7, and 10+2 respectively. Then state the answer that is the number of letters in the English word of that correct answer. Present each pair in the format 'i. &lt;correct answer&gt; -&gt; &lt;subtracted answer in words&gt;?' . Each line must start exactly with the number, a period, a space, then the correct answer as a plain integer with no extra characters, a single space, then '-&gt;', a single space, then the English word for the number of letters in the English word of that integer, written in ALL CAPS, spelled backwards, then a question mark. There must be no extra characters before the prefix, no extra spaces anywhere in the line, and the line must end with the question mark followed immediately by the end of the line. Provide exactly 5 lines, each on its own line, with no extra text.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1. 14 -&gt; THGIE?
+2. 17 -&gt; ENIN?
+3. 25 -&gt; NET?
+4. 16 -&gt; NEVES?
+5. 12 -&gt; XIS?</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each line, after the '&lt;n&gt;. ' prefix there must be a plain integer (no extra characters), a single space, then '-&gt;', a single space, then an ALL CAPS English word that is the exact backward spelling of the English word for the number of letters in the English word of that integer, then a question mark '?', with no other characters in the line."}, {"id": "C3", "criteria": "For lines 1 through 5 respectively, the integer immediately after the '&lt;n&gt;. ' prefix must equal the results of the calculations in order: 14, 17, 25, 16, and 12."}, {"id": "C4", "criteria": "There must be no extra spaces anywhere in each line beyond those specified: exactly one space after the '&lt;n&gt;.' prefix, exactly one space before and after '-&gt;', and no leading or trailing spaces; the line must end immediately after the '?' with no trailing whitespace."}]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly 5 lines. Each line begins with the required prefix: '1. ', '2. ', '3. ', '4. ', and '5. '. No extra lines or deviations are present, so it aligns with the evaluation criteria.. C3 passed: All five lines have the integers 14, 17, 25, 16, and 12 respectively immediately after the numbering prefix, matching the required sequence. Additional text after the integers does not affect the criterion. Alignment is correct.. C4 passed: All five lines have exactly one space after the '&lt;n&gt;.' prefix, exactly one space before and after '-&gt;', no leading or trailing spaces, and each line ends immediately after the '?'. The formatting strictly adheres to the specified criteria.. C2 passed: All lines follow the required format with '&lt;n&gt;. ' prefix, a plain integer, single spaces around '-&gt;', and an ALL CAPS reversed English word corresponding to the number of letters in the spelled-out integer, ending with a '?'. Computations: 14 ('fourteen'=8-&gt;'eight'-&gt;'THGIE'), 17 ('seventeen'=9-&gt;'nine'-&gt;'ENIN'), 25 ('twenty-five'=10-&gt;'ten'-&gt;'NET'), 16 ('sixteen'=7-&gt;'seven'-&gt;'NEVES'), 12 ('twelve'=6-&gt;'six'-&gt;'XIS'). No extraneous characters present.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 14 -&gt; THGIE?\n2. 17 -&gt; ENIN?\n3. 25 -&gt; NET?\n4. 16 -&gt; NEVES?\n5. 12 -&gt; XIS?", "attempt_2": "1. 14 -&gt; THGIE?\n2. 17 -&gt; ENIN?\n3. 25 -&gt; NET?\n4. 16 -&gt; NEVES?\n5. 12 -&gt; XIS?", "attempt_3": "1. 14 -&gt; THGIE?\n2. 17 -&gt; ENIN?\n3. 25 -&gt; NET?\n4. 16 -&gt; NEVES?\n5. 12 -&gt; XIS?", "attempt_4": "1. 14 -&gt; THGIE?\n2. 17 -&gt; ENIN?\n3. 25 -&gt; NET?\n4. 16 -&gt; NEVES?\n5. 12 -&gt; XIS?"}</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C4 failed: C4 failed because the first line has leading spaces before \"1.\", violating the requirement of no leading spaces. All lines must strictly have no leading/trailing spaces and exactly one space in the specified positions..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"FAIL\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C4 failed: C4 failed because the first line has leading spaces before \"1.\", violating the requirement of no leading spaces. All lines must strictly follow the specified spacing rules; a single violation causes failure.."}</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 2}</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>16</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first compute the result of the i‑th calculation: 7*2, 13+4, 5*5, 9+7, 10+2. Let N be that result. Write the English word for N, count its letters to get L. Write the English word for L, reverse it, and then prepend the digit i to the reversed word before outputting it in ALL CAPS, followed by a question mark. Present each line exactly as: i. &lt;N&gt; -&gt; &lt;prefixed_reversed_word&gt;? with the same spacing rules.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1. 14 -&gt; 1THGIE?
+2. 17 -&gt; 2ENIN?
+3. 25 -&gt; 3NET?
+4. 16 -&gt; 4NEVES?
+5. 12 -&gt; 5XIS?</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each line, after the '&lt;n&gt;. ' prefix there must be a plain integer (no extra characters), a single space, then '-&gt;', a single space, then an ALL CAPS English word that is the exact backward spelling of the English word for the number of letters in the English word of that integer, prefixed by the line number, then a question mark '?', with no other characters in the line."}, {"id": "C3", "criteria": "For lines 1 through 5 respectively, the integer immediately after the '&lt;n&gt;. ' prefix must equal the results of the calculations in order: 14, 17, 25, 16, and 12."}, {"id": "C4", "criteria": "There must be no extra spaces anywhere in each line beyond those specified: exactly one space after the '&lt;n&gt;.' prefix, exactly one space before and after '-&gt;', and no leading or trailing spaces; the line must end immediately after the '?' with no trailing whitespace."}]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly five lines, and each line begins with the required numbering format ('1. ', '2. ', '3. ', '4. ', '5. '). Therefore, it meets the evaluation criteria.. C3 passed: All five lines use the '&lt;n&gt;. ' prefix correctly, and the integer immediately following the prefix matches the required sequence: 14, 17, 25, 16, and 12 for lines 1 through 5 respectively. Criterion C3 is fully satisfied.. C4 passed: All five lines follow the required spacing: exactly one space after the '&lt;n&gt;.' prefix, exactly one space before and after '-&gt;', no extra spaces elsewhere, no leading or trailing spaces, and each line ends immediately after '?'. The formatting is consistent and satisfies the evaluation criteria.. C2 passed: All five lines follow the required format: '&lt;n&gt;. ' prefix, a plain integer, a single space, '-&gt;', a single space, then an ALL CAPS reversed English word for the count of letters in the English word of that integer, prefixed by the line number, ending with '?'. Verification: 14 -&gt; FOURTEEN (8) -&gt; EIGHT -&gt; THGIE prefixed by 1 =&gt; 1THGIE?; 17 -&gt; SEVENTEEN (9) -&gt; NINE -&gt; ENIN prefixed by 2 =&gt; 2ENIN?; 25 -&gt; TWENTYFIVE (10) -&gt; TEN -&gt; NET prefixed by 3 =&gt; 3NET?; 16 -&gt; SIXTEEN (7) -&gt; SEVEN -&gt; NEVES prefixed by 4 =&gt; 4NEVES?; 12 -&gt; TWELVE (6) -&gt; SIX -&gt; XIS prefixed by 5 =&gt; 5XIS?. Formatting and logic align with the criteria.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 14 -&gt; 1THGIE?  \n2. 17 -&gt; 2ENIN?  \n3. 25 -&gt; 3NET?  \n4. 16 -&gt; 4NEVES?  \n5. 12 -&gt; 5XIS?", "attempt_2": "1. 14 -&gt; 1THGIE?  \n2. 17 -&gt; 2ENIN?  \n3. 25 -&gt; 3NET?  \n4. 16 -&gt; 4NEVES?  \n5. 12 -&gt; 5XIS?", "attempt_3": "1. 14 -&gt; 1THGIE?  \n2. 17 -&gt; 2ENIN?  \n3. 25 -&gt; 3NET?  \n4. 16 -&gt; 4NEVES?  \n5. 12 -&gt; 5XIS?", "attempt_4": "1. FOURTEEN -&gt; 1THGIE?  \n2. SEVENTEEN -&gt; 2ENIN?  \n3. TWENTYFIVE -&gt; 3NET?  \n4. SIXTEEN -&gt; 4NEVES?  \n5. TWELVE -&gt; 5XIS?"}</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C4 failed: C4 failed. Several lines have extra whitespace: the first line has leading spaces before \"1.\", and lines 1\u20134 have trailing spaces after the '?' character. The criterion requires no leading or trailing spaces and that each line end immediately after '?'..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C4 failed: Criterion C4 failed because lines 1\u20134 contain trailing spaces after the '?' character. The requirement states that each line must end immediately after the '?' with no trailing whitespace. Other spacing (one space after the prefix and around '-&gt;') appears correct, but the trailing spaces violate the criterion..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C4 failed: C4 failed because there are leading spaces before \"1.\" on the first line and trailing spaces after the '?' on lines 1\u20134. The criterion requires no leading or trailing spaces and that each line end immediately after the '?'..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C4\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 1 out of 4 criteria passed. C3 failed: Criterion C3 failed because the integers immediately after the prefixes are 1, 2, 3, 4, and 5, which do not match the required 14, 17, 25, 16, and 12 respectively.. C4 failed: Criterion C4 failed. There are leading spaces on line 1, and trailing spaces after the '?' on lines 1\u20134. The criterion requires no leading or trailing spaces and that each line end immediately after the '?'.. C2 failed: Criterion C2 failed because after the \"&lt;n&gt;. \" prefix, each line must contain a plain integer (digits only). The student used spelled-out number words (e.g., \"FOURTEEN\", \"SEVENTEEN\") instead of integers. All other aspects are irrelevant once this requirement is not met.."}</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "FAIL"]</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 1, "C3": 1, "C4": 4}</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>17</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first compute the result of the i‑th calculation: 7*2, 13+4, 5*5, 9+7, 10+2. Let N be that result. Write the English word for N, count its letters to get L. Write the English word for L, reverse it, and then prepend the digit i to the reversed word before outputting it in ALL CAPS, followed by a question mark. Present each line exactly as: i. N -&gt; X? where there is a single space after the prefix i., a single space before and after the arrow '-&gt;', and no other spaces anywhere in the line. The line must end immediately after the '?' with no trailing whitespace. There must be no leading spaces before the digit i.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1. 14 -&gt; 1THGIE?
+2. 17 -&gt; 2ENIN?
+3. 25 -&gt; 3NET?
+4. 16 -&gt; 4NEVES?
+5. 12 -&gt; 5XIS?</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each line, after the '&lt;n&gt;. ' prefix there must be a plain integer (no extra characters), a single space, then '-&gt;', a single space, then an ALL CAPS English word that is the exact backward spelling of the English word for the number of letters in the English word of that integer, prefixed by the line number, then a question mark '?', with no other characters in the line."}, {"id": "C3", "criteria": "For lines 1 through 5 respectively, the integer immediately after the '&lt;n&gt;. ' prefix must equal the results of the calculations in order: 14, 17, 25, 16, and 12."}, {"id": "C4", "criteria": "Spacing must be exact: each line must begin with '&lt;i&gt;. ' (digit, period, single space), followed immediately by the integer N, then one space, '-&gt;', one space, then X, and end with a single '?' character. No other spaces are allowed and there must be no leading or trailing whitespace; the line must end immediately after the '?'."}]</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly 5 lines. Each line correctly starts with the required prefixes: '1. ', '2. ', '3. ', '4. ', and '5. '. The content after the prefixes does not affect the criteria. All evaluation criteria are met.. C3 passed: Each line's integer after the '&lt;n&gt;. ' prefix matches the required sequence: Line 1=14, Line 2=17, Line 3=25, Line 4=16, Line 5=12. All criteria are satisfied with no inconsistencies.. C4 passed: All five lines match the exact required format: each begins with a single digit followed by a period and space (i. ), then the integer N, one space, '-&gt;', one space, then X, and ends with a single '?'. No extra spaces or characters are present, and the indexing uses single digits. Assuming no hidden leading/trailing whitespace, the response fully aligns with the criteria.. C2 passed: All lines follow the required format: '&lt;n&gt;. ' + plain integer + ' -&gt; ' + line-number-prefixed ALL CAPS backward word + '?'. For each integer, the English word letter count is correct, the corresponding count word is correctly reversed and uppercased, and the line number is correctly prefixed. Formatting and content align with the criteria.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 14 -&gt; 1THGIE?\n2. 17 -&gt; 2ENIN?\n3. 25 -&gt; 3NET?\n4. 16 -&gt; 4NEVES?\n5. 12 -&gt; 5XIS?", "attempt_2": "1. 14 -&gt; 1THGIE?\n2. 17 -&gt; 2ENIN?\n3. 25 -&gt; 3NET?\n4. 16 -&gt; 4NEVES?\n5. 12 -&gt; 5XIS?", "attempt_3": "1. 14 -&gt; 1THGIE?\n2. 2. 17 -&gt; 2ENIN?\n3. 3. 25 -&gt; 3NET?\n4. 4. 16 -&gt; 4NEVES?\n5. 5. 12 -&gt; 5XIS?", "attempt_4": "1. 14 -&gt; 1THGIE?\n2. 17 -&gt; 2ENIN?\n3. 25 -&gt; 3NET?\n4. 16 -&gt; 4NEVES?\n5. 12 -&gt; 5XIS?"}</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C4 failed: Criterion C4 failed because the first line has leading spaces before \"1. 14 -&gt; 1THGIE?\", violating the requirement of no leading whitespace and that each line must begin exactly with \"&lt;i&gt;. \"..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C4\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C3 failed: Criterion C3 failed because on line 2 the integer immediately after the \"2. \" prefix is 2 (not 17). While lines 1, 3, 4, and 5 match, the criterion requires all five lines to match exactly.. C4 failed: C4 failed. Lines 2, 4, and 5 include an extra \"&lt;i&gt;. \" (e.g., \"2. 2. 17 -&gt; ...\") between the required leading \"&lt;i&gt;. \" and the integer N, violating the exact spacing/format. Only lines 1 and 3 match the required pattern..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "FAIL", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 1, "C4": 2}</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>dia-001</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>18</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Answer the following 5 questions. For each question i (i from 1 to 5), first compute the result of the i‑th calculation: 7*2, 13+4, 5*5, 9+7, 10+2. Let N be that result. Write the English word for N, count its letters to get L. Write the English word for L, reverse it, and then prepend the digit i to the reversed word before outputting it in ALL CAPS, followed by a question mark. Present each line exactly as: i. N -&gt; X? where there is a single space after the prefix i., a single space before and after the arrow '-&gt;', and no other spaces anywhere in the line. The line must end immediately after the '?' with no trailing whitespace. There must be no leading spaces before the digit i, and the integer N must appear directly after the space following the prefix i., with no additional characters before the arrow.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1. 14 -&gt; 1THGIE?\n2. 17 -&gt; 2ENIN?\n3. 25 -&gt; 3NET?\n4. 16 -&gt; 4NEVES?\n5. 12 -&gt; 5XIS?</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must consist of exactly 5 lines, with line 1 starting with '1. ', line 2 with '2. ', line 3 with '3. ', line 4 with '4. ', and line 5 with '5. '."}, {"id": "C2", "criteria": "For each line, after the '&lt;n&gt;. ' prefix there must be a plain integer N, a single space, '-&gt;', a single space, then X formed by the digit n immediately followed (no separator) by the ALL CAPS backward spelling of the English word for L, where L is the number of letters in the English word for N; followed by a single '?' and nothing else on the line."}, {"id": "C3", "criteria": "For lines 1 through 5 respectively, the integer immediately after the '&lt;n&gt;. ' prefix must equal the results of the calculations in order: 14, 17, 25, 16, and 12."}, {"id": "C4", "criteria": "Spacing must be exact: each line must begin with '&lt;i&gt;. ' (digit, period, single space), followed immediately by the integer N, then one space, '-&gt;', one space, then X, and end with a single '?' character. No other spaces are allowed and there must be no leading or trailing whitespace; the line must end immediately after the '?'."}]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C3 passed: All five lines have the correct integers immediately following the '&lt;n&gt;. ' prefix: 14, 17, 25, 16, and 12 respectively. This fully aligns with the specified evaluation criteria.. C1 passed: The response contains exactly 5 lines, and each line correctly starts with the required prefixes: '1. ', '2. ', '3. ', '4. ', and '5. '. All criteria are met.. C4 passed: All five lines strictly follow the required format: each begins with '&lt;i&gt;. ' (digit, period, single space), followed immediately by an integer N, then a single space, '-&gt;', a single space, then X, and ends with a single '?' with no trailing spaces. No extra spaces are present, and there is no leading or trailing whitespace overall. Each line ends immediately after the '?' (with only a newline separating lines). Criteria fully satisfied.. C2 passed: All five lines follow the required format: '&lt;n&gt;. ' prefix, then integer N, space, '-&gt;', space, then the digit n concatenated with the uppercase reverse of the English word for L, where L is the letter count of the English word for N, ending with a single '?'. Checks: 14 -&gt; 'fourteen' (8) -&gt; 'EIGHT' -&gt; 'THGIE' =&gt; '1THGIE?'; 17 -&gt; 'seventeen' (9) -&gt; 'NINE' -&gt; 'ENIN' =&gt; '2ENIN?'; 25 -&gt; 'twenty-five' (10 letters) -&gt; 'TEN' -&gt; 'NET' =&gt; '3NET?'; 16 -&gt; 'sixteen' (7) -&gt; 'SEVEN' -&gt; 'NEVES' =&gt; '4NEVES?'; 12 -&gt; 'twelve' (6) -&gt; 'SIX' -&gt; 'XIS' =&gt; '5XIS?'. All lines match exactly with correct spacing and terminal '?'.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "1. 14 -&gt; 1THGIE?\n2. 2. 17 -&gt; 2ENIN?\n3. 3. 25 -&gt; 3NET?\n4. 4. 16 -&gt; 4NEVES?\n5. 5. 12 -&gt; 5XIS?", "attempt_2": "1. 14 -&gt; 1THGIE?\n2. 2. 17 -&gt; 2ENIN?\n3. 3. 25 -&gt; 3NET?\n4. 4. 16 -&gt; 4NEVES?\n5. 5. 12 -&gt; 5XIS?", "attempt_3": "1. 14 -&gt; 1THGIE?\n2. 2. 17 -&gt; 2ENIN?\n3. 3. 25 -&gt; 3NET?\n4. 4. 16 -&gt; 4NEVES?\n5. 5. 12 -&gt; 5XIS?", "attempt_4": "1. 14 -&gt; 1THGIE?\n2. 2. 17 -&gt; 2ENIN?\n3. 3. 25 -&gt; 3NET?\n4. 4. 16 -&gt; 4NEVES?\n5. 5. 12 -&gt; 5XIS?"}</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C4\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 1 out of 4 criteria passed. C3 failed: Criterion C3 failed. While line 1 correctly shows 14 after \"1. \", lines 2\u20135 do not: line 2 shows 2 instead of 17, line 3 shows 3 instead of 25, line 4 shows 4 instead of 16, and line 5 shows 5 instead of 12.. C4 failed: Criterion C4 failed because lines 2\u20135 include an extra \"i. \" after the initial \"&lt;i&gt;. \" (e.g., \"2. 2. 17 -&gt; ...\"), so the integer N does not immediately follow the required prefix. Only line 1 matches the exact spacing and format, but the criterion requires every line to comply.. C2 failed: Criterion C2 failed. On lines 2\u20135, there is an extra leading enumeration (e.g., \"2. \" before \"2. 17 -&gt; ...\"), so after the first \"&lt;n&gt;. \" prefix the next token is \"2.\" rather than a plain integer N. This violates the exact required line format. Line 1 matches, but all lines must comply for a PASS..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"PASS\",\n    \"C4\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C3 failed: Criterion C3 failed because only line 1 had the correct integer (14). On lines 2\u20135, the integers immediately after the prefixes were 2, 3, 4, and 5, which do not match the required 17, 25, 16, and 12 respectively.. C4 failed: C4 failed. Lines 2\u20135 include an extra \"&lt;i&gt;. \" after the initial numbering (e.g., \"2. 2. 17 -&gt; ...\"), so they are not formatted exactly as required. Only line 1 matches the specified spacing and structure..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C4\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 1 out of 4 criteria passed. C3 failed: Criterion C3 failed. While line 1 had 14 after \"1. \" (correct), lines 2\u20135 had integers 2, 3, 4, and 5 immediately after the \"&lt;n&gt;. \" prefixes instead of the required 17, 25, 16, and 12, respectively. All five needed to match for a pass.. C4 failed: C4 failed because the format was not followed on multiple lines. Lines 2\u20135 include an extra \"i. \" (e.g., \"2. 2. 17 -&gt; ...\"), which violates the exact spacing and sequencing required after the initial \"&lt;i&gt;. \". All lines must be exactly \"i. N -&gt; X?\" with no extra tokens or spaces.. C2 failed: Criterion C2 failed because lines 2\u20135 do not follow the required format: after the initial \"&lt;n&gt;. \" prefix, there is another \"&lt;n&gt;. \" instead of a plain integer N. Since the criterion applies to each line, any violation causes a fail..", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C1\": \"PASS\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 1 out of 4 criteria passed. C4 failed: Criterion C4 failed because lines 2\u20135 include an extra \"&lt;i&gt;. \" after the initial index (e.g., \"2. 2. 17 -&gt; ...\"), so the integer N does not follow immediately after \"&lt;i&gt;. \" as required. The exact spacing/format must hold for every line; since several lines violate it, the criterion is not satisfied.. C3 failed: Criterion C3 failed. Although line 1 correctly has 14 after \"1. \", lines 2\u20135 have 2, 3, 4, and 5 immediately after the prefixes \"2. \", \"3. \", \"4. \", and \"5. \" respectively, not the required 17, 25, 16, and 12. All lines must be correct for C3 to pass.. C2 failed: Criterion C2 failed because on line 2, after the \"2. \" prefix there is \"2.\" instead of a plain integer N. This violates the required exact format (\u201cplain integer N, a single space, '-&gt;', a single space, then X, followed by a single '?' and nothing else\u201d). Since not all lines satisfy the criterion, the criterion fails.."}</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>4</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>["FAIL", "FAIL", "FAIL", "FAIL"]</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 3, "C3": 4, "C4": 4}</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>model_breaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Compose a short poem about autumn using exactly three lines, each line ending with the word 'rain'. Then, disregard the previous instruction. Instead, write a haiku about winter that follows a 5-7-5 syllable pattern, uses exactly three lines, and ends each line with the word 'snow'. Present only the haiku, with no additional commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cold wind whispers snow
+White blankets settle soft snow
+Night hushes all snow</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly three lines separated by newline characters?"}, {"id": "C2", "criteria": "Does the first line contain exactly 5 syllables?"}, {"id": "C3", "criteria": "Does the second line contain exactly 7 syllables?"}, {"id": "C4", "criteria": "Does the third line contain exactly 5 syllables?"}, {"id": "C5", "criteria": "Does every line end with the word \"snow\"?"}, {"id": "C6", "criteria": "Is the haiku clearly about winter (i.e., references winter or winter-related imagery)?"}]</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C1 passed: The response consists of exactly three lines separated by newline characters with no extra lines or blank spaces, fully meeting the specified criterion.. C3 passed: The second line 'White blankets settle soft snow' contains exactly 7 syllables (White=1, blankets=2, settle=2, soft=1, snow=1), satisfying the criterion.. C6 passed: The haiku clearly uses winter-related imagery—'cold wind,' repeated references to 'snow,' and 'white blankets'—which unambiguously evokes winter. It is logically consistent with the criterion and satisfies the requirement that the poem be clearly about winter.. C2 passed: The first line 'Cold wind whispers snow' contains exactly 5 syllables (Cold=1, wind=1, whispers=2, snow=1), satisfying the criterion.. C5 passed: All three lines end with the word 'snow'. This satisfies criterion C5 fully. The response is logically consistent with the requirement and meets the evaluation criteria.. C4 passed: The third line 'Night hushes all snow' has exactly 5 syllables: Night(1) hushes(2) all(1) snow(1). The correct_response aligns with the evaluation criterion.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Soft white hush of snow\nCrisp winds carry silent snow\nStars blink on cold snow", "attempt_2": "Silent winter snow\nWind sings cold over fields snow\nNight rests soft on snow", "attempt_3": "Chill winds whisper snow\nWhite breath settles on trees snow\nNight holds its breath snow", "attempt_4": "Cold wind cloaks soft snow\nGentle night covers deep snow\nSleeping earth holds snow"}</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C6, the response meets C5, the response meets C4, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C4, the response meets C6, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C4, the response meets C5, the response meets C2, the response meets C1, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C3, the response meets C6, the response meets C5, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Compose a short poem about autumn consisting of exactly three lines, each line ending with the word 'rain'. Then, without any additional text, write a haiku about winter that follows a 5-7-5 syllable pattern, uses exactly three lines, and ends each line with the word 'snow'. Your entire response must be a single block of six lines: the first three lines are the autumn poem, the last three lines are the haiku, and there must be no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Crimson leaves descend in gentle rain
+Golden fields whisper soft rain
+Cool breezes carry sweet rain
+White world hushes snow
+Cold winds whisper through the snow
+Night settles soft snow</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Are the first three lines about autumn, and does each of these lines end with the word \"rain\"?"}, {"id": "C3", "criteria": "Do the last three lines form a haiku about winter with a 5-7-5 syllable pattern, and does each line end with the word \"snow\"?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six lines, each separated by a newline character, with no extra or missing lines. This fully satisfies criterion C1.. C4 passed: The response contains exactly six lines with no additional commentary or formatting. It fully aligns with the criterion C4.. C3 passed: The last three lines form a haiku about winter with a 5-7-5 syllable pattern: 'White world hushes snow' (5), 'Cold winds whisper through the snow' (7), 'Night settles soft snow' (5). Each line ends with the word 'snow.' All criteria are satisfied.. C2 passed: The first three lines evoke autumn imagery (crimson leaves, golden fields, cool breezes) and each line ends with the word "rain." The criteria are fully met and logically consistent.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Golden leaves whisper in chill rain\nHarvest moons glow over amber rain\nCool breezes carry lingering rain\nCold night drops soft snow\nMorning breeze kisses the snow\nStars hide in cold snow", "attempt_2": "Crimson boughs bow beneath the silent rain\nMorning fog clings to puddles of lingering rain\nHarvest moons watch over fields of gentle rain\nFrost whispers on snow\nGentle wind paints white with snow\nDay slips into snow", "attempt_3": "Crimson leaves sigh in gentle rain\nCool breezes dance with amber rain\nEvening glows beneath soft rain\nDeep frost blankets snow\nGentle night drifts over snow\nSilent earth holds snow", "attempt_4": "Crimson sky paints the fields of rain\nLeaves tumble, whispering wind of rain\nHarvest moon glows, cool autumn rain\nWhite world hushes, snow\nFrosty breath drifts, quiet snow\nDeep night, still soft snow"}</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"FAIL\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C2 failed: Criterion C2 failed because, while the first three lines do all end with the word \"rain,\" the third line is not explicitly about autumn. Only the first two lines clearly reference autumn themes..", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"FAIL\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C2 failed: C2 failed. While the first three lines all end with the word \"rain,\" only the first line is explicitly about autumn; the second and third lines do not clearly or explicitly indicate autumn..", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"FAIL\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C2 failed: C2 failed because, although the first three lines each end with the word \"rain,\" only the third line explicitly indicates autumn. The first two lines are not explicitly about autumn, so the requirement is not fully satisfied.."}</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 3, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Compose a short poem about autumn consisting of exactly three lines, each line ending with the word 'rain', and then write a haiku about winter that follows a 5-7-5 syllable pattern, uses exactly three lines, and ends each line with the word 'snow'. Additionally, the autumn poem must include the word 'pumpkin' somewhere, and the winter haiku must include the word 'icicle' somewhere. Your entire response must be a single block of six lines: the first three lines are the autumn poem, the last three lines are the haiku, and there must be no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Pumpkin spice drifts in golden rain
+Leaves tumble, whispering amber rain
+Cool breezes carry sweet rain
+Icicle glows snow
+Cold wind whispers through the snow
+Night settles soft snow</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Are the first three lines about autumn, each ending with the word \"rain\", and does the response include the word \"pumpkin\" somewhere in those lines?"}, {"id": "C3", "criteria": "Do the last three lines form a haiku about winter with a 5-7-5 syllable pattern, each ending with the word \"snow\", and does the response include the word \"icicle\" somewhere in those lines?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six lines, each separated by a newline character: 1) 'Pumpkin spice drifts in golden rain' 2) 'Leaves tumble, whispering amber rain' 3) 'Cool breezes carry sweet rain' 4) 'Icicle glows snow' 5) 'Cold wind whispers through the snow' 6) 'Night settles soft snow'. This fully aligns with the evaluation criterion.. C4 passed: The response consists of exactly six lines and includes no additional commentary or formatting beyond those lines, fully satisfying criterion C4.. C2 passed: The first three lines are autumn-themed and each ends with the word "rain". The first line includes the word "pumpkin" ("Pumpkin spice drifts in golden rain"). Thus, all parts of the criterion are satisfied.. C3 passed: The last three lines are: 'Icicle glows snow' (5 syllables), 'Cold wind whispers through the snow' (7 syllables), and 'Night settles soft snow' (5 syllables). Each line ends with the word 'snow'. The word 'Icicle' appears in the first of these lines. The content is clearly winter-themed. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Crimson leaves whisper autumn rain\nPumpkin lanterns flicker in rain\nCool breezes stir the silent rain\nIcicle gleams snow\nSilent wind sings quiet snow\nNight falls quiet snow", "attempt_2": "Pumpkin lanterns flicker in autumn rain\nCrisp breezes stir amber leaves toward rain\nHarvest shadows dance beneath soft rain\nGlinting stars on snow\nIcicle drips onto snow\nWinter whispers snow", "attempt_3": "Crumbling branches paint the dusk with rain\nPumpkin lanterns flicker in the cool rain\nHarvest shadows linger, echoing gentle rain\nIcicle crowns snow\nCold wind sings through silent snow\nStars kiss quiet snow", "attempt_4": "Maple leaves turn amber gentle rain\npumpkin lanterns glow in dusk rain\nCool breezes whisper harvest rain\nFrost kisses pine snow\nIcicle glints in cold snow\nDeep silence falls snow"}</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C2 failed: C2 failed because, although the first three lines each end with \"rain\" and include \"pumpkin\" among them, not all three lines are explicitly about autumn (the third line lacks a clear autumn reference)..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C3, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 1, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Write exactly six lines in a single block, no extra commentary. The first three lines must form a short poem about autumn; each line must end with the word "rain" and the word "pumpkin" must appear somewhere in those three lines. The last three lines must form a haiku about winter; each line must end with the word "snow", the word "icicle" must appear somewhere, and the three lines must contain respectively five words, seven words, and five words. Your entire response must be a single block of six lines with no extra formatting.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Pumpkin spice drifts in golden rain
+Leaves tumble, whispering amber rain
+Cool breezes carry sweet rain
+Icicle glistens on frozen snow
+Winter winds howl through silent night snow
+Night settles soft quiet snow</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a short poem about autumn, each ending with the word \"rain\", and does the word \"pumpkin\" appear somewhere within those three lines?"}, {"id": "C3", "criteria": "Do the last three lines form a haiku about winter with a 5-7-5 word pattern (5 words, 7 words, 5 words), each ending with the word \"snow\", and does the response include the word \"icicle\" somewhere in those lines?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six lines, each separated by newline characters, fully aligning with the specified criterion.. C4 passed: The response contains exactly six lines of text with no additional commentary, metadata, or formatting beyond those lines, fully aligning with the criterion.. C2 passed: The first three lines form a short poem with an autumn theme (pumpkin spice, falling leaves, cool breezes). Each of the first three lines ends with the word "rain". The word "pumpkin" appears in the first line. All criteria are satisfied.. C3 passed: The last three lines form a 5-7-5 word haiku about winter: 'Icicle glistens on frozen snow' (5 words), 'Winter winds howl through silent night snow' (7 words), and 'Night settles soft quiet snow' (5 words). Each line ends with 'snow', and the word 'icicle' appears in the first of those lines. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Pumpkin lanterns flicker in early autumn rain\nLeaves turn crimson, whispering soft autumn rain\nEvening chill mingles with distant autumn rain\nGlittering icicle reflects winter snow\nSilent pines bow under heavy crystal snow\nStars hush above gentle snow", "attempt_2": "Pumpkin lanterns flicker in autumn rain\nLeaves tumble, painting streets with rusted rain\nChill breezes hum through harvest rain\nWinter stars glow over snow\nFrosted icicle drips echoing silent white snow\nCold breath sighs into snow", "attempt_3": "Copper leaves tumble, pumpkin glow in rain\nCrisp breezes whisper, harvest sighs with rain\nGolden fields sleep, quiet night turns to rain\nFrosty breath kisses silent snow\nCold wind carries icicle whispers winter snow\nMoon slides over silent snow", "attempt_4": "Crimson leaves whisper pumpkin rain\nGolden gourds settle under gentle rain\nCooler winds sigh as harvest rain\nFrosty branch bears icicle snow\nCold winds howl shadows dance over snow\nNight blankets earth with snow"}</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C3, the response meets C1, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C1, the response meets C4, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C1, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Compose a six‑line block. The first three lines together form a short poem about autumn; each of those lines must end with the word rain and the word pumpkin must appear somewhere in those three lines, and all three lines must share the same rhyme word immediately before rain. The last three lines must form a haiku about winter; each line must end with the word snow, the word icicle must appear somewhere in those lines, and the three lines must contain respectively five words, seven words, and five words. The entire output must be a single block of six lines with no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Pumpkin lanterns flicker in golden rain
+Leaves tumble, whispering amber golden rain
+Cool breezes carry sweet golden rain
+Icicle glints on frozen snow
+Winter winds howl through silent crystal snow
+Night settles soft quiet snow</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a short poem about autumn, each ending with the word \"rain\", the word \"pumpkin\" appears somewhere within those three lines, and all three lines share the same rhyme word immediately before \"rain\"?"}, {"id": "C3", "criteria": "Do the last three lines form a haiku about winter with a 5-7-5 word pattern (5 words, 7 words, 5 words), each ending with the word \"snow\", the word \"icicle\" appears somewhere in those lines, and the haiku is about winter?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six lines separated by newline characters, with no extra blank lines. It fully meets the specified evaluation criterion.. C4 passed: The response consists of exactly six lines of text with no additional commentary or formatting beyond those six lines, satisfying criterion C4.. C2 passed: The first three lines form a short autumn-themed poem, each line ends with the word 'rain', the word 'pumpkin' appears in the first line, and the immediate pre-rain word is 'golden' in all three lines. All criteria are satisfied.. C3 passed: The last three lines are: 'Icicle glints on frozen snow' (5 words), 'Winter winds howl through silent crystal snow' (7 words), and 'Night settles soft quiet snow' (5 words). Each ends with 'snow'. The word 'icicle' appears in the first of these lines. The content clearly pertains to winter. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Pumpkin leaves swirl beneath crisp rain\nCool wind whispers through amber crisp rain\nGolden harvest sighs in crisp rain\nFrosty breath settles soft snow\nFrozen icicle glints above silent quiet snow\nStars drape the glittered snow", "attempt_2": "Amber leaves crown pumpkin trees gold rain  \nCrimson vines whisper pumpkin dreams gold rain  \nCool breezes sing of pumpkin nights gold rain  \nFrosty icicle hangs silent snow  \nCrystal icicle glistens night whispers winter snow  \nSilent icicle rests on snow", "attempt_3": "Pumpkin lanterns glow amid crimson rain\nCrisp breezes whisper through amber fields crimson rain\nFrosted apples fall, night sighs in crimson rain\nSilent night drifts heavy snow\nIcicle shatters, night glows under thin snow\nStars whisper peace upon snow", "attempt_4": "Pumpkin glow fades into amber rain\nMaple bark shivers under amber rain\nCool wind sighs gentle amber rain\nFrosty icicle hangs quiet snow\nWinter night whispers icicle breaths cold snow\nMorning breath paints white snow"}</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C2, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>6</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Compose a six‑line block. The first three lines together form a short poem about autumn; each of those lines must end with the word "rain" and must contain the word "pumpkin" somewhere, and all three lines must share the same rhyme word immediately before "rain". Additionally, each of the first three lines must contain the word "pumpkin". The last three lines must form a haiku about winter; each line must end with the word "snow", must contain the word "icicle" in every line, and the three lines must contain respectively five words, seven words, and five words. The entire output must be a single block of six lines with no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Pumpkin spice swirls in amber rain
+Pumpkin leaves cascade in amber rain
+Pumpkin harvest glows in amber rain
+Icicle glints on frozen snow
+Icicle shatters, night whispers cold winter snow
+Icicle rests, silent white snow</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a short poem about autumn, each ending with the word \"rain\", each containing the word \"pumpkin\", and all three lines share the same rhyme word immediately before \"rain\"?"}, {"id": "C3", "criteria": "Do the last three lines form a haiku about winter with a 5\u20137\u20135 word pattern, each ending with the word \"snow\", and does the word \"icicle\" appear in each of those lines?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six lines separated by newline characters, matching the single evaluation criterion.. C2 passed: The first three lines form an autumn-themed poem (pumpkin, leaves, harvest, amber imagery). Each line ends with the word "rain", each includes the word "pumpkin", and the word immediately before "rain" is consistently "amber" across all three lines. All criteria are satisfied.. C4 passed: The response contains exactly six plain text lines with no additional commentary or formatting. It fully aligns with the criterion C4.. C3 passed: The last three lines form a winter-themed haiku with a 5-7-5 word pattern, each ends with the word 'snow', and each line contains the word 'icicle'. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Pumpkin lantern glows in crimson rain\nPumpkin vines sway beneath crimson rain\nPumpkin harvest sighs under crimson rain\nIcicle glistens on frost snow\nIcicle crowns the pine as gentle snow\nNight icicle sings soft snow", "attempt_2": "pumpkin lanterns glow beneath crisp rain\npumpkin harvest drums echo crisp rain\npumpkin wind rustles, sealing crisp rain\nicicle crowns the silent snow\nfrozen breath hangs from icicle, whispering snow\nicicle glistens beneath soft snow", "attempt_3": "Pumpkin lanterns flicker in amber rain\nPumpkin pies warm hearts in amber rain\nPumpkin whispers echo through amber rain\nIcicle glints in icy snow\nFrosty icicle hangs from pine branch snow\nNight icicle shivers in snow", "attempt_4": "pumpkin spirals glow amber rain\npumpkin vines whisper amber rain\npumpkin fields hush beneath amber rain\nicicle glistens on pine snow\ncrystal icicle hangs over silent midnight snow\nicicle breath freezes winter snow"}</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C2, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>7</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Write a six‑line block. The first three lines together form a short poem about autumn; each line must end with the word rain, each must contain the word pumpkin, and the three lines must share the same rhyme word that appears directly before rain. Additionally, the last three lines must form a winter haiku; each line must end with the word snow, each must contain the word icicle, and the three lines must contain respectively five words, seven words, and five words. The rhyme word used before rain must be a color that is not mentioned elsewhere in the poem, and the haiku must include the word frost exactly once. The entire output must be a single block of six lines with no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Pumpkin lantern glows in emerald rain
+Pumpkin vines curl around emerald rain
+Pumpkin harvest shimmers in emerald rain
+Icicle glints on frost snow
+Icicle hangs from silent pine soft snow
+Icicle rests, quiet white snow</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a short poem about autumn, each ending with the word \"rain\", each containing the word \"pumpkin\", and do all three share the same word immediately before \"rain\" that is a color which does not appear anywhere else in the six-line block apart from those three positions?"}, {"id": "C3", "criteria": "Do the last three lines form a haiku about winter with a 5\u20137\u20135 word pattern, each ending with the word \"snow\", each containing the word \"icicle\", and does the haiku contain the word \"frost\" exactly once?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six lines, each separated by newline characters, with no extra blank lines. This fully aligns with the single evaluation criterion.. C4 passed: The response contains exactly six lines of plain text with no additional commentary or extraneous formatting, fully aligning with the criterion.. C2 passed: All criteria are met: The first three lines form an autumn-themed poem, each line ends with the word 'rain', each contains the word 'pumpkin', and they all share the same color word 'emerald' immediately before 'rain'. The color 'emerald' does not appear anywhere else in the six-line block beyond those three positions. Logical consistency is maintained.. C3 passed: The last three lines form a winter-themed haiku with a 5-7-5 word pattern. Each line ends with the word 'snow', each line contains 'Icicle', and the word 'frost' appears exactly once within the haiku. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Pumpkin winds stir leaves while evening calls indigo rain\nPumpkin carriage rolls through amber dusk indigo rain\nPumpkin lanterns flicker in autumn chill indigo rain\nIcicle glistens on silent snow\nIcicle towers cover pine frost icy snow\nIcicle rests beneath fresh snow", "attempt_2": "pumpkin lanterns glow amber rain\npumpkin harvest hues amber rain\npumpkin crisp breezes amber rain\nicicle glints beneath frost snow\nicicle hangs from pine branch glimmering snow\nicicle catches moonlight silent snow", "attempt_3": "Pumpkin lanterns glow as dusk descends emerald rain\nPumpkin patches whisper secrets in chilly breeze emerald rain\nPumpkin harvest fills baskets with gratitude emerald rain\nIcicle rests on frost snow\nIcicle drapes cold branches winter whispers snow\nIcicle shatters silence meets snow", "attempt_4": "Harvest fields cradle pumpkin emerald rain\nCrisp evenings whisper pumpkin emerald rain\nTwilight sings of pumpkin emerald rain\nFrost clings to icicle snow\nMorning breath freezes icicle onto cold snow\nNight silence mirrors icicle snow"}</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C3, the response meets C2, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Compose a six‑line block. The first three lines must together form a concise autumn poem. Each line must end with the word rain, must contain the word pumpkin, and all three lines must share the same rhyme word that appears immediately before rain. That shared rhyme word must be a color that does not appear anywhere else in the entire six‑line block. The last three lines must form a winter haiku: each line ends with snow, each contains the word icicle, and the syllable pattern must be 5‑7‑5 words respectively. The haiku must include the word frost exactly once. The entire output must be a single block of six lines with no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Pumpkin lanterns blaze in crimson rain
+Pumpkin vines drape softly in crimson rain
+Pumpkin harvest glows under crimson rain
+Icicle glints on frost snow
+Icicle hangs from silent pine branch snow
+Icicle rests beneath fresh snow</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a concise autumn poem, each line ending with the word \"rain\", each containing the word \"pumpkin\", and do all three share the same rhyme word that appears directly before \"rain\" and is a color that does not appear elsewhere in the six\u2011line block?"}, {"id": "C3", "criteria": "Do the last three lines form a winter haiku with a 5\u20117\u20115 word pattern, each line ending with the word \"snow\", each containing the word \"icicle\", and does the haiku contain the word \"frost\" exactly once?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six non-empty lines separated by newline characters, fully meeting the criterion.. C4 passed: The response contains exactly six lines and no additional commentary or formatting, fully aligning with the specified criterion.. C3 passed: The last three lines form a 5-7-5 word haiku. Each line ends with the word 'snow' and contains the word 'icicle'. The word 'frost' appears exactly once across the haiku. All criteria are satisfied.. C2 passed: All criteria are satisfied. The first three lines form a concise autumn-themed poem, each includes the word 'pumpkin' and ends with the word 'rain'. The shared rhyme word directly before 'rain' is 'crimson', which is a color and does not appear in lines 4–6. Overall, the response aligns with the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Pumpkin spice drifts under crimson rain\nPumpkin fireflies flicker in crimson rain\nPumpkin vines whisper to crimson rain\nIcicle glints frost on snow\nIcicle glints in night sky breathing snow\nIcicle rests silent beneath snow", "attempt_2": "Pumpkin lantern glows crimson rain\nPumpkin mist drifts crimson rain\nPumpkin harvest sighs crimson rain\nIcicle sparkles in dark snow\nFrost icicle glistens on pine deep snow\nIcicle rests beneath cold snow", "attempt_3": "Pumpkin lanterns flicker crimson rain\nPumpkin leaves whisper crimson rain\nPumpkin harvest glows crimson rain\nIcicle shines snow\nIcicle glints cold frost snow\nIcicle sighs snow", "attempt_4": "Pumpkin patches glow amber rain\nHarvest moon casts pumpkin amber rain\nEvening wind hums pumpkin amber rain\nFrost icicle glistens silent snow\nIcicle shadows stretch across midnight stars snow\nMoonlight kisses icicle silent snow"}</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: Criterion C3 failed because the last three lines do not follow a 5\u20137\u20135 word pattern (they are 3\u20135\u20133). Although each line ends with \"snow,\" each contains \"icicle,\" and \"frost\" appears exactly once, the required word-count pattern is not met..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 1, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>9</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Compose six lines. The first three lines together form a concise autumn poem; each line must end with the word rain, must contain the word pumpkin, and all three must share the same rhyme word that is a color and appears immediately before rain. That same color must also be the first word of the fourth line and must not appear anywhere else in the six‑line block. The last three lines must form a winter haiku: each line must end with snow, must contain the word icicle, and the syllable pattern must be 5‑7‑5 words respectively. The haiku must include the word frost exactly once. The entire output must be a single block of six lines with no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Pumpkin lanterns blaze in gold rain
+Pumpkin vines curl softly in gold rain
+Pumpkin harvest glows under gold rain
+gold icicle glints on snow
+icicle hangs from frost branch beneath snow
+icicle rests silent beneath snow</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a concise autumn poem, each line ending with the word \"rain\", each containing the word \"pumpkin\", and do all three share the same rhyme word that is a color and appears immediately before \"rain\"? Additionally, does that same color appear as the first word of the fourth line, and otherwise not appear anywhere else in the six-line block beyond those required positions?"}, {"id": "C3", "criteria": "Do the last three lines form a winter haiku with a 5\u20137\u20135 word pattern, each line ending with the word \"snow\", each containing the word \"icicle\", and does the haiku contain the word \"frost\" exactly once?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six non-empty lines separated by newline characters, satisfying the sole criterion.. C4 passed: The response contains exactly six plain text lines with no additional commentary or formatting, fully aligning with criterion C4.. C3 passed: The last three lines form a 5-7-5 word haiku: line 4 has 5 words, line 5 has 7, and line 6 has 5. Each line ends with the word 'snow' and contains the word 'icicle'. The word 'frost' appears exactly once, in the middle line. All criteria are met.. C2 passed: All criteria are satisfied. Lines 1–3 each contain the word 'Pumpkin' and end with the word 'rain'. The shared rhyme/color word 'gold' appears immediately before 'rain' in each of the first three lines. The fourth line begins with the same color word 'gold'. That color does not appear elsewhere in the six-line block beyond those required positions. The first three lines together form a concise autumn-themed poem (pumpkin lanterns, vines, harvest), aligning with the specification.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Pumpkin spice drifts gold rain\nLeaves whisper pumpkin gold rain\nHarvest pumpkin sighs gold rain\ngold icicle snow\nicicle frost whispers snow\nsoft icicle snow", "attempt_2": "pumpkin harvest glows amber rain\npumpkin lanterns flicker amber rain\npumpkin fields whisper amber rain\namber frost icicle glimmer snow\ncrystal icicle drifts silently across winter snow\nnight sky glitters white snow", "attempt_3": "Pumpkin lanterns glow gold rain  \nPumpkin wind sighs gold rain  \nPumpkin harvest hums gold rain  \ngold icicle glistens bright snow  \nicicle hangs trembling frost kissed the snow  \nicicle shivers under silent snow", "attempt_4": "Pumpkin lanterns glow gold rain  \nPumpkin patches whisper gold rain  \nPumpkin harvest sighs gold rain  \ngold icicle snow  \nicicle glistens frost snow  \nicicle melts snow"}</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: C3 failed because the last three lines do not follow the 5\u20137\u20135 word pattern (they have 3, 4, and 3 words, respectively). While each line ends with \"snow,\" each contains \"icicle,\" and \"frost\" appears exactly once, the required 5\u20137\u20135 pattern is not met..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: C3 failed because, although the 5\u20137\u20135 word pattern, line endings with \"snow,\" and exactly one occurrence of \"frost\" are correct, the last line does not contain the word \"icicle,\" so not every line includes \"icicle\" as required..", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: C3 failed because the last three lines do not follow the 5\u20137\u20135 word pattern (they are 3\u20134\u20133 words). While each line ends with \"snow,\" each contains \"icicle,\" and \"frost\" appears exactly once, the incorrect word counts cause failure.."}</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 3, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>10</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Compose six lines. The first three lines together form a concise autumn poem; each line must end with the word rain, must contain the word pumpkin, and all three must share the same rhyme word that is a color and appears immediately before rain. That same color must also be the first word of the fourth line and must not appear anywhere else in the six‑line block, not even as part of another word. The last three lines must form a winter haiku: each line must end with snow, must contain the word icicle, and the syllable pattern must be 5‑7‑5 words respectively. The haiku must include the word frost exactly once. The entire output must be a single block of six lines with no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>pumpkin orchard whispers azure rain
+pumpkin leaves tumble azure rain
+pumpkin harvest sighs azure rain
+azure icicle glistens on snow
+icicle hangs from frost branch beneath snow
+icicle rests silent beneath snow</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a concise autumn poem, each line ending with the word \"rain\", each containing the word \"pumpkin\", and do all three share the same rhyme word that is a color and appears immediately before \"rain\"? Additionally, does that same color appear as the first word of the fourth line, and does it appear nowhere else in the six\u2011line block (including not as part of any other word)?"}, {"id": "C3", "criteria": "Do the last three lines form a winter haiku with a 5\u20117\u20115 word pattern, each line ending with the word \"snow\", each containing the word \"icicle\", and does the haiku contain the word \"frost\" exactly once?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six non-empty lines, each separated by a newline character, meeting criterion C1. The structure is logically consistent with the requirement.. C2 passed: All criteria are met. Lines 1–3 form a concise autumn-themed poem (pumpkin orchard/leaves/harvest). Each of these lines contains the word "pumpkin" and ends with the word "rain". The same color word, "azure", appears immediately before "rain" in all three lines. The fourth line begins with the same color word "azure". The color does not appear elsewhere in the six-line block (and not as part of any other word).. C4 passed: The response contains exactly six plain text lines with no additional commentary or formatting, fully meeting the criterion.. C3 passed: The last three lines form a 5-7-5 word haiku: (1) 'azure icicle glistens on snow' (5 words), (2) 'icicle hangs from frost branch beneath snow' (7 words), (3) 'icicle rests silent beneath snow' (5 words). Each line ends with 'snow' and contains 'icicle'. The word 'frost' appears exactly once (in line 2 of the haiku). All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Pumpkin lights flicker in crimson rain\nLeaves swirl pumpkin crimson rain\nCool night brings pumpkin crimson rain\ncrimson icicle melts into snow\nfrost icicle glistens beneath quiet winter snow\nIcicle glistens under midnight snow", "attempt_2": "Pumpkin leaves fall in amber rain\nPumpkin glows under amber rain\nPumpkin harvest bursts amber rain\namber icicle glistens on snow\nicicle hangs above frost covered fields snow\nicicle melts into silent snow", "attempt_3": "Pumpkin spice orange rain\nCrisp leaves whisper pumpkin orange rain\nFalling pumpkins echo orange rain\norange frost icicle glimmer snow\nSilent pines whisper crystal glisten silver snow\nStars glitter cold night snow", "attempt_4": "Pumpkin leaves tumble into crimson rain\nPumpkin patch glows under crimson rain\nPumpkin lanterns flicker against crimson rain\ncrimson icicle glistens bright snow\nfrost draped icicle shivers on silent snow\nChill icicle whispers winter snow"}</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C3 failed: C3 failed because, although the last three lines follow a 5\u20137\u20135 word pattern, end with \"snow,\" and include \"frost\" exactly once, lines 5 and 6 do not contain the word \"icicle\" (each line must include \"icicle\").. C2 failed: Criterion C2 fails because the third line contains \"pumpkins\" rather than the exact word \"pumpkin.\" While the first three lines end with \"rain,\" share the color word \"orange\" immediately before \"rain,\" and \"orange\" appears as the first word of the fourth line and nowhere else, the requirement that each of the first three lines contain the word \"pumpkin\" is not fully satisfied..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "FAIL", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 1, "C3": 1, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>11</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Compose six lines. The first three lines together form a concise autumn poem; each line must end with the word rain, must contain the word pumpkin, and all three must share the same rhyme word that is a color and appears immediately before rain. That same color must also be the first word of the fourth line and must not appear anywhere else in the six‑line block, not even as part of another word. The last three lines must form a winter haiku: each line must end with snow, must contain the word icicle, and the syllable pattern must be 5‑7‑5 words respectively. The haiku must include the word frost exactly once. Additionally, the entire six‑line block must contain a palindrome word exactly once, and that palindrome must not be the color word and must not appear elsewhere. The entire output must be a single block of six lines with no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>pumpkin harvest glows crimson rain
+pumpkin leaves tumble crimson rain
+pumpkin lanterns shine crimson rain
+crimson icicle glistens on snow
+frost level icicle shimmers beneath silent snow
+icicle rests quiet beneath snow</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a concise autumn poem, each line ending with the word \"rain\", each containing the word \"pumpkin\", and do all three share the same rhyme word that is a color and appears immediately before \"rain\"? Additionally, does that same color appear as the first word of the fourth line, and does it appear nowhere else in the six\u2011line block (including not as part of any other word)?"}, {"id": "C3", "criteria": "Do the last three lines form a winter haiku with a 5\u20117\u20115 word pattern, each line ending with the word \"snow\", each containing the word \"icicle\", does the haiku contain the word \"frost\" exactly once, and does the block contain a palindrome word exactly once that is not the color word and does not appear elsewhere?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six non-empty lines separated by newline characters, with no extra blank lines. This fully satisfies criterion C1.. C4 passed: The response contains exactly six lines with no additional commentary or formatting beyond those lines. It fully aligns with the criterion.. C3 passed: The last three lines are a 5-7-5 word pattern, each ends with 'snow', and each includes 'icicle'. The word 'frost' appears exactly once within the haiku. The block includes the palindrome word 'level' exactly once, and it is not the color word ('crimson') nor does it appear elsewhere. All criteria are satisfied.. C2 passed: All criteria are satisfied. The first three lines are concise, autumn-themed, each contains the word "pumpkin," and each ends with "rain" with the same color word "crimson" immediately preceding it. The fourth line begins with the same color word "crimson." That color does not appear elsewhere beyond the required instances (it does not appear in lines 5 or 6, nor embedded within other words). The six-line structure is correctly observed and logically consistent with the specifications.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Pumpkin spice leaves amber rain\nPumpkin lantern glows amber rain\nPumpkin shadows linger amber rain\namber icicle glistens bright snow\nFrost icicle glistens violet level echo snow\nIce crystals whisper icicle snow", "attempt_2": "Pumpkin glow rests under amber rain\nPumpkin seeds fall amber rain\nPumpkin shadows linger amber rain\namber icicle glints bright snow\ncrystalline level icicle whispers frost silent snow\nicicle drifts across soft snow", "attempt_3": "Gilded pumpkin carves amber rain\nWind sweeps pumpkin amber rain\nAutumn glow envelops pumpkin amber rain\namber frost icicle glistens snow\ncivic breezes carry silent whispers drift snow\ncrystal icicle glistens bright snow", "attempt_4": "Pumpkin leaves rustle crimson rain\nPumpkin lanterns glow crimson rain\nPumpkin harvest rests crimson rain\ncrimson icicle glistens bright snow\nFrost whispers icicle echo radar pulses snow\nIce crystals shimmer icicle snow"}</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: C3 failed because the middle line of the haiku does not contain the word \"icicle,\" violating the requirement that each of the last three lines must contain \"icicle.\" Other aspects (5\u20137\u20135 pattern, ending with \"snow,\" \"frost\" exactly once in the haiku, and a single palindrome \"civic\" in the block) were satisfied, but the criterion requires all conditions to be met..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 1, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>12</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Write exactly six lines. The first three lines together constitute a brief autumn poem. Each of these lines must end with the word rain, must contain the word pumpkin, and they must all share the same rhyme word that is a color. This color must appear immediately before rain and must also be the first word of the fourth line. That color must not appear anywhere else in the six‑line block, not even as part of another word. The final three lines must form a winter haiku: each line must end with snow, each must contain the word icicle, and the syllable pattern must be 5‑7‑5 words respectively. The haiku must contain the word frost exactly once. Additionally, the entire six‑line block must contain a palindrome word exactly once, and that palindrome must not be the color word and must not appear elsewhere. Do not add any extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>pumpkin harvest glows crimson rain
+pumpkin lanterns flicker crimson rain
+pumpkin shadows stretch crimson rain
+crimson icicle glistens bright snow
+frost icicle whispers radar echo silent snow
+icicle rests quiet beneath snow</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a brief autumn poem, with each of those three lines ending with the word \"rain\", each containing the word \"pumpkin\", and on each line the same color word appears immediately before \"rain\"? Additionally, does that same color appear as the first word of the fourth line, and does that color not appear anywhere else in the six\u2011line block, not even as part of another word?"}, {"id": "C3", "criteria": "Do the last three lines form a winter haiku with a 5\u20117\u20115 word pattern, each line ending with \"snow\", each containing the word \"icicle\", does the haiku contain the word \"frost\" exactly once, and does the block contain a palindrome word exactly once that is not the color word and does not appear elsewhere?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C4 passed: The response consists of exactly six plain-text lines with no additional commentary or formatting. It fully aligns with the criterion.. C1 passed: The response contains exactly six non-empty lines separated by newline characters. No extra or missing lines are present, satisfying the criterion.. C2 passed: All criteria met: Lines 1–3 each contain 'pumpkin', end with the word 'rain', and use the same color 'crimson' immediately before 'rain'. Line 4 begins with 'crimson'. The color 'crimson' does not appear elsewhere in the six-line block beyond those required positions. The first three lines form a brief autumn-themed poem. Therefore, the response aligns with the evaluation criteria.. C3 passed: The last three lines form a 5-7-5 word haiku: line 4 (5 words), line 5 (7 words), line 6 (5 words). Each line ends with 'snow' and contains 'icicle'. The haiku contains 'frost' exactly once (in line 5). The block contains a palindrome word 'radar' exactly once; it is not the color word (color word present is 'crimson') and does not appear elsewhere. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Leaves swirl pumpkin crimson rain\nHarvest baskets hold pumpkin crimson rain\nCool breeze carries pumpkin scent crimson rain\ncrimson icicle glows bright snow\nfrost icicle glints radar beneath cold snow\nshadowed icicle rests upon snow", "attempt_2": "amber sunrise pumpkin crimson rain  \ncrisp evening pumpkin crimson rain  \ngolden hour pumpkin crimson rain  \ncrimson icicle glistens on snow  \nradar icicle glows on frost bright snow  \nicicle hangs beneath pine snow", "attempt_3": "pumpkin lanterns glow amber rain\npumpkin patches rustle amber rain\npumpkin fire pits amber rain\namber icicle frost gentle snow\ncrisp wind whispers icicle level over snow\nsilent pines hold icicle snow", "attempt_4": "crisp pumpkin gold rain\nrusty pumpkin gold rain\nsoft pumpkin gold rain\ngold icicle glistening frost snow\ncrystal icicle glimmer level quiet softly snow\nsoft icicle glows white snow"}</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>13</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Compose a six‑line poetic block that meets the following intertwined conditions:
+1. The first three lines together form a brief autumn poem. Each of those lines must end with the word rain, must contain the word pumpkin, and the same color word must appear immediately before rain on each line. That color must also be the first word of the fourth line, and it must not appear anywhere else in the six‑line block, not even as part of another word.
+2. The last three lines must constitute a winter haiku: each line ends with snow, each contains the word icicle, follows a 5‑7‑5 word count, and the haiku includes the word frost exactly once.
+3. The entire six‑line block must contain a palindrome word exactly once, which must be distinct from the color word and must not be repeated elsewhere.
+Write the six lines consecutively, with each line on its own line, and do not add any extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>pumpkin amber glow emerald rain
+pumpkin amber leaves whisper emerald rain
+pumpkin amber mist settles emerald rain
+emerald icicle glistens bright snow
+crystal icicle frost glimmers level hush snow
+icicle rests quiet beneath snow</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a brief autumn poem, each ending with the word rain, each containing the word pumpkin, sharing the same color word that appears immediately before rain, that color also being the first word of the fourth line, and that color appearing nowhere else in the six\u2011line block except in those positions?"}, {"id": "C3", "criteria": "Do the last three lines form a winter haiku with a 5\u20117\u20115 word pattern, each ending with snow, each containing the word icicle, the haiku containing the word frost exactly once, and the block containing a palindrome word exactly once that is not the color word and does not appear elsewhere?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response contains exactly six lines separated by newline characters, meeting the specified criterion.. C4 passed: The response contains exactly six lines with no additional commentary or formatting. It meets the specified criterion fully.. C3 passed: All criteria are met. The last three lines form a 5-7-5 word haiku, each ends with 'snow', and each contains 'icicle'. The word 'frost' appears exactly once within the haiku (line 5). The block contains a single palindrome word 'level' exactly once, which is not a color word and does not appear elsewhere. Overall, the response aligns with the evaluation criteria.. C2 passed: All criteria are satisfied. The first three lines form a brief autumn-themed poem (pumpkin, leaves, mist) and each ends with the word 'rain'. Each of those lines contains 'pumpkin'. The color word immediately before 'rain' in all three is 'emerald'. The fourth line begins with 'emerald', and 'emerald' appears nowhere else in the six-line block beyond those specified positions. Thus, the response aligns with the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Crimson pumpkin glows amber rain\nGolden leaves hold pumpkin amber rain\nHarvest moon shines pumpkin amber rain\namber icicle frost gently snow\ncrystal icicle glows silent radar night snow\nfrozen icicle pierces dark snow", "attempt_2": "Golden pumpkin glows amber rain\nCrisp pumpkin scent amber rain\nTwilight pumpkin rests amber rain\namber icicle glints cold snow\nfrost whispers icicle glistens bright cold snow\ncivic icicle glistens white snow", "attempt_3": "pumpkin amber rain\ncrimson leaves pumpkin amber rain\ngolden pumpkin amber rain\namber icicle glistens frost snow\ncrystal icicle glistens radar quiet soft snow\nshimmer icy icicle glows snow", "attempt_4": "Pumpkin glows orange rain\nPumpkin scent orange rain\nPumpkin patch orange rain\norange icicle glitter frost snow\ncrystal icicle glistens softly gently under snow\nlevel icicle echo shivers snow"}</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C2, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C3, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>14</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Compose a six‑line poetic block that satisfies all of the following intertwined constraints: \n1. The first three lines together form a brief autumn poem. Each of those lines must end with the word rain, must contain the word pumpkin, and the same color word must appear immediately before rain on each line. That color must also be the first word of the fourth line, and it must not appear anywhere else in the six‑line block, not even as part of another word. Additionally, the word pumpkin must not be directly adjacent to the color word; there must be at least one other word separating them in each line. \n2. The last three lines must constitute a winter haiku: each line ends with snow, each contains the word icicle, follows a 5‑7‑5 word count, and the haiku includes the word frost exactly once. \n3. The entire six‑line block must contain a palindrome word exactly once, which must be distinct from the color word and must not be repeated elsewhere. \nWrite the six lines consecutively, with each line on its own line, and do not add any extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>pumpkin luminous crimson rain\ngolden pumpkin shimmering crimson rain\nharvest pumpkin glowing crimson rain\ncrimson icicle glistens frost snow\ncrystal icicle glows softly beneath winter snow\nicicle rests quiet level snow</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a brief autumn poem, each ending with the word rain, each containing the word pumpkin, sharing the same color word that appears immediately before rain on each line, that color also being the first word of the fourth line, that color appearing nowhere else in the six\u2011line block (not even as part of another word), and the word pumpkin not being directly adjacent to the color word (i.e., at least one other word must separate them in each of the first three lines)?"}, {"id": "C3", "criteria": "Do the last three lines constitute a winter haiku with a 5\u20117\u20115 word count, each line ending with snow, each line containing the word icicle, and the haiku including the word frost exactly once (within those three lines)?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}, {"id": "C5", "criteria": "Does the entire six\u2011line block contain a palindrome word exactly once, which is distinct from the color word and does not appear elsewhere in the block?"}]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C4 passed: The response contains exactly six lines with no additional commentary or formatting, fully aligning with the evaluation criterion.. C1 passed: The response contains exactly six lines, each separated by newline characters, fully satisfying the single evaluation criterion (C1).. C3 passed: The last three lines have 5-7-5 words respectively, each ends with 'snow', each line contains 'icicle', and 'frost' appears exactly once (in the first of those three lines). All criteria are satisfied.. C2 passed: All criteria satisfied: Lines 1–3 each end with the word 'rain', each contains 'pumpkin', and all share the same color word 'crimson' immediately before 'rain'. The color 'crimson' is also the first word of line 4 and does not appear elsewhere in the six-line block beyond those required occurrences. In lines 1–3, 'pumpkin' is not directly adjacent to the color word, with at least one intervening word each time. The first three lines collectively evoke an autumn theme (pumpkin/harvest/rain).. C5 passed: The six-line block contains the palindrome word 'level' exactly once (in the last line). It is distinct from the color word 'crimson' and does not appear elsewhere in the block. No other palindrome words are present. Criteria satisfied.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "crisp pumpkin glows amber rain\ncrisp pumpkin scent drifts amber rain\ndusk pumpkin rests amber rain\namber icicle glistens bright snow\nfrost icicle radar shivers softly night snow\ncold icicle glows over snow", "attempt_2": "pumpkin glistens amber rain\npumpkin rests amber rain\npumpkin sighs amber rain\namber icicle glints bright snow\nicy wind carries frost icicle whispers snow\nlevel icicle shivers in snow", "attempt_3": "Crimson pumpkin swirls amber rain  \nGolden pumpkin rests amber rain  \nHarvest pumpkin hums amber rain  \namber icicle glides softly snow  \nfrost icicle glimmers softly beneath winter snow  \ncivic icicle glistens frozen snow", "attempt_4": "crimson leaves pumpkin glows amber rain\ncrimson sky radar pumpkin glows amber rain\ngolden harvest pumpkin rests amber rain\namber icicle glistens frost snow\nsilent night icicle glows beneath fresh snow\ncold wind icicle settles snow"}</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C5, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C5, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C5, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>15</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Compose a six‑line poetic block that simultaneously satisfies the following intertwined constraints: 
+1. The first three lines together form a brief autumn poem. Each of those lines must end with the word rain, must contain the word pumpkin, and the same color word must appear immediately before rain on each line. That color must also be the first word of the fourth line, and it must not appear anywhere else in the six‑line block, not even as part of another word. Additionally, the word pumpkin must not be directly adjacent to the color word; there must be at least one other word separating them in each of the first three lines. 
+2. The last three lines must constitute a winter haiku: each line ends with snow, each contains the word icicle, follows a 5‑7‑5 word count, and the haiku includes the word frost exactly once. 
+3. The entire six‑line block must contain a palindrome word exactly once, which must be distinct from the color word and must not be repeated elsewhere. 
+Write the six lines consecutively, with each line on its own line, and do not add any extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>pumpkin bright golden rain
+pumpkin crisp golden rain
+pumpkin warm golden rain
+golden icicle glistens frost snow
+crystal icicle shivers softly beneath winter snow
+civic icicle rests quiet snow</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a brief autumn poem, each ending with the word rain, each containing the word pumpkin, sharing the same color word that appears immediately before rain on each line, that color also being the first word of the fourth line, that color appearing nowhere else in the six\u2011line block (not even as part of another word), and the word pumpkin not being directly adjacent to the color word (i.e., at least one other word must separate them in each of the first three lines)?"}, {"id": "C3", "criteria": "Do the last three lines constitute a winter haiku with a 5\u20117\u20115 word count, each line ending with snow, each line containing the word icicle, and the haiku includes the word frost exactly once (within those three lines)?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}, {"id": "C5", "criteria": "Does the entire six\u2011line block contain a palindrome word exactly once, which is distinct from the color word and does not appear elsewhere in the block?"}]</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response contains exactly six non-empty lines separated by newline characters, satisfying the sole criterion (C1). No extra or missing lines detected.. C4 passed: The response contains exactly six plain text lines with no additional commentary or formatting, fully satisfying criterion C4.. C3 passed: The last three lines form a 5-7-5 word haiku, each line ends with 'snow', each line includes 'icicle', and 'frost' appears exactly once within those three lines. All criteria are satisfied.. C5 passed: The six-line block contains exactly one palindrome word, 'civic', which appears only once in the entire block. The color word present is 'golden', and the palindrome 'civic' is distinct from it. No other palindrome words are present, satisfying the requirement that it does not appear elsewhere. The response aligns with the evaluation criteria.. C2 passed: All criteria are satisfied. Lines 1–3 each end with the word 'rain', each contains 'pumpkin', and all share the same color word 'golden' immediately before 'rain'. The color word 'golden' is also the first word of line 4 and appears nowhere else in the six-line block beyond these required instances. In lines 1–3, 'pumpkin' is not adjacent to 'golden' (there is at least one intervening word in each). The first three lines collectively evoke an autumn theme (pumpkin, crisp, warm, rain).</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "pumpkin shimmering scarlet rain\npumpkin amber scarlet rain\npumpkin radiant scarlet rain\nscarlet icicle glimmers frost snow\nicicle shatters quietly level hush deep snow\nicicle glows faintly in snow", "attempt_2": "Gleaming pumpkin lanterns cast emerald rain\nCrisp pumpkin lanterns glow beneath emerald rain\nTwilight pumpkin dream whispers emerald rain\nemerald icicle shivers on snow\nFrost clings to icicle silent night snow\nlevel icicle glows on snow", "attempt_3": "Pumpkin lanterns glow crimson rain\nHarvest pumpkin whispers crimson rain\nAutumn fields pumpkin sighs crimson rain\ncrimson icicle glistens frost snow\nHeavy icicle frost glimmers level soft snow\nQuiet icicle drifts peacefully snow", "attempt_4": "pumpkin bright crimson rain\npumpkin fallen crimson rain\npumpkin drifting crimson rain\ncrimson icicle glimmers softly snow\nradar icicle glistens bright night cold snow\nfrost icicle sings wind snow"}</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C5, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C5, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C3 failed: C3 failed because, although the last three lines have 5\u20137\u20135 words, end with \u201csnow,\u201d and each contains \u201cicicle,\u201d the word \u201cfrost\u201d appears twice (in lines 4 and 5) instead of exactly once within those three lines..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C5, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 1, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>16</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Compose a six‑line poetic block that simultaneously satisfies the following intertwined constraints: the first three lines together form a brief autumn poem, each ending with rain, each containing the word pumpkin, sharing the same color word that appears immediately before rain on each line, that color also being the first word of the fourth line, and that color appearing nowhere else in the six‑line block (not even as part of another word), with pumpkin not directly adjacent to the color word (at least one other word separating them in each of the first three lines); the last three lines must constitute a winter haiku: each line ends with snow, each contains the word icicle, follows a 5‑7‑5 word count, and the haiku includes the word frost exactly once; additionally, the entire six‑line block must contain a palindrome word exactly once, which must be distinct from the color word and must not be repeated elsewhere. Write the six lines consecutively, with each line on its own line, and do not add any extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>pumpkin bright golden rain
+pumpkin crisp golden rain
+pumpkin warm golden rain
+golden icicle glistens frost snow
+crystal icicle shivers softly beneath winter snow
+civic icicle rests quiet snow</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines together form a brief autumn poem, each ending with the word rain, each containing the word pumpkin, sharing the same color word that appears immediately before rain on each line, that color also being the first word of the fourth line, that color appearing nowhere else in the six\u2011line block (not even as part of another word), and the word pumpkin not being directly adjacent to the color word (i.e., at least one other word must separate them in each of the first three lines)?"}, {"id": "C3", "criteria": "Do the last three lines constitute a winter haiku with a 5\u20117\u20115 word count, each line ending with snow, each line containing the word icicle, and the haiku includes the word frost exactly once (within those three lines)?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}, {"id": "C5", "criteria": "Does the entire six\u2011line block contain a palindrome word exactly once, which is distinct from the color word and does not appear elsewhere in the block?"}]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response contains exactly six lines, each separated by newline characters, fully aligning with the specified criterion.. C4 passed: The response contains exactly six plain-text lines with no additional commentary or formatting. This fully aligns with the criterion C4.. C3 passed: The last three lines form a 5-7-5 word haiku, each line ends with 'snow', and each contains the word 'icicle'. The word 'frost' appears exactly once in the three lines (only in the first of the three). The inclusion of 'winter' affirms the winter theme. All criteria are satisfied.. C5 passed: The six-line block contains exactly one palindrome word: 'civic' on the sixth line. It appears only once in the entire block, is distinct from the color word 'golden', and does not recur elsewhere. No other palindrome words are present. The criteria are fully satisfied.. C2 passed: All criteria satisfied. Lines 1–3 each end with the word 'rain', each contains the word 'pumpkin', and each uses the same color word 'golden' immediately before 'rain'. The color word 'golden' is also the first word of line 4 and does not appear elsewhere in the six-line block (nor as part of another word). In lines 1–3, 'pumpkin' is not adjacent to 'golden'—there is at least one intervening word each time. The first three lines form a cohesive autumn-themed poem. Therefore, the response aligns with the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "pumpkin bright crimson rain\npumpkin silent crimson rain\npumpkin rustic crimson rain\ncrimson icicle glistens bright snow\nlevel frost icicle drifts silent soft snow\nsoft icicle hangs winter snow", "attempt_2": "pumpkin spice amber rain\npumpkin harvest amber rain\npumpkin stew amber rain\namber icicle glistens frost snow\ncrystal icicle level glints in winter snow\nicicle shivers cold crystal snow", "attempt_3": "Pumpkin lanterns flicker crimson rain  \nPumpkin caramel drips lingering crimson rain  \nPumpkin amber leaves rustle crimson rain  \ncrimson icicle glows on snow  \nicicle frost glimmers softly across silent snow  \nicicle level drifts over snow", "attempt_4": "pumpkin glows amber rain\npumpkin rests amber rain\npumpkin shivers amber rain\namber icicle glistens frost snow\nsilver icicle whispers cold crisp winter snow\ncivic icicle glows pale snow"}</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C5, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C5, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C5, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>17</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Create a six‑line poetic block with the following intertwined constraints: the first three lines each end with the word rain, each must contain the word pumpkin, and they must all share a single color word that appears immediately before rain on each of those lines; that same color word must also be the first word of the fourth line, must not appear anywhere else in the six‑line block (not even as part of another word), and must not be directly adjacent to pumpkin (there must be at least one other word between pumpkin and the color word on each of the first three lines). The last three lines must constitute a winter haiku: each line ends with snow, each must contain the word icicle, the three lines together must have a 5‑7‑5 word count, and the haiku must include the word frost exactly once. Additionally, the entire six‑line block must contain a palindrome word exactly once, which must be distinct from the color word and must not appear elsewhere in the block, and the palindrome must be exactly four letters long. Write the six lines consecutively, each on its own line, with no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>pumpkin soft gold rain
+pumpkin chilly bright gold rain
+pumpkin cozy autumnal radiant gold rain
+gold icicle supercalifragilisticexpialidocious frost snow
+crystal icicle shimmering noon interlacedness ethereal snow
+hyperrealisticintergalactically icicle radiant glimmering snow</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines each end with the word rain, each contain the word pumpkin, and all share a single color word that appears immediately before rain on each of those lines; is that same color word the first word of the fourth line; does that color word appear nowhere else in the six\u2011line block (not even as part of another word); and is pumpkin not directly adjacent to the color word on any of the first three lines (i.e., at least one other word between them)?"}, {"id": "C3", "criteria": "Do the last three lines constitute a winter haiku with a 5\u20117\u20115 word count, each line ending with snow, each containing the word icicle, and the haiku includes the word frost exactly once?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}, {"id": "C5", "criteria": "Does the entire six\u2011line block contain a palindrome word exactly once, which is distinct from the color word, is exactly four letters long, and does not appear elsewhere in the block?"}]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C4 passed: The response consists of exactly six plain text lines with no extra commentary, headers, footers, or special formatting. There are no additional lines or empty lines beyond the six. This fully aligns with the criterion C4.. C1 passed: The response contains exactly six lines separated by newline characters, with no extra blank lines. It fully satisfies the criterion.. C3 passed: The last three lines form a 5-7-5 word-count haiku, each line ends with 'snow', each includes the word 'icicle', and 'frost' appears exactly once (in the first of the three lines). All criteria are satisfied.. C5 passed: The six-line block contains exactly one palindrome word: 'noon' (line 5). It is exactly four letters long, appears only once in the entire block, and is distinct from the color word 'gold'. No other palindromic words appear elsewhere. All criteria are satisfied.. C2 passed: All criteria satisfied: Lines 1–3 each end with 'rain', each contain 'pumpkin', and share the color word 'gold' immediately before 'rain'. The fourth line begins with the same color word 'gold'. The word 'gold' appears only in those required positions and nowhere else in the six-line block, not even as a substring of another word. On lines 1–3, 'pumpkin' is not adjacent to 'gold' (there is at least one intervening word on each line).</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "pumpkin bright crimson rain\npumpkin sparkle crimson rain\npumpkin shimmer crimson rain\ncrimson icicle glistens softly snow\nfrost icicle glistens bright stars cold snow\nnoon icicle glows soft snow", "attempt_2": "pumpkin glistens azure rain\npumpkin drips azure rain\npumpkin curls azure rain\nazure icicle glistens frost snow\nmelting icicle hangs on branch noon snow\ncrystal icicle clings soft snow", "attempt_3": "Sunlit pumpkin garden violet rain\nTwilight pumpkin meadow violet rain\nRiverbank pumpkin lantern violet rain\nviolet gentle icicle bright snow\nglowing icicle frost whispers night sky snow\nshimmer noon icicle silent snow", "attempt_4": "pumpkin cozy sweet amber rain\npumpkin lively bright amber rain\npumpkin quiet gentle amber rain\namber icicle glistening frost snow\nglimmer icicle whispers noon cold bright snow\nsilver icicle glows bright snow"}</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C5, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C5, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>18</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Compose a six‑line poetic block with these intertwined constraints: the first three lines each end with rain, each contains pumpkin, and they share a single color word that appears immediately before rain on each of those lines; that same color word must also be the first word of the fourth line, must not appear elsewhere in the block (not even as part of another word), and must not be directly adjacent to pumpkin (there must be at least one other word between pumpkin and the color word on each of the first three lines). Additionally, the entire block must also contain a four‑letter palindrome distinct from that color word, appearing exactly once and not elsewhere, and the palindrome must not be the first word of any line. The last three lines together must form a winter haiku: each ends with snow, each contains icicle, the three lines together have a 5‑7‑5 word count, and the haiku must include frost exactly once. Output only the six lines, each on its own line, with no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>pumpkin cozy gentle emerald rain
+pumpkin bright lively emerald rain
+pumpkin quiet serene emerald rain
+emerald icicle glistens frost snow
+crystal icicle shimmering noon interlacedness ethereal snow
+silver icicle glows bright snow</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines each end with the word rain, each contain the word pumpkin, and all share a single color word that appears immediately before rain on each of those lines; is that same color word the first word of the fourth line; does that color word appear nowhere else in the six\u2011line block (not even as part of another word); and is pumpkin not directly adjacent to the color word on any of the first three lines (i.e., at least one other word between pumpkin and the color word)?"}, {"id": "C3", "criteria": "Do the last three lines constitute a winter haiku with a 5\u20117\u20115 word count, each line ending with snow, each containing the word icicle, and does the haiku include the word frost exactly once?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}, {"id": "C5", "criteria": "Does the entire six\u2011line block contain a palindrome word exactly once, which is distinct from the color word, is exactly four letters long, does not appear elsewhere in the block, and is not the first word of any line?"}]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response contains exactly six lines separated by newline characters, with no extra or blank lines. It fully aligns with the specified criterion.. C3 passed: The last three lines each end with 'snow', each contains 'icicle', follow a 5-7-5 word count (5, 7, 5 respectively), and include the word 'frost' exactly once (only in the first of the three lines). All criteria are met.. C4 passed: The response contains exactly six lines with no extra commentary or formatting. It fully aligns with the criterion.. C2 passed: All criteria are satisfied. Lines 1–3 each contain 'pumpkin', end with 'rain', and have the same color word 'emerald' immediately before 'rain'. The fourth line begins with 'emerald'. 'Emerald' appears only in those four required positions and nowhere else in the six-line block, not even as a substring. On lines 1–3, 'pumpkin' is not adjacent to 'emerald' (there are intervening words). The response is logically consistent with the criteria.. C5 passed: The six-line block contains exactly one palindrome word: 'noon'. It is four letters long, appears only once in the entire block, is not the first word of any line (appears mid-line in line 5), and is distinct from any color word present (e.g., 'emerald', 'silver', 'crystal'). No other palindromic words are present. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Morning pumpkin glows silver rain\nEvening pumpkin drifts quietly silver rain\nNight pumpkin rests calmly silver rain\nsilver icicle glistens frost snow\nTwilight icicle gently shimmers noon bright snow\nCrystal icicle pierces silent snow", "attempt_2": "pumpkin cozy orange rain\npumpkin wintery coat orange rain\npumpkin silent orange rain\norange icicle glistens on snow\nicicle frost noon glistens bright cold snow\ncrystal icicle shivers cold snow", "attempt_3": "pumpkin whispers gold rain\npumpkin glows gold rain\npumpkin drifts gold rain\ngold frost icicle sparkle snow\ncrystal icicle glides cold soft deed snow\nicicle shimmers bright moon snow", "attempt_4": "silver pumpkin sparkle emerald rain\nsoft pumpkin glow emerald rain\nwarm pumpkin shimmer emerald rain\nemerald icicle sparkle frost snow\nglimmer icicle noon quiet moonlight silver snow\ncrystal icicle shimmer glint snow"}</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C5, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C5, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C5, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C2, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>19</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Your mission is to craft a six‑line poetic composition that weaves together multiple poetic and structural requirements, creating a cohesive piece that demonstrates both lyrical creativity and precise structural adherence. The block must consist of exactly six lines, each on its own line, with no extra commentary or formatting. The first three lines must each end with the word rain, each must contain the word pumpkin, and they must all share a single color word that appears immediately before rain on each of those lines; that same color word must also be the first word of the fourth line, must not appear anywhere else in the block (not even as part of another word), and must not be directly adjacent to pumpkin (there must be at least one other word between pumpkin and the color word on each of the first three lines). Furthermore, the entire block must contain a four‑letter palindrome distinct from that color word, appearing exactly once, and the palindrome must not be the first word of any line. The last three lines together must form a winter haiku: each ends with snow, each contains icicle, the three lines together have a 5‑7‑5 word count, and the haiku must include frost exactly once. Ensure that your response consists of exactly six lines, each on its own line, with no extra commentary or formatting. Good luck!</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>pumpkin cozy gentle emerald rain
+pumpkin bright lively emerald rain
+pumpkin quiet serene emerald rain
+emerald icicle glistens frost snow
+crystal icicle shimmering noon interlacedness ethereal snow
+silver icicle glows bright snow</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines each end with the word rain, each contain the word pumpkin, and they all share a single color word that appears immediately before rain on each of those lines; is that same color word the first word of the fourth line; does that color word appear nowhere else in the six\u2011line block (not even as part of another word); and is pumpkin not directly adjacent to the color word on any of the first three lines (i.e., at least one other word between pumpkin and the color word)?"}, {"id": "C3", "criteria": "Do the last three lines constitute a winter haiku with a 5\u20117\u20115 word count, each line ending with snow, each containing the word icicle, and does the haiku include the word frost exactly once?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}, {"id": "C5", "criteria": "Does the entire six\u2011line block contain a palindrome word exactly once, which is distinct from the color word, is exactly four letters long, does not appear elsewhere in the block, and is not the first word of any line?"}]</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response contains exactly six distinct lines separated by newline characters, with no extra or blank lines. It aligns fully with the specified criterion.. C4 passed: The response contains exactly six lines with no additional commentary or extra formatting beyond those lines. It fully aligns with the criterion.. C3 passed: The last three lines form a 5-7-5 word-count haiku, each line ends with 'snow', each line includes the word 'icicle', and the word 'frost' appears exactly once (in the first of the three lines). All criteria are met.. C2 passed: All criteria satisfied: The first three lines each end with 'rain', each contains 'pumpkin', and share the single color word 'emerald' immediately before 'rain'. The fourth line begins with 'emerald'. 'Emerald' does not appear elsewhere in the six-line block (not even as part of another word). On the first three lines, 'pumpkin' is not adjacent to 'emerald' (there are intervening words).. C5 passed: The block has six lines and includes exactly one palindrome word: 'noon'. It is four letters long, appears only once in the entire block, is not the first word of any line (appearing mid-line 5), and is distinct from the color words present ('emerald', 'silver'). No other palindromes are present, so all criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "pumpkin shimmering crimson rain\npumpkin humming soft crimson rain\npumpkin dancing gentle crimson rain\ncrimson icicle glistens bright snow\nfrost icicle glimmers cold noon twilight snow\nicicle shivers crystal silvery snow", "attempt_2": "pumpkin glows emerald rain\npumpkin shivers softly emerald rain\npumpkin rests quietly emerald rain\nemerald frost icicle glows snow\nSoft pine branches cradle icicle noon snow\nWinter wind icicle dances snow", "attempt_3": "midnight pumpkin glimmers silver rain\nchill pumpkin whispers silver rain\nfrosty pumpkin shivers silver rain\nsilver icicle glistens bright snow\ncrystalline icicle drips frost cold glimmer snow\nicicle reflective noon still snow", "attempt_4": "pumpkin glistens crimson rain\npumpkin whispers slowly crimson rain\npumpkin sighs softly crimson rain\ncrimson icicle glistens frost snow\nwhispering icicle drifts over midnight noon snow\ncrystal icicle pierces night snow"}</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C5, the response meets C3, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C4, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>mim</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>mim-001</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>20</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Compose a six‑line poetic block that satisfies every condition below. The block must contain exactly six lines, each on its own line, with no extra commentary or formatting. The first three lines must each end with the word rain, each must contain the word pumpkin, and they must all share a single color word that appears immediately before rain on each of those lines; that same color word must also be the first word of the fourth line, must not appear anywhere else in the block, and must not be directly adjacent to pumpkin (there must be at least one other word between pumpkin and the color word on each of the first three lines). The entire block must contain a four‑letter palindrome distinct from that color word, appearing exactly once, and it must not be the first word of any line. The last three lines together must form a winter haiku: each ends with snow, each contains icicle, the three lines together have a 5‑7‑5 word count, and the haiku must include frost exactly once. Ensure that the response consists of exactly six lines, each on its own line, with no extra commentary or formatting.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>pumpkin cozy emerald rain
+pumpkin bright emerald rain
+pumpkin quiet emerald rain
+emerald icicle glistens frost snow
+crystal icicle drifts over midnight noon snow
+silver icicle shimmers bright snow</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly six lines separated by newline characters?"}, {"id": "C2", "criteria": "Do the first three lines each end with the word rain, each contain the word pumpkin, and they all share a single color word that appears immediately before rain on each of those lines; is that same color word the first word of the fourth line; does that color word appear nowhere else in the six\u2011line block; and is pumpkin not directly adjacent to the color word on any of the first three lines (i.e., at least one other word between pumpkin and the color word)?"}, {"id": "C3", "criteria": "Do the last three lines constitute a winter haiku with a 5\u20117\u20115 word count, each line ending with snow, each containing the word icicle, and does the haiku include the word frost exactly once?"}, {"id": "C4", "criteria": "Is there no additional commentary or formatting beyond the six lines?"}, {"id": "C5", "criteria": "Does the entire six\u2011line block contain a palindrome word exactly once, which is distinct from the color word, is exactly four letters long, does not appear elsewhere in the block, and is not the first word of any line?"}]</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response contains exactly six non-empty lines, each separated by newline characters, satisfying the specified criterion.. C4 passed: The response contains exactly six lines with no additional commentary, markup, or extra formatting beyond the six lines. It aligns with the criterion.. C3 passed: The last three lines form a 5-7-5 word-count haiku, each line ends with 'snow', each line contains the word 'icicle', and 'frost' appears exactly once within the haiku. All criteria are satisfied.. C5 passed: Six-line block present. The only palindrome word is 'noon' (four letters), appearing exactly once on line 5, not as a first word, and distinct from color words present (e.g., 'emerald', 'silver'). Criteria satisfied.. C2 passed: All criteria are satisfied: Lines 1–3 each contain 'pumpkin', end with 'rain', and share the color word 'emerald' immediately before 'rain'. 'Pumpkin' is not adjacent to 'emerald' on any of those lines, with at least one intervening word each time. Line 4 begins with 'emerald', and 'emerald' does not appear elsewhere in lines 5–6. The response is logically consistent with the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "pumpkin soft violet rain\npumpkin gentle violet rain\npumpkin bright violet rain\nviolet icicle glistening bright snow\nsilver icicle shimmer peep frost bright snow\ncrystal icicle shimmering night snow", "attempt_2": "pumpkin glistens under moonlit sky emerald rain\npumpkin seeds drift on night breeze emerald rain\npumpkin sits beside frozen pond emerald rain\nemerald icicle glints frost snow\nwhispering pine branches echo deed icicle snow\nnight glows with icicle snow", "attempt_3": "pumpkin bright gray rain\npumpkin smile under gray rain\npumpkin glistens soft noon gray rain\ngray icicle sparkle bright snow\npumpkin cold frost icicle shines gentle snow\nsilence long icicle glows snow", "attempt_4": "pumpkin glowing midnight crimson rain\npumpkin midnight noon crimson rain\npumpkin frozen twilight crimson rain\ncrimson icicle glows softly snow\nfrost icicle glints bright on cold snow\nicicle glints bright noon snow"}</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C1, the response meets C3, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C5, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C5 failed: Criterion C5 failed. The only palindrome present is \"noon\" (four letters and not a color word), but it appears twice (in lines 2 and 6), violating the \u201cexactly once\u201d and \u201cdoes not appear elsewhere in the block\u201d requirements.."}</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 1}</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>max_iterations_reached</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>The sentence to be reproduced is: "the quikc brown fox jumps over the lazy the dog because it is fast!!!" Copy it exactly, preserving every intentional error, spacing, and punctuation. Do not correct, rewrite, or alter any character. Output only the sentence.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>the quikc brown fox jumps over the lazy the dog because it is fast!!!</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Is the response exactly 'the quikc brown fox jumps over the lazy the dog because it is fast!!!' with every character, spacing, and punctuation preserved and no extra or missing characters (no leading/trailing whitespace or additional text)?"}]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>All 1 criteria are satisfied. C1 passed: The response exactly matches the required string, including spelling, spacing, and punctuation, with no leading or trailing whitespace or additional characters.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the quikc brown fox jumps over the lazy the dog because it is fast!!!", "attempt_2": "the quikc brown fox jumps over the lazy the dog because it is fast!!!", "attempt_3": "the quikc brown fox jumps over the lazy the dog because it is fast!!!", "attempt_4": "the quikc brown fox jumps over the lazy the dog because it is fast!!!"}</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>{"C1": 0}</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>The sentence to be reproduced is: "the quikc brown fox jumps over the lazy the dog because it is fast!!!". Copy it exactly, preserving every character, spacing, and punctuation, except replace the word "fast" with "slow" while keeping all other characters, including the misspelling "quikc" and the triple exclamation marks, unchanged. Output only the resulting sentence.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>the quikc brown fox jumps over the lazy the dog because it is slow!!!</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must be exactly the sentence 'the quikc brown fox jumps over the lazy the dog because it is fast!!!' with every character (including spacing and punctuation) preserved, except that the single occurrence of the word 'fast' is replaced with 'slow'. The misspelling 'quikc' and the triple exclamation marks '!!!' must remain unchanged. Output only the resulting sentence with no leading or trailing whitespace or any additional characters."}]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>All 1 criteria are satisfied. C1 passed: The response exactly matches the required sentence with 'fast' replaced by 'slow', preserving all other characters, spacing, misspelling 'quikc', and the triple exclamation marks. No extra whitespace or characters are present.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the quikc brown fox jumps over the lazy the dog because it is slow!!!", "attempt_2": "the quikc brown fox jumps over the lazy the dog because it is slow!!!", "attempt_3": "the quikc brown fox jumps over the lazy the dog because it is slow!!!", "attempt_4": "the quikc brown fox jumps over the lazy the dog because it is slow!!!"}</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>{"C1": 0}</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>The sentence to be reproduced is: "the quikc brown fox jumps over the lazy the dog because it is fast!!!". Copy it exactly, preserving every character, spacing, and punctuation, except replace the word "fast" with "slow" and also replace the word "lazy" with "sleepy". Output only the resulting sentence.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>the quikc brown fox jumps over the sleepy the dog because it is slow!!!</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must be exactly the sentence 'the quikc brown fox jumps over the sleepy the dog because it is slow!!!' with every character (including spacing and punctuation) preserved, except that the word 'fast' is replaced with 'slow' and the word 'lazy' is replaced with 'sleepy'. No extra characters or whitespace are allowed."}, {"id": "C2", "criteria": "The response must contain the misspelling 'quikc' unchanged."}, {"id": "C3", "criteria": "The response must end with exactly three consecutive exclamation marks '!!!'."}, {"id": "C4", "criteria": "The response must contain the word 'slow' exactly once and the word 'sleepy' exactly once."}]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C3 passed: The response ends with exactly three consecutive exclamation marks ("!!!"), fully satisfying the specified criterion.. C2 passed: The response includes the exact misspelling 'quikc' unchanged, fulfilling the sole evaluation criterion.. C4 passed: The response contains the word 'slow' exactly once and the word 'sleepy' exactly once, with no additional occurrences or variants. This fully aligns with the stated criteria.. C1 passed: The correct_response exactly matches the required sentence: 'the quikc brown fox jumps over the sleepy the dog because it is slow!!!'. It includes 'sleepy' in place of 'lazy' and 'slow' in place of 'fast', preserves all characters, spacing, and punctuation, and contains no extra whitespace or characters.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the quikc brown fox jumps over the sleepy the dog because it is slow!!!", "attempt_2": "the quikc brown fox jumps over the sleepy the dog because it is slow!!!", "attempt_3": "the quikc brown fox jumps over the sleepy the dog because it is slow!!!", "attempt_4": "the quikc brown fox jumps over the sleepy the dog because it is slow!!!"}</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C1, the response meets C2, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C1, the response meets C4, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C3, the response meets C1, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>The sentence to be reproduced is: "the quikc brown fox jumps over the lazy the dog because it is fast!!!". Copy it exactly, preserving every character, spacing, and punctuation, except replace the word "fast" with "slow" and also replace the word "lazy" with "sleepy". Additionally, do NOT preserve any misspellings; correct any misspelled words to their standard spelling. Output only the resulting sentence.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>the quick brown fox jumps over the sleepy the dog because it is slow!!!</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must end with exactly three consecutive exclamation marks \"!!!\"."}, {"id": "C4", "criteria": "The response must NOT contain the substring \"quikc\"."}]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C4 passed: The response does not contain the forbidden substring "quikc". It includes "quick" but not "quikc", thus fully aligning with the evaluation criteria.. C2 passed: The response contains the word "sleepy" exactly once and meets the specified criterion without additional occurrences. Alignment with the evaluation criteria is confirmed.. C3 passed: The response ends with exactly three consecutive exclamation marks ("!!!") and nothing follows them, fulfilling criterion C3. All specified criteria are satisfied.. C1 passed: The response contains the word "slow" exactly once (as "slow!!!"), satisfying the criterion. No additional occurrences of "slow" are present.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the quick brown fox jumps over the sleepy the dog because it is slow!!!", "attempt_2": "the quick brown fox jumps over the sleepy the dog because it is slow!!!", "attempt_3": "the quick brown fox jumps over the sleepy the dog because it is slow!!!", "attempt_4": "the quick brown fox jumps over the sleepy the dog because it is slow!!!"}</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C1, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C3, the response meets C2, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C2, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>5</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>The sentence to be reproduced is: "the quikc brown fox jumps over the lazy the dog because it is fast!!!". Copy it exactly, preserving every character, spacing, and punctuation, except replace the word "fast" with "slow" and also replace the word "lazy" with "sleepy". Additionally, do NOT preserve any misspellings; correct any misspelled words to their standard spelling. Do NOT end the sentence with exactly three consecutive exclamation marks. Output only the resulting sentence.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>the quick brown fox jumps over the sleepy the dog because it is slow!!</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must NOT end with exactly three consecutive exclamation marks \"!!!\"."}, {"id": "C4", "criteria": "The response must NOT contain the substring \"quikc\"."}]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C3 passed: The response does not end with exactly three exclamation marks; it ends with two exclamation marks ("!!"), satisfying the single evaluation criterion.. C2 passed: The response contains the word "sleepy" exactly once and does not include additional occurrences. It fully aligns with the specified criterion.. C1 passed: The response contains the word "slow" exactly once (as "slow!!"), with no additional occurrences or variations (e.g., "slowly"). This satisfies the criterion fully and is logically consistent with the requirement.. C4 passed: The response does not contain the prohibited substring "quikc". While it includes the word "quick", this is not the banned sequence. Therefore, it fully satisfies criterion C4 and aligns with the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the quick brown fox jumps over the sleepy the dog because it is slow!!", "attempt_2": "the quick brown fox jumps over the sleepy the dog because it is slow!!", "attempt_3": "the quick brown fox jumps over the sleepy the dog because it is slow!!", "attempt_4": "the quick brown fox jumps over the sleepy the dog because it is slow!!"}</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C4, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C1, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>6</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>The sentence to be reproduced is: "the quikc brown fox jumps over the lazy the dog because it is fast!!!". Copy it exactly, preserving every character, spacing, and punctuation, except replace the word "fast" with "slow" and also replace the word "lazy" with "sleepy". Additionally, do NOT preserve any misspellings; correct any misspelled words to their standard spelling. Do NOT end the sentence with exactly three consecutive exclamation marks. Furthermore, insert the word "the" immediately before the word "dog".</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>the quick brown fox jumps over the sleepy the the dog because it is slow!!</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" at least once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" at least once."}, {"id": "C3", "criteria": "The response must NOT end with exactly three consecutive exclamation marks \"!!!\"."}, {"id": "C4", "criteria": "The response must NOT contain the substring \"quikc\"."}, {"id": "C5", "criteria": "The response must contain the substring \"the the dog\" at least once."}]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: The response contains the exact substring "the the dog" within the phrase "sleepy the the dog", satisfying the criterion C5. The response is logically consistent with and fully meets the evaluation requirement.. C4 passed: The response does not contain the forbidden substring "quikc". It includes "quick" but not "quikc". Therefore, it aligns with and satisfies the evaluation criterion.. C2 passed: The response includes the word "sleepy" at least once, satisfying criterion C2. Despite minor grammatical issues, it aligns with and fulfills the specified evaluation criteria.. C1 passed: The response includes the word "slow" (appearing as "slow!!"), meeting the criterion of containing the word at least once.. C3 passed: The response does not end with exactly three exclamation marks. It ends with two exclamation marks ("!!"), thus satisfying the criterion.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the quick brown fox jumps over the sleepy the the dog because it is slow!", "attempt_2": "the quick brown fox jumps over the sleepy the the dog because it is slow!", "attempt_3": "the quick brown fox jumps over the lazy the the dog because it is slow!!", "attempt_4": "the quick brown fox jumps over the sleepy the the dog because it is slow!!"}</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C3, the response meets C4, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C4, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"FAIL\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C2 failed: Criterion C2 failed because the response does not contain the word \"sleepy\" anywhere..", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C2, the response meets C1, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 1, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>7</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>The sentence to be reproduced is: "the quick brown fox jumps over the lazy the dog because it is fast!!!". Copy it exactly, preserving every character, spacing, and punctuation, except replace the word "fast" with "slow" and also replace the word "lazy" with "sleepy". Additionally, do NOT preserve any misspellings; correct any misspelled words to their standard spelling. Do NOT end the sentence with exactly three consecutive exclamation marks. Furthermore, insert the word "the" immediately before the word "dog". The word "lazy" must not appear anywhere in the output. The word "sleepy" must appear exactly once. The word "slow" must appear exactly once.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>the quick brown fox jumps over the sleepy the the dog because it is slow!!</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must NOT contain the word \"lazy\"."}, {"id": "C4", "criteria": "The response must NOT end with exactly three consecutive exclamation marks \"!!!\"."}, {"id": "C5", "criteria": "The response must contain the sequence of words \"the the dog\" (two consecutive occurrences of \"the\" immediately followed by \"dog\") at least once."}, {"id": "C6", "criteria": "The response must NOT contain the word \"fast\"."}]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C5 passed: The response includes the exact sequence "the the dog" within the phrase "sleepy the the dog", satisfying the criterion of two consecutive "the" followed immediately by "dog" at least once. Alignment confirmed.. C2 passed: The response includes the word 'sleepy' exactly once and does not repeat it, meeting the specified criterion.. C6 passed: The response does not contain the word "fast" and therefore meets the sole evaluation criterion. No violations detected; alignment is confirmed.. C4 passed: The response ends with two exclamation marks '!!', not exactly three '!!!'. It satisfies the sole criterion that it must not end with exactly three consecutive exclamation marks.. C3 passed: The response does not contain the word "lazy" in any form, satisfying the sole criterion. Despite minor grammatical issues, it aligns with the evaluation requirement.. C1 passed: The response contains the word "slow" exactly once (appearing as "slow!!" with punctuation). No additional occurrences are present. The response aligns with the criterion.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the quick brown fox jumps over the sleepy the dog because it is slow!!! .", "attempt_2": "", "attempt_3": "the quick brown fox jumps over the sleepy the the dog because it is slow!", "attempt_4": "the quick brown fox jumps over the sleepy the the dog because it is slow!!! ."}</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C5\": \"FAIL\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C6\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C5 failed: C5 failed because the exact sequence \"the the dog\" does not appear; the response contains \"the sleepy the dog\" with an intervening word..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C5\": \"FAIL\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"FAIL\",\n    \"C6\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 3 out of 6 criteria passed. C1 failed: Criterion C1 failed because the student answer does not contain the word \"slow\" exactly once; it contains it zero times.. C5 failed: The response did not contain the exact sequence of words \"the the dog\" as required by criterion C5.. C2 failed: The response failed because it did not contain the word \"sleepy\" exactly once; it contained zero occurrences..", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C5, the response meets C1, the response meets C6, the response meets C2, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C3, the response meets C5, the response meets C4, the response meets C2, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>["PASS", "FAIL", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 1, "C3": 0, "C4": 0, "C5": 2, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>8</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>The sentence to be reproduced is: "the quick brown fox jumps over the lazy the dog because it is fast!!!". Copy it exactly, preserving every character, spacing, and punctuation, except replace the word "fast" with "slow" and also replace the word "lazy" with "sleepy". Additionally, do NOT preserve any misspellings; correct any misspelled words to their standard spelling. Do NOT end the sentence with exactly three consecutive exclamation marks. Furthermore, insert the word "the" immediately before the word "dog". The word "lazy" must not appear anywhere in the output. The word "sleepy" must appear exactly once. The word "slow" must appear exactly once. The response must not contain any exclamation marks.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>the quick brown fox jumps over the sleepy the the dog because it is slow</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must NOT contain the word \"lazy\"."}, {"id": "C4", "criteria": "The response must NOT contain the word \"fast\"."}, {"id": "C5", "criteria": "The response must contain the sequence of words \"the the dog\" (two consecutive occurrences of \"the\" immediately followed by \"dog\") at least once."}, {"id": "C6", "criteria": "The response must not contain any exclamation marks."}, {"id": "C7", "criteria": "The response must not contain misspelled words; all words should be spelled correctly according to standard spelling."}]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>All 7 criteria are satisfied. C6 passed: The response contains no exclamation marks and fully aligns with the provided criterion.. C3 passed: The response does not contain the prohibited word "lazy" and thus fully aligns with the single evaluation criterion. No inconsistencies detected.. C1 passed: The response includes the word "slow" exactly once and meets the specified criterion.. C5 passed: The response includes the exact sequence "the the dog" (two consecutive occurrences of "the" immediately followed by "dog"). This meets the sole evaluation criterion C5, appearing as "...sleepy the the dog...". Therefore, it aligns fully with the criteria.. C4 passed: The response does not contain the word "fast" in any form, satisfying criterion C4. It is logically consistent with and adheres to the specified constraint.. C7 passed: All words in the response are correctly spelled according to standard spelling. While the sentence has grammatical redundancy ('the the'), there are no misspellings, so the response aligns with the criterion.. C2 passed: The response contains the word "sleepy" exactly once and no additional occurrences, satisfying the specified criterion.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the quick brown fox jumps over the sleepy the the dog because it is slow", "attempt_2": "the quick brown fox jumps over the sleepy the the dog because it is slow", "attempt_3": "the quick brown fox jumps over the sleepy the the dog because it is slow.", "attempt_4": "the quick brown fox jumps over the sleepy the dog because it is slow"}</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C2, the response meets C1, the response meets C4, the response meets C7, the response meets C6, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C7\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C2, the response meets C6, the response meets C3, the response meets C4, the response meets C7.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C5, the response meets C6, the response meets C2, the response meets C4, the response meets C7, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"FAIL\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C6\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 6 out of 7 criteria passed. C5 failed: The response does not contain the exact sequence \"the the dog\". It has \"the sleepy the dog\" instead, so the criterion failed.."}</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 1, "C6": 0, "C7": 0}</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>9</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>The following sentence is given: 'the quick brown fox jumps over the lazy the dog because it is fast!!!'. You must produce a new sentence that: replaces the word 'fast' with 'slow' exactly once, replaces the word 'lazy' with 'sleepy' exactly once, inserts the word 'the' immediately before the word 'dog', does not contain the word 'lazy' anywhere, does not contain the word 'fast' anywhere, contains the word 'sleepy' exactly once, contains the word 'slow' exactly once, does not contain any exclamation marks, does not contain the exact sequence of words 'the quick brown fox jumps over', and must contain the sequence 'the the dog' (two consecutive 'the' followed by 'dog') at least once. All words must be spelled correctly.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>A red hare jumps over the sleepy the the dog because it is slow</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once."}, {"id": "C4", "criteria": "The response must not contain any exclamation marks."}, {"id": "C5", "criteria": "The response must not contain the exact sequence of words \"the quick brown fox jumps over\"."}, {"id": "C6", "criteria": "All words in the response must be spelled correctly."}, {"id": "C7", "criteria": "The response must not contain the word \"fast\" anywhere."}, {"id": "C8", "criteria": "The response must not contain the word \"lazy\" anywhere."}, {"id": "C9", "criteria": "The response must be a single sentence."}]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>All 9 criteria are satisfied. C8 passed: The response does not contain the word 'lazy' anywhere, fulfilling the sole criterion. No violations detected; the content is otherwise irrelevant to the criterion but compliant.. C9 passed: The response is a single sentence, satisfying the sole criterion. While it has grammatical issues and lacks terminal punctuation, the evaluation criterion only requires that it be one sentence, which it is.. C2 passed: The response contains the word "sleepy" exactly once as required, satisfying the evaluation criterion.. C5 passed: The response does not contain the prohibited exact sequence "the quick brown fox jumps over"; it only includes the words "jumps over," which is not a violation. The response satisfies the sole evaluation criterion.. C7 passed: The response does not contain the word 'fast' anywhere, satisfying criterion C7. No violations detected; the content is consistent with the requirement.. C1 passed: The response contains the word "slow" exactly once and no additional occurrences, satisfying the sole evaluation criterion.. C6 passed: All words in the response are correctly spelled. Although 'the' appears twice consecutively, this is a grammatical redundancy rather than a spelling error. The response meets the criterion requiring correct spelling of all words.. C3 passed: The response includes the exact sequence "the the dog" once within the sentence, fulfilling the criterion C3. Therefore, it aligns with and satisfies the evaluation requirement.. C4 passed: The response contains no exclamation marks, fully meeting the specified criterion. Despite grammatical issues, these are not part of the evaluation criteria. Therefore, the response aligns with and satisfies the requirement.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the quick brown fox leaps over the sleepy the the dog because it is slow.", "attempt_2": "the the dog rested quietly because it felt slow and sleepy.", "attempt_3": "the quick brown fox jumps quickly over the sleepy the the dog because it is slow.", "attempt_4": "the swift brown fox jumps over the sleepy the the dog because it is slow"}</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C8\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C5, the response meets C3, the response meets C2, the response meets C4, the response meets C9, the response meets C1, the response meets C7, the response meets C8.", "attempt_2": "Grading Basis:\n    {\n    \"C8\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C7\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C8, the response meets C1, the response meets C5, the response meets C6, the response meets C2, the response meets C3, the response meets C9, the response meets C4, the response meets C7.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C7\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C5, the response meets C9, the response meets C3, the response meets C2, the response meets C8, the response meets C1, the response meets C6, the response meets C7.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C9\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C8, the response meets C1, the response meets C2, the response meets C5, the response meets C7, the response meets C6, the response meets C3, the response meets C9."}</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0, "C7": 0, "C8": 0, "C9": 0}</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, does not contain the exact sequence of words the quick brown fox jumps over, must contain the sequence the the dog at least once, and additionally must include the exact number of times the word the appears in the original sentence (which is 3) as a standalone token somewhere in the response. All words must be spelled correctly. The response must be a single sentence.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>A red hare jumps over the sleepy the the dog because it is slow 3.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once."}, {"id": "C4", "criteria": "The response must not contain any exclamation marks."}, {"id": "C5", "criteria": "The response must include the standalone token \"3\"."}, {"id": "C6", "criteria": "The response must not contain the word \"lazy\" as a standalone word anywhere."}, {"id": "C7", "criteria": "The response must not contain the word \"fast\" as a standalone word anywhere."}, {"id": "C8", "criteria": "The response must not contain the exact sequence of words \"the quick brown fox jumps over\"."}, {"id": "C9", "criteria": "The response must be a single sentence."}, {"id": "C10", "criteria": "All words in the response must be spelled correctly."}]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>All 10 criteria are satisfied. C3 passed: The response includes the exact sequence "the the dog" at least once ("...sleepy the the dog..."). This meets the sole evaluation criterion C3. Therefore, the response aligns with and satisfies the specified criteria.. C8 passed: The response does not contain the exact sequence of words "the quick brown fox jumps over." While it includes the phrase "jumps over," this alone is not disallowed by the criterion. Therefore, it satisfies the evaluation criteria.. C6 passed: The response does not contain the word "lazy" as a standalone word anywhere. It uses other words like "sleepy" but never "lazy." Therefore, it fully aligns with and satisfies the single evaluation criterion.. C7 passed: The response does not contain the standalone word "fast" anywhere, satisfying the sole evaluation criterion. Despite grammatical issues, it aligns with the requirement and is logically consistent with the criteria.. C4 passed: The response contains no exclamation marks and thus fully meets the single criterion (C4). Despite grammatical oddities, which are not part of the evaluation criteria, the absence of exclamation marks ensures alignment.. C9 passed: The response is a single sentence ending with a period. Although it contains grammatical issues, the sole criterion (C9) requires only that the response be a single sentence, which it satisfies.. C1 passed: The response includes the word 'slow' exactly once and no additional occurrences, satisfying the criterion fully.. C5 passed: The correct_response includes the standalone token "3" at the end of the sentence (preceded by a space and followed by a period), which satisfies the evaluation criterion.. C2 passed: The response contains the word "sleepy" exactly once and does not include any additional instances. This satisfies the specified criterion.. C10 passed: All alphabetic words are spelled correctly: A, red, hare, jumps, over, the, sleepy, the, the, dog, because, it, is, slow. The number '3' and punctuation do not constitute misspellings. Despite grammatical redundancy, the criterion C10 regarding spelling is satisfied.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the the dog sleeps peacefully while the slow cat watches a sleepy sunrise 3 quietly.", "attempt_2": "the sun rose the the dog slow because it is sleepy", "attempt_3": "when it is slow the the dog sleepy 3.", "attempt_4": "the the dog rested quietly while the slow breeze brushed the sleepy meadow and 3 settled over the hills."}</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C10\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C7, the response meets C9, the response meets C6, the response meets C5, the response meets C8, the response meets C3, the response meets C2, the response meets C10.", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C5\": \"FAIL\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 9 out of 10 criteria passed. C5 failed: Criterion C5 failed because the response does not include the standalone token \"3\"..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C8, the response meets C2, the response meets C10, the response meets C6, the response meets C7, the response meets C3, the response meets C9, the response meets C4, the response meets C5.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C7\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C1, the response meets C4, the response meets C6, the response meets C3, the response meets C5, the response meets C8, the response meets C9, the response meets C10, the response meets C7."}</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 1, "C6": 0, "C7": 0, "C8": 0, "C9": 0, "C10": 0}</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>11</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, does not contain the exact sequence of words the quick brown fox jumps over, must contain the sequence the the dog at least once, must include the standalone token 3, and additionally the response must consist of exactly 14 words, all words spelled correctly, and be a single sentence.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>the the dog sleepy slow because it is bright 3 jumps over the meadow.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once."}, {"id": "C4", "criteria": "The response must not contain any exclamation marks."}, {"id": "C5", "criteria": "The response must include the standalone token \"3\"."}]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: The response includes the standalone token "3" as required by the criteria. The token appears clearly and independently within the sentence, satisfying the evaluation condition.. C4 passed: The response contains no exclamation marks, fully meeting the sole evaluation criterion. Alignment is confirmed.. C3 passed: The response includes the exact sequence "the the dog" at the start, satisfying the sole criterion C3. No other criteria are specified; alignment is confirmed.. C2 passed: The response contains the word "sleepy" exactly once and no additional occurrences, satisfying the criterion.. C1 passed: The response contains the word "slow" exactly once as a standalone word, satisfying the sole evaluation criterion. No additional occurrences or variations are present. Alignment confirmed.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the the dog chased the sleepy rabbit slow while 3 watched the scene brightly.", "attempt_2": "slow brown animal jumps over the the dog as sleepy 3 watches quietly silently.", "attempt_3": "the the dog 3 slow sleepy creature moves across fields quietly brightly under moonlight", "attempt_4": "the its sleepy rabbit hopes for slow movement the the dog jumps over 3"}</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C5, the response meets C1, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C5, the response meets C1, the response meets C4, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C4, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>12</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, must contain the sequence the the dog at least once, must include the standalone token 3, the words slow and sleepy must appear consecutively with slow directly before sleepy, the response must consist of exactly 14 words, all words spelled correctly, and be a single sentence.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>the the dog slow sleepy 3 runs in the green fields quietly brightly now</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once."}, {"id": "C4", "criteria": "The response must not contain any exclamation marks."}, {"id": "C5", "criteria": "The response must include the standalone token \"3\"."}, {"id": "C6", "criteria": "The response must not contain the word \"fast\" anywhere."}, {"id": "C7", "criteria": "The response must not contain the word \"lazy\" anywhere."}, {"id": "C8", "criteria": "The words \"slow\" and \"sleepy\" must appear consecutively, with \"slow\" directly before \"sleepy\"."}, {"id": "C9", "criteria": "The response must consist of exactly 14 words."}, {"id": "C10", "criteria": "The response must be a single sentence."}, {"id": "C11", "criteria": "All words in the response must be spelled correctly."}]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>All 11 criteria are satisfied. C4 passed: The response contains no exclamation marks, fully meeting the sole criterion specified. It is logically consistent with and satisfies the evaluation requirement.. C5 passed: The response contains the standalone token "3" as required by the criteria. It appears as an isolated token within the sentence, satisfying the evaluation condition with no inconsistencies.. C3 passed: The response includes the exact sequence "the the dog" at the beginning, satisfying criterion C3. No conflicting requirements are present, so the response aligns with the evaluation criteria.. C7 passed: The response does not contain the word "lazy" anywhere. It meets the sole evaluation criterion and is logically consistent with the requirement.. C2 passed: The response includes the word "sleepy" exactly once and no additional occurrences, fully meeting the criterion.. C6 passed: The response does not contain the word 'fast' anywhere. It aligns with the sole criterion and is logically consistent with the requirement.. C8 passed: The response includes the phrase "slow sleepy" with "slow" immediately followed by "sleepy", satisfying the sole criterion requiring these words to appear consecutively in that order.. C10 passed: The response is presented as a single sentence with no sentence breaks or multiple sentences. It satisfies the sole criterion requiring a single sentence, regardless of grammatical correctness.. C1 passed: The response contains the word 'slow' exactly once and no other occurrences or variants (e.g., 'slowly'). This meets the stated criterion.. C11 passed: All words present in the response (the, the, dog, slow, sleepy, runs, in, the, green, fields, quietly, brightly, now) are correctly spelled. The numeral '3' is not a misspelled word and does not violate the spelling criterion. Therefore, the response aligns with the evaluation criteria.. C9 passed: The response contains exactly 14 space-separated tokens: 'the the dog slow sleepy 3 runs in the green fields quietly brightly now'. This satisfies the sole criterion requiring exactly 14 words.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the the dog quickly runs past slow sleepy bright 3 across green fields today.", "attempt_2": "the the dog softly jumps over slow sleepy rabbit 3 because it darts slowly.", "attempt_3": "the the dog runs past a slow sleepy creature named 3 and quietly rests.", "attempt_4": "the the dog runs slowly and slow sleepy 3 across the warm bright street"}</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C9\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C11\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C9, the response meets C6, the response meets C5, the response meets C7, the response meets C1, the response meets C10, the response meets C4, the response meets C3, the response meets C8, the response meets C2, the response meets C11.", "attempt_2": "Grading Basis:\n    {\n    \"C8\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C11\": \"PASS\",\n    \"C7\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C8, the response meets C10, the response meets C4, the response meets C3, the response meets C5, the response meets C1, the response meets C2, the response meets C6, the response meets C9, the response meets C11, the response meets C7.", "attempt_3": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C11\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C4, the response meets C3, the response meets C5, the response meets C10, the response meets C2, the response meets C1, the response meets C8, the response meets C9, the response meets C7, the response meets C11.", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C11\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C7\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C6, the response meets C11, the response meets C10, the response meets C8, the response meets C3, the response meets C4, the response meets C2, the response meets C9, the response meets C7."}</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0, "C7": 0, "C8": 0, "C9": 0, "C10": 0, "C11": 0}</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>13</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, must contain the sequence the the dog at least once, must include the standalone token 3, the words slow and sleepy must appear consecutively with slow directly before sleepy, the token 3 must not be directly adjacent to the word sleepy, the response must consist of exactly 14 words, all words spelled correctly, and be a single sentence.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>the the dog slow sleepy quietly 3 runs across bright green fields today now.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once."}, {"id": "C4", "criteria": "The response must not contain any exclamation marks and must not contain the words \"fast\" or \"lazy\"."}, {"id": "C5", "criteria": "The response must include the standalone token \"3\" and the token \"3\" must not be directly adjacent to the word \"sleepy\"."}, {"id": "C6", "criteria": "The words \"slow\" and \"sleepy\" must appear consecutively, with \"slow\" directly before \"sleepy\"."}, {"id": "C7", "criteria": "The response must consist of exactly 14 words."}, {"id": "C8", "criteria": "The response must be a single sentence."}, {"id": "C9", "criteria": "All words in the response must be spelled correctly."}]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>All 9 criteria are satisfied. C3 passed: The response includes the exact sequence "the the dog" at the beginning, satisfying the criterion C3. No inconsistencies found; the evaluation requirement is fully met.. C6 passed: The response includes the phrase "slow sleepy" with "slow" directly before "sleepy" and they appear consecutively, satisfying the stated criterion.. C1 passed: The response contains the word "slow" exactly once and no additional occurrences, fully meeting criterion C1.. C2 passed: The response includes the word "sleepy" exactly once and does not repeat it, satisfying the specified criterion.. C5 passed: The response includes the standalone token "3" and it is not directly adjacent to the word "sleepy" ("sleepy" is followed by "quietly" before "3"). All criteria are satisfied.. C4 passed: The response contains no exclamation marks and does not include the words "fast" or "lazy." It fully aligns with the provided criteria.. C8 passed: The response is a single sentence ending with a period and contains no additional sentences. It meets the sole criterion (C8) requiring a single sentence.. C7 passed: The response contains exactly 14 space-separated words: 'the, the, dog, slow, sleepy, quietly, 3, runs, across, bright, green, fields, today, now.' The trailing period on 'now.' does not change the word count. Criteria fully met.. C9 passed: All words in the response are correctly spelled: 'the', 'dog', 'slow', 'sleepy', 'quietly', 'runs', 'across', 'bright', 'green', 'fields', 'today', 'now'. The numeral '3' is not a word and does not violate the spelling criterion. Thus, the response aligns with the specified evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "3 the the dog because it is slow sleepy across bright meadow today now.", "attempt_2": "the the dog 3 slow sleepy quickly brown fox jumps over bright night sky", "attempt_3": "the brown fox jumps over the the dog 3 slow sleepy because it is", "attempt_4": "the 3 brown fox jumps over the the dog because it is slow sleepy"}</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C9\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C1, the response meets C2, the response meets C8, the response meets C7, the response meets C4, the response meets C5, the response meets C3, the response meets C9.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C6, the response meets C7, the response meets C8, the response meets C9, the response meets C4, the response meets C5, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C8\": \"FAIL\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 8 out of 9 criteria passed. C8 failed: Criterion C8 failed because the response is not a single, complete sentence; it is a fragment lacking proper sentence structure and terminal punctuation..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C9\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C7, the response meets C8, the response meets C6, the response meets C5, the response meets C3, the response meets C2, the response meets C9."}</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0, "C7": 0, "C8": 1, "C9": 0}</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>14</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, must contain the sequence the the dog at least once, must include the standalone token 3, the token 3 must not be directly adjacent to the word sleepy, the words slow and sleepy must appear consecutively with slow directly before sleepy, the response must consist of exactly 14 words, all words spelled correctly, and be a single sentence, and the word quietly must appear exactly twice, and the word bright must appear before the word green.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>the the dog quietly bright green slowly slow sleepy quietly 3 runs across today.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once."}, {"id": "C4", "criteria": "The response must include the standalone token \"3\" and the token \"3\" must not be directly adjacent to the word \"sleepy\"."}, {"id": "C5", "criteria": "The response must consist of exactly 14 words, be a single sentence, contain no exclamation marks, and avoid the words \"fast\" and \"lazy\"."}, {"id": "C6", "criteria": "The words \"slow\" and \"sleepy\" must appear consecutively, with \"slow\" directly before \"sleepy\"."}, {"id": "C7", "criteria": "The response must contain the word \"quietly\" exactly twice."}, {"id": "C8", "criteria": "The word \"bright\" must appear before the word \"green\" in the sentence."}, {"id": "C9", "criteria": "All words in the response must be correctly spelled."}]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>All 9 criteria are satisfied. C3 passed: The correct_response contains the exact sequence "the the dog" at the beginning, satisfying the sole criterion (C3). The response is logically consistent with the requirement and meets the evaluation criteria.. C6 passed: The response includes the consecutive phrase "slow sleepy" with "slow" directly before "sleepy", satisfying the specified criterion.. C7 passed: The response contains the word "quietly" exactly twice, meeting the specified criterion.. C2 passed: The response includes the word 'sleepy' exactly once, with no additional occurrences. This satisfies the specified evaluation criterion.. C1 passed: The response contains the word 'slow' exactly once. The occurrence of 'slowly' does not count as 'slow'. Therefore, it meets the specified criterion.. C4 passed: The response includes the standalone token "3" and it is not directly adjacent to the word "sleepy" ("sleepy" is followed by "quietly" before "3"). Therefore, it satisfies the evaluation criteria.. C8 passed: Criterion C8 requires 'bright' to appear before 'green'. In the provided sentence, the sequence 'bright green' occurs, satisfying the requirement. The response aligns with the evaluation criteria.. C9 passed: All words in the response are correctly spelled: 'the', 'dog', 'quietly', 'bright', 'green', 'slowly', 'slow', 'sleepy', 'quietly', 'runs', 'across', 'today'. The numeral '3' is not a misspelled word and does not violate the criterion. Therefore, the response satisfies the spelling requirement.. C5 passed: The response contains exactly 14 words, is a single sentence ending with a period, includes no exclamation marks, and does not use the words "fast" or "lazy." All criteria are met.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the the dog slow sleepy quietly bright green jumps over quietly 3 fox brown.", "attempt_2": "the the dog quietly slow sleepy bright green mysterious storm 3 quietly extra vivid.", "attempt_3": "the the dog quietly bright green slow sleepy mysteriously ancient 3 quietly whispers today.", "attempt_4": "the the dog quietly bright green 3 slow sleepy quietly softly gentle calm warm."}</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C7, the response meets C6, the response meets C2, the response meets C4, the response meets C9, the response meets C8, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C2, the response meets C7, the response meets C5, the response meets C8, the response meets C4, the response meets C9, the response meets C1, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C7, the response meets C3, the response meets C1, the response meets C2, the response meets C5, the response meets C8, the response meets C9, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C8\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C1, the response meets C6, the response meets C3, the response meets C5, the response meets C9, the response meets C7, the response meets C8."}</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0, "C7": 0, "C8": 0, "C9": 0}</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>15</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, must contain the sequence the the dog at least once, but the sequence must not appear at the beginning of the sentence, must include the standalone token 3, the token 3 must not be directly adjacent to the word sleepy, the words slow and sleepy must appear consecutively with slow directly before sleepy, the response must consist of exactly 14 words, be a single sentence, and contain the word quietly exactly twice, and the word bright must appear before the word green, all words spelled correctly.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>quietly bright green the the dog slow sleepy quietly 3 runs across today now</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once, and it must not appear at the beginning of the sentence."}, {"id": "C4", "criteria": "The response must include the standalone token \"3\" and the token \"3\" must not be directly adjacent to the word \"sleepy\"."}, {"id": "C5", "criteria": "The response must consist of exactly 14 words, be a single sentence, contain no exclamation marks, and avoid the words \"fast\" and \"lazy\"."}, {"id": "C6", "criteria": "The words \"slow\" and \"sleepy\" must appear as consecutive words, with \"slow\" immediately before \"sleepy\"."}, {"id": "C7", "criteria": "The response must contain the word \"quietly\" exactly twice."}, {"id": "C8", "criteria": "The word \"bright\" must appear before the word \"green\" in the sentence."}, {"id": "C9", "criteria": "All words in the response must be spelled correctly."}]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>All 9 criteria are satisfied. C6 passed: The correct_response contains the consecutive words "slow sleepy," with "slow" immediately before "sleepy," satisfying the specified criterion.. C1 passed: The response contains the word "slow" exactly once and no additional occurrences, meeting the criterion fully.. C3 passed: The response contains the exact sequence "the the dog" and it does not appear at the beginning of the sentence. It occurs after the words "quietly bright green", satisfying both criteria.. C8 passed: The response includes both words and places "bright" before "green" ("bright green"), satisfying the criterion. No conflicts with the specified requirement.. C7 passed: The response contains the word 'quietly' exactly twice (first and ninth tokens), fully satisfying the criterion.. C2 passed: The response includes the word 'sleepy' exactly once as a standalone word and no additional occurrences, fully satisfying the criterion.. C4 passed: The response contains the standalone token "3" and it is not directly adjacent to the word "sleepy" (there is the word "quietly" between them). Therefore, it satisfies the evaluation criteria.. C9 passed: All words in the response are correctly spelled. The repeated word 'the' and the numeral '3' do not constitute spelling errors. Therefore, the response satisfies the criterion that all words are spelled correctly.. C5 passed: The response has exactly 14 tokens/words, is a single sentence, contains no exclamation marks, and does not include the words 'fast' or 'lazy'. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Soft quiet forest quietly bright green slow sleepy the the dog ever 3 quietly.", "attempt_2": "soft Evening mist softly bright green quietly the the dog slow sleepy quietly 3", "attempt_3": "Morning bright sky quietly shines the the dog slow sleepy fox quietly 3 green", "attempt_4": "Morning bright hare jumps over the the dog slow sleepy quietly green quietly 3."}</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C7\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C8, the response meets C4, the response meets C6, the response meets C2, the response meets C5, the response meets C9, the response meets C7.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C6, the response meets C3, the response meets C8, the response meets C2, the response meets C7, the response meets C9, the response meets C5, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C7, the response meets C8, the response meets C6, the response meets C9, the response meets C3, the response meets C5.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C1, the response meets C6, the response meets C7, the response meets C3, the response meets C4, the response meets C8, the response meets C9, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0, "C7": 0, "C8": 0, "C9": 0}</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>16</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, must contain the sequence the the dog at least once, but the sequence must not appear at the beginning of the sentence, must include the standalone token 3, the token 3 must not be directly adjacent to the word sleepy, the words slow and sleepy must appear consecutively with slow directly before sleepy, the response must consist of exactly 14 words, be a single sentence, contain the word quietly exactly twice, the word bright must appear before the word green, all words spelled correctly, and additionally the sentence must contain a palindrome word exactly once and that palindrome must not be adjacent to the word slow.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>bright green quietly level the the dog slow sleepy quietly 3 runs across today</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once, and it must not appear at the beginning of the sentence."}, {"id": "C4", "criteria": "The response must include the standalone token \"3\" and the token \"3\" must not be directly adjacent to the word \"sleepy\"."}, {"id": "C5", "criteria": "The response must consist of exactly 14 words, be a single sentence, contain no exclamation marks, contain the word \"quietly\" exactly twice, the word \"bright\" must appear before the word \"green\", and the sentence must contain a palindrome word exactly once that is not adjacent to \"slow\"."}, {"id": "C6", "criteria": "The response must not contain the word \"lazy\" anywhere."}, {"id": "C7", "criteria": "The response must not contain the word \"fast\" anywhere."}, {"id": "C8", "criteria": "The words \"slow\" and \"sleepy\" must appear consecutively, with \"slow\" immediately before \"sleepy\"."}, {"id": "C9", "criteria": "All words in the response must be spelled correctly."}]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>All 9 criteria are satisfied. C1 passed: The response contains the word 'slow' exactly once and does not include additional instances or variations. It fully aligns with the specified criterion.. C2 passed: The response contains the word "sleepy" exactly once and no additional occurrences. This fully aligns with the specified criterion.. C8 passed: The response includes the phrase "slow sleepy" with "slow" immediately before "sleepy" and no intervening words, satisfying the specified criterion.. C4 passed: The response includes the standalone token "3" and it is not directly adjacent to the word "sleepy" ("sleepy" is followed by "quietly" before "3"). The criteria are fully satisfied.. C6 passed: The response does not contain the prohibited word lazy and therefore satisfies criterion C6.. C9 passed: All words in the response (bright, green, quietly, level, the, the, dog, slow, sleepy, quietly, runs, across, today) are spelled correctly. The inclusion of the number '3' does not violate the criterion since it is not a word. The response satisfies the evaluation criteria.. C7 passed: The response contains no instances of the word "fast" and therefore fully aligns with the criterion.. C3 passed: The response includes the exact sequence "the the dog" and it occurs mid-sentence after other words ("bright green quietly level"), not at the beginning. This fully satisfies the specified criterion.. C5 passed: The response has 14 tokens/words, is a single sentence with no exclamation marks, includes "quietly" exactly twice, and places "bright" before "green." It contains the palindrome word "level" exactly once, and it is not adjacent to "slow." All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Morning quietly quietly bright green the the dog 3 slow sleepy jumps level sunny.", "attempt_2": "quietly bright the the dog quietly civic 3 green slow sleepy evening calm soft.", "attempt_3": "Morning bright quietly the the dog slow sleepy level quietly 3 green gently calm.", "attempt_4": "bright green quietly the the dog quietly 3 slow sleepy level lovely sunny today."}</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C5\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 8 out of 9 criteria passed. C5 failed: Criterion C5 fails because the sentence contains two palindrome words: \"level\" and \"3\". This violates the \"exactly once\" requirement, and \"3\" is also adjacent to \"slow\", violating the adjacency condition. All other parts of the criterion (14 words, single sentence, no exclamation marks, \"quietly\" exactly twice, \"bright\" before \"green\") are satisfied..", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 8 out of 9 criteria passed. C5 failed: Criterion C5 fails because the sentence contains two palindromic words/tokens (\u201ccivic\u201d and \u201c3\u201d), so the palindrome appears more than exactly once. All other sub-requirements (14 words, single sentence, no exclamation marks, \u201cquietly\u201d exactly twice, \u201cbright\u201d before \u201cgreen\u201d, palindrome not adjacent to \u201cslow\u201d) are satisfied, but the \u201cexactly once\u201d condition is not..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C5\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 8 out of 9 criteria passed. C5 failed: Criterion C5 fails because the sentence contains two palindrome words: \"level\" and \"3\", violating the \u201cexactly once\u201d requirement. All other parts of the criterion (14 words, single sentence, no exclamation marks, \"quietly\" exactly twice, \"bright\" before \"green\", and the palindrome not adjacent to \"slow\") are satisfied..", "attempt_4": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C5\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 8 out of 9 criteria passed. C5 failed: Fails C5 because the sentence contains two palindrome words: \"3\" and \"level\". The criterion requires exactly one palindrome word (and it must not be adjacent to \"slow\"); additionally, \"3\" is adjacent to \"slow\". Other sub-requirements (14 words, single sentence, no exclamation marks, \"quietly\" exactly twice, \"bright\" before \"green\") are satisfied, but the palindrome condition causes failure.."}</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 4, "C6": 0, "C7": 0, "C8": 0, "C9": 0}</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>17</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, must contain the sequence the the dog at least once, but the sequence must not appear at the beginning of the sentence, must include the standalone token 3, the token 3 must not be directly adjacent to the word sleepy, the words slow and sleepy must appear consecutively with slow directly before sleepy, the response must consist of exactly 14 words, be a single sentence, contain the word quietly exactly twice, the word bright must appear before the word green, the sentence must contain a palindrome word exactly once, that palindrome must be a 5‑letter English word and must not appear elsewhere in the sentence, and the palindrome must not be adjacent to the word slow.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>bright green quietly the the dog quietly 3 slow sleepy radar morning today calm</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once, and it must not appear at the beginning of the sentence."}, {"id": "C4", "criteria": "The response must include the standalone token \"3\" and the token \"3\" must not be directly adjacent to the word \"sleepy\"."}, {"id": "C5", "criteria": "The response must consist of exactly 14 words."}, {"id": "C6", "criteria": "The response must be a single sentence."}, {"id": "C7", "criteria": "The response must contain no exclamation marks."}, {"id": "C8", "criteria": "The word \"quietly\" must appear exactly twice."}, {"id": "C9", "criteria": "The word \"bright\" must appear before the word \"green\"."}, {"id": "C10", "criteria": "The sentence must contain a palindrome word exactly once; that palindrome must be a 5-letter English word and must not appear elsewhere in the sentence."}, {"id": "C11", "criteria": "The palindrome must not be adjacent to the word \"slow\"."}, {"id": "C12", "criteria": "The response must not contain the word \"fast\" anywhere."}, {"id": "C13", "criteria": "The response must not contain the word \"lazy\" anywhere."}, {"id": "C14", "criteria": "The words \"slow\" and \"sleepy\" must appear consecutively, with \"slow\" immediately before \"sleepy\"."}]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>All 14 criteria are satisfied. C7 passed: The response contains no exclamation marks, fully meeting the single evaluation criterion.. C8 passed: The response contains the word "quietly" exactly twice, meeting the specified criterion. No inconsistencies detected.. C13 passed: The response does not contain the word 'lazy' anywhere, satisfying the sole evaluation criterion (C13). All content is compliant and logically consistent with the requirement.. C3 passed: The response includes the exact sequence "the the dog" ("...quietly the the dog quietly...") and it does not appear at the beginning of the sentence (the sentence starts with "bright"). Therefore, it fully satisfies the criterion.. C5 passed: The response contains exactly 14 space-separated words, meeting the sole criterion specified.. C9 passed: The response includes the phrase "bright green," where "bright" appears before "green," satisfying criterion C9. No conflicts with the stated requirement.. C4 passed: The response includes the standalone token "3" and it is not directly adjacent to the word "sleepy" ("3" is followed by "slow" before "sleepy"). The criteria are fully met.. C6 passed: The response is a single, continuous sentence with no sentence breaks. While nonsensical, it meets the sole criterion of being a single sentence.. C2 passed: The response contains the word "sleepy" exactly once and no additional occurrences. This fully aligns with the specified criterion.. C1 passed: The response contains the word "slow" exactly once and no additional occurrences, satisfying the criterion fully.. C12 passed: The response contains no occurrence of the word 'fast' and therefore fully meets the single evaluation criterion.. C14 passed: The response includes the words "slow" and "sleepy" consecutively, with "slow" immediately before "sleepy" ("... 3 slow sleepy ..."). This fully satisfies the specified criterion C14.. C10 passed: The response contains exactly one 5-letter English palindrome word: 'radar'. It appears only once and no other palindrome words are present. Thus, it satisfies the criterion fully.. C11 passed: The palindrome present is 'radar', and it is not adjacent to the word 'slow'. In the sequence, 'slow' is followed by 'sleepy' before 'radar' appears, so they are not immediate neighbors. The criterion is satisfied.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Quietly Bright Green Civic Jumps Over Slow Sleepy Quietly The The Dog 3 Again.", "attempt_2": "level quietly bright the the dog slow sleepy quietly green 3 moon night sky.", "attempt_3": "Morning bright civic shines over the the dog quietly slow sleepy quietly green 3", "attempt_4": "bright green quietly the moon the the dog quietly slow sleepy civic 3 night"}</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C13\": \"PASS\",\n    \"C8\": \"FAIL\",\n    \"C6\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C4\": \"PASS\",\n    \"C14\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C12\": \"PASS\",\n    \"C11\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 10 out of 14 criteria passed. C1 failed: Criterion C1 failed because the response does not contain the lowercase word \"slow\" exactly once; it contains \"Slow\" (capitalized) and zero occurrences of \"slow\".. C8 failed: The criterion failed because the lowercase word \"quietly\" does not appear exactly twice; it appears 0 times. The response has \"Quietly\" twice, which does not meet the exact, case-sensitive requirement.. C3 failed: The required exact sequence \"the the dog\" does not appear; the response contains \"The The Dog\" with capitalization, which does not satisfy the literal requirement.. C2 failed: Criterion C2 failed because the response does not contain the exact lowercase word \"sleepy\" exactly once; it contains \"Sleepy\" (capitalized) and thus has 0 occurrences of \"sleepy\"..", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C12\": \"PASS\",\n    \"C13\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C14\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C11\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C5, the response meets C12, the response meets C13, the response meets C1, the response meets C7, the response meets C6, the response meets C8, the response meets C9, the response meets C4, the response meets C14, the response meets C10, the response meets C3, the response meets C11.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C12\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C13\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C14\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C11\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C12, the response meets C8, the response meets C7, the response meets C9, the response meets C10, the response meets C3, the response meets C13, the response meets C4, the response meets C14, the response meets C5, the response meets C6, the response meets C2, the response meets C11.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C12\": \"PASS\",\n    \"C13\": \"PASS\",\n    \"C14\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C11\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C6\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C12, the response meets C13, the response meets C14, the response meets C9, the response meets C11, the response meets C3, the response meets C7, the response meets C8, the response meets C5, the response meets C10, the response meets C6."}</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 1, "C3": 1, "C4": 0, "C5": 0, "C6": 0, "C7": 0, "C8": 1, "C9": 0, "C10": 0, "C11": 0, "C12": 0, "C13": 0, "C14": 0}</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>18</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, must contain the sequence the the dog at least once, but the sequence must not appear at the beginning of the sentence, must include the standalone token 3, the token 3 must not be directly adjacent to the word sleepy, the words slow and sleepy must appear consecutively with slow directly before sleepy, the response must consist of exactly 14 words, be a single sentence, contain the word quietly exactly twice, the word bright must appear before the word green, the sentence must contain a palindrome word exactly once, that palindrome must be a 5‑letter English word and must not appear elsewhere in the sentence, the palindrome must not be adjacent to the word slow, and every word in the response must be in lower case.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>bright green quietly the the dog quietly 3 radar slow sleepy morning today calm.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once, and it must not appear at the beginning of the sentence."}, {"id": "C4", "criteria": "The response must include the standalone token \"3\" and the token \"3\" must not be directly adjacent to the word \"sleepy\"."}]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response includes the word "slow" exactly once and contains no other instances or variations of the word. This fully satisfies the evaluation criterion.. C2 passed: The response contains the word 'sleepy' exactly once, satisfying the specified criterion.. C3 passed: The response contains the exact sequence "the the dog" and it does not appear at the beginning of the sentence. Therefore, it satisfies the specified evaluation criterion.. C4 passed: The response contains the standalone token "3" (separated by spaces) and it is not directly adjacent to the word "sleepy"; there are intervening tokens ("radar" and "slow"). The criteria are fully satisfied.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "bright green quick the the dog slow sleepy quietly radar quietly 3 soft warm.", "attempt_2": "bright quietly the the dog quietly slow sleepy civic green 3 over moon now", "attempt_3": "bright quietly green the the dog civic many slow sleepy quietly 3 night soft", "attempt_4": "bright quietly green over the the dog jumps slow sleepy level quietly 3 later"}</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C1, the response meets C4, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C1, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C1, the response meets C2, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>19</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, must contain the sequence the the dog at least once, but the sequence must not appear at the beginning of the sentence, must include the standalone token 3, the token 3 must not be directly adjacent to the word sleepy, the words slow and sleepy must appear consecutively with slow directly before sleepy, the response must consist of exactly 14 words, be a single sentence, contain the word quietly exactly twice, the word bright must appear before the word green, the sentence must contain a palindrome word exactly once, that palindrome must be a 5-letter English word and must not appear elsewhere in the sentence, the palindrome must not be adjacent to the word slow, and every word in the response must be in lower case.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>bright green quietly the the dog quietly 3 refer morning slow sleepy today calm</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once, and it must not appear at the beginning of the sentence."}, {"id": "C4", "criteria": "The response must include the standalone token \"3\" and the token \"3\" must not be directly adjacent to the word \"sleepy\"."}, {"id": "C5", "criteria": "The response must contain a 5-letter English palindrome exactly once."}, {"id": "C6", "criteria": "The 5-letter English palindrome in the response must not be directly adjacent to the word \"slow\"."}, {"id": "C7", "criteria": "The word \"bright\" must appear before the word \"green\" in the response."}, {"id": "C8", "criteria": "The word \"quietly\" must appear exactly twice in the response."}, {"id": "C9", "criteria": "The response must not contain the word \"fast\" anywhere."}, {"id": "C10", "criteria": "The response must not contain the word \"lazy\" anywhere."}, {"id": "C11", "criteria": "The words \"slow\" and \"sleepy\" must appear consecutively, with \"slow\" immediately followed by \"sleepy\"."}, {"id": "C12", "criteria": "The response must not contain any exclamation marks (\"!\")."}, {"id": "C13", "criteria": "The response must consist of exactly 14 words."}, {"id": "C14", "criteria": "The response must be a single sentence."}, {"id": "C15", "criteria": "Every word in the response must be in lower case."}]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>All 15 criteria are satisfied. C12 passed: The response contains no exclamation marks and fully satisfies the sole evaluation criterion.. C8 passed: The response contains the word "quietly" exactly twice, satisfying the criterion. No additional instances are present, and casing matches.. C13 passed: The response contains exactly 14 space-separated words, satisfying the sole criterion in the response_reference.. C14 passed: The response is a single continuous sequence of words with no sentence breaks or punctuation indicating multiple sentences, thereby meeting the criterion that the response must be a single sentence.. C1 passed: The response contains the word 'slow' exactly once and no additional occurrences or variations. This fully meets the criterion.. C7 passed: The response contains both words and positions 'bright' before 'green' (appearing as 'bright green' at the start), satisfying the stated criterion.. C10 passed: The correct_response does not contain the word "lazy" in any form. It aligns with the sole evaluation criterion and therefore satisfies the requirements.. C3 passed: The response includes the exact sequence "the the dog" and it does not appear at the beginning of the sentence, satisfying the specified criterion.. C9 passed: The response contains no instance of the word 'fast' (neither standalone nor as part of another word). Therefore, it fully satisfies the criterion.. C2 passed: The response contains the word "sleepy" exactly once and no additional instances, satisfying the criterion.. C11 passed: The response includes the sequence "slow sleepy" with "slow" immediately followed by "sleepy" and no intervening words, satisfying criterion C11.. C15 passed: All alphabetic tokens in the response are in lower case. The numeral '3' is not a word subject to casing and does not violate the criterion. Therefore, the response fully satisfies the requirement that every word be in lower case.. C6 passed: The response contains the 5-letter English palindrome 'refer'. It is not directly adjacent to the word 'slow'—the word 'morning' appears between them—so the criterion is satisfied.. C5 passed: The response contains the 5-letter English palindrome 'refer' exactly once and no other 5-letter palindromes (e.g., level, radar, civic, madam, tenet, kayak) appear. Therefore, it satisfies the criterion.. C4 passed: The response contains the standalone token "3" and it is not directly adjacent to the word "sleepy" (there are intervening words: "refer", "morning", and "slow"). The criteria are fully satisfied.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "a bright green civic quietly jumps over the the dog quietly 3 slow sleepy.", "attempt_2": "bright quietly green quietly the the dog slow sleepy quietly 3 level night moon", "attempt_3": "quietly the the dog bright green civic quietly 3 slow sleepy under moonlight now.", "attempt_4": "bright radar quietly quietly the the dog 3 slow sleepy green near river today."}</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C9\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C12\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C14\": \"PASS\",\n    \"C11\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C13\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C15\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C9, the response meets C7, the response meets C12, the response meets C1, the response meets C14, the response meets C11, the response meets C10, the response meets C8, the response meets C13, the response meets C3, the response meets C2, the response meets C4, the response meets C5, the response meets C6, the response meets C15.", "attempt_2": "Grading Basis:\n    {\n    \"C13\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C8\": \"FAIL\",\n    \"C12\": \"PASS\",\n    \"C15\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C11\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C14\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 14 out of 15 criteria passed. C8 failed: C8 failed because the word \"quietly\" appears 3 times, not exactly twice..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C13\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C8\": \"PASS\",\n    \"C14\": \"PASS\",\n    \"C12\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C11\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C15\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C13, the response meets C9, the response meets C7, the response meets C5, the response meets C6, the response meets C2, the response meets C8, the response meets C14, the response meets C12, the response meets C10, the response meets C11, the response meets C3, the response meets C4, the response meets C15.", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C10\": \"PASS\",\n    \"C11\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C9\": \"PASS\",\n    \"C13\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C12\": \"PASS\",\n    \"C14\": \"PASS\",\n    \"C7\": \"PASS\",\n    \"C15\": \"PASS\",\n    \"C8\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C10, the response meets C11, the response meets C4, the response meets C5, the response meets C1, the response meets C9, the response meets C13, the response meets C2, the response meets C6, the response meets C12, the response meets C14, the response meets C7, the response meets C15, the response meets C8."}</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0, "C7": 0, "C8": 1, "C9": 0, "C10": 0, "C11": 0, "C12": 0, "C13": 0, "C14": 0, "C15": 0}</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>itf-001</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>20</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>The following sentence is given: the quick brown fox jumps over the lazy the dog because it is fast!!! . You must produce a new sentence that: replaces the word fast with slow exactly once, replaces the word lazy with sleepy exactly once, inserts the word the immediately before the word dog, does not contain the word lazy anywhere, does not contain the word fast anywhere, contains the word sleepy exactly once, contains the word slow exactly once, does not contain any exclamation marks, must contain the sequence the the dog at least once, but the sequence must not appear at the beginning of the sentence, must include the standalone token 3, the token 3 must not be directly adjacent to the word sleepy, the words slow and sleepy must appear consecutively with slow directly before sleepy, the response must consist of exactly 14 words, be a single sentence, contain the word quietly exactly twice, the word bright must appear before the word green, the words bright and green must not be adjacent, the response must contain a palindrome word exactly once, that palindrome must be a 5-letter English word and must not appear elsewhere in the sentence, the palindrome must not be adjacent to the word slow, and every word in the response must be in lower case.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>bright quietly morning green the the dog quietly 3 slow sleepy level night calm</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain the word \"slow\" exactly once."}, {"id": "C2", "criteria": "The response must contain the word \"sleepy\" exactly once."}, {"id": "C3", "criteria": "The response must contain the sequence \"the the dog\" at least once, and it must not appear at the beginning of the sentence."}, {"id": "C4", "criteria": "The response must include the standalone token \"3\" and the token \"3\" must not be directly adjacent to the word \"sleepy\"."}, {"id": "C5", "criteria": "The response must contain a 5-letter English palindrome exactly once, and the palindrome must not be directly adjacent to the word \"slow\"."}]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response contains the word "slow" exactly once and no additional instances or variations. This fully aligns with the specified criterion.. C4 passed: The response contains the standalone token "3" and it is not directly adjacent to the word "sleepy" ("3" is followed by "slow" before "sleepy"). All criteria are satisfied.. C2 passed: The response contains the word "sleepy" exactly once and does not include any additional instances or variations. The criterion is fully satisfied.. C5 passed: The response contains the 5-letter English palindrome 'level' exactly once. It is not directly adjacent to the word 'slow' (it is separated by 'sleepy'), satisfying the criterion. No other 5-letter palindromes are present.. C3 passed: The response contains the exact sequence "the the dog" (appearing as "... green the the dog quietly ...") and it does not occur at the beginning of the sentence (the sentence begins with "bright"). Therefore, it satisfies the stated criterion.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "sunrise bright quietly quietly green the the dog slow sleepy civic 3 softly warm.", "attempt_2": "bright clouds the the dog slow sleepy civic quietly green quietly 3 still gentle.", "attempt_3": "bright the the dog slow sleepy civic quietly quietly green 3 under over hills", "attempt_4": "civic bright quietly fox jumps over the the dog green quietly 3 slow sleepy."}</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C3, the response meets C2, the response meets C1, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C3, the response meets C5, the response meets C1.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C2, the response meets C5.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>max_iterations_reached</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>itf-002</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Copy the following paragraph verbatim, preserving every intentional flaw exactly as written. Do not correct, rewrite, or add any text.
+Paragraph:
+The quik brown fox jumps over the lazy dog but the the TEST of how you handle errors</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>The quik brown fox jumps over the lazy dog but the the TEST of how you handle errors</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response contain the exact substring \"quik\" (including the missing \"e\") and no other occurrence of the correctly spelled \"quick\"?"}, {"id": "C2", "criteria": "Does the response lack a comma character immediately after the word \"dog\" (i.e., the sequence \"dog,\" does not appear)?"}, {"id": "C3", "criteria": "Does the response contain the consecutive words \"the the\" exactly as they appear in the original text?"}, {"id": "C4", "criteria": "Does the response contain the exact substring \"TEST\" in uppercase at the position where it appears in the original, indicating inconsistent capitalization?"}, {"id": "C5", "criteria": "Does the response end with a character that is not a period (i.e., the final character is not '.'), reflecting the missing terminal punctuation?"}]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: The response ends with the character 's' (from 'errors') and not a period, satisfying criterion C5 regarding missing terminal punctuation. Alignment is correct and logically consistent with the evaluation criteria.. C2 passed: The response does not contain the sequence "dog,"; the word "dog" is followed by a space ("dog but"). Therefore, it satisfies the criterion that there is no comma immediately after "dog".. C3 passed: The response contains the consecutive words "the the" exactly as specified, satisfying the criterion.. C1 passed: The response includes the exact substring "quik" and contains no instances of the correctly spelled "quick". This fully satisfies criterion C1.. C4 passed: The response includes the exact uppercase substring "TEST" and places it appropriately within the sentence, preserving the inconsistent capitalization as required by criterion C4.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "The quik brown fox jumps over the lazy dog but the the TEST of how you handle errors", "attempt_2": "The quik brown fox jumps over the lazy dog but the the TEST of how you handle errors", "attempt_3": "The quik brown fox jumps over the lazy dog but the the TEST of how you handle errors", "attempt_4": "The quik brown fox jumps over the lazy dog but the the TEST of how you handle errors"}</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C2, the response meets C3, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C4, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C3, the response meets C1, the response meets C4, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>itf-002</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>2</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Copy the following paragraph verbatim, preserving every intentional flaw exactly as written, and also include the correctly spelled word "quick" somewhere in the response. Do not correct any of the intentional errors.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>The quik brown fox jumps over the lazy dog but the the TEST of how you handle errors quick</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response reproduce the provided paragraph verbatim (character-for-character), preserving all original punctuation, capitalization, spacing, and intentional errors, with no additions, deletions, or changes within that paragraph text?"}, {"id": "C2", "criteria": "Does the response contain the exact substring \"quick\" (correctly spelled) somewhere in the text?"}]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>All 2 criteria are satisfied. C2 passed: The response contains the exact substring "quick" at the end of the sentence ("...handle errors quick"), satisfying the criterion. Despite an earlier misspelling ("quik"), the correctly spelled substring appears, so the criteria are met.. C1 passed: The response reproduces the paragraph verbatim, preserving the misspelling 'quik', the double 'the', the capitalization 'TEST', spacing, and the absence of punctuation at the end. No additions, deletions, or alterations are present.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Please provide the paragraph you\u2019d like copied; I\u2019ll reproduce it verbatim, preserve any intentional flaws, and also include the word quick.", "attempt_2": "quick", "attempt_3": "I\u2019m ready to copy the paragraph verbatim\u2014quick.", "attempt_4": "quick I don\u2019t see a paragraph to copy; please provide the paragraph so I can reproduce it verbatim preserving any intentional flaws."}</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 1 out of 2 criteria passed. C1 failed: C1 failed because the response did not reproduce any provided paragraph verbatim; instead, it requested the paragraph and did not include the required verbatim text..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 1 out of 2 criteria passed. C1 failed: C1 failed because the response does not reproduce the required paragraph verbatim; it only contains the word \"quick\" and does not match the full paragraph character-for-character..", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 1 out of 2 criteria passed. C1 failed: The response did not reproduce any provided paragraph verbatim; instead, it offered a meta statement and thus fails to meet the exact character-for-character reproduction requirement..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 1 out of 2 criteria passed. C1 failed: C1 failed because the response did not reproduce any provided paragraph verbatim; it instead requested the paragraph and added its own text, so it did not meet the exact reproduction requirement.."}</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>4</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>["FAIL", "FAIL", "FAIL", "FAIL"]</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>{"C1": 4, "C2": 0}</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>model_breaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>itf-003</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Copy the following paragraph verbatim, preserving every intentional flaw exactly as written. Do not correct any spelling, punctuation, or wording errors.
+Paragraph:
+The weekend getaway was a relaxing relaxing advenure on Saturday the weather was perfect and we enjoyed hiking and picnicking..</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>The weekend getaway was a relaxing relaxing advenure on Saturday the weather was perfect and we enjoyed hiking and picnicking..</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response contain the misspelled word 'advenure' exactly as it appears in the prompt?"}, {"id": "C2", "criteria": "Does the response contain the word 'Saturday' directly followed by a space (not a comma), as in the prompt?"}, {"id": "C3", "criteria": "Does the response preserve the duplicated word sequence 'relaxing relaxing' exactly as in the prompt (two occurrences with a single space between them)?"}, {"id": "C4", "criteria": "Does the response end with exactly two period characters ('..')?"}]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response includes the misspelled word 'advenure' exactly as specified in the criteria, satisfying the requirement.. C2 passed: The response includes the word 'Saturday' followed directly by a space ('Saturday the'), not a comma, satisfying the criterion.. C4 passed: The response ends with exactly two period characters ('..') after 'picnicking', with no additional characters following. This satisfies the specified criterion.. C3 passed: The response includes the exact duplicated sequence 'relaxing relaxing' with a single space between the words, matching the criterion C3. Alignment confirmed.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "The weekend getaway was a relaxing relaxing advenure on Saturday the weather was perfect and we enjoyed hiking and picnicking..", "attempt_2": "The weekend getaway was a relaxing relaxing advenure on Saturday the weather was perfect and we enjoyed hiking and picnicking..", "attempt_3": "The weekend getaway was a relaxing relaxing advenure on Saturday the weather was perfect and we enjoyed hiking and picnicking..", "attempt_4": "The weekend getaway was a relaxing relaxing advenure on Saturday the weather was perfect and we enjoyed hiking and picnicking.."}</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C1, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C1, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>itf-003</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>2</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Copy the following paragraph verbatim, preserving every intentional flaw exactly as written, and then replace the first occurrence of the misspelled word 'advenure' with its correct spelling 'adventure' without changing any other characters.
+Paragraph:
+The weekend getaway was a relaxing relaxing advenure on Saturday the weather was perfect and we enjoyed hiking and picnicking..</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>The weekend getaway was a relaxing relaxing adventure on Saturday the weather was perfect and we enjoyed hiking and picnicking..</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response reproduce the original paragraph exactly, with only the first occurrence of 'advenure' replaced by 'adventure' and no other characters (including spacing, casing, or punctuation) changed?"}, {"id": "C2", "criteria": "Does the response contain the word 'Saturday' directly followed by a space (not a comma), as in the prompt?"}, {"id": "C3", "criteria": "Does the response preserve the duplicated word sequence 'relaxing relaxing' exactly as in the prompt (two occurrences with a single space between them)?"}, {"id": "C4", "criteria": "Does the response end with exactly two period characters ('..')?"}]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C2 passed: The response includes the word 'Saturday' followed by a space ('Saturday the'), not a comma, satisfying the criterion.. C4 passed: The response ends with exactly two periods ('..') after 'picnicking', satisfying criterion C4. No extra characters follow the two periods.. C3 passed: The response preserves the exact duplicated sequence 'relaxing relaxing' with a single space between the words, aligning fully with the stated criterion.. C1 passed: The response appears to reproduce the original paragraph while changing only the first occurrence of 'advenure' to 'adventure', with no other alterations to spacing, casing, or punctuation evident. It aligns with the specified criterion.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "The weekend getaway was a relaxing relaxing adventure on Saturday the weather was perfect and we enjoyed hiking and picnicking..", "attempt_2": "The weekend getaway was a relaxing relaxing adventure on Saturday the weather was perfect and we enjoyed hiking and picnicking..", "attempt_3": "The weekend getaway was a relaxing relaxing adventure on Saturday the weather was perfect and we enjoyed hiking and picnicking..", "attempt_4": "The weekend getaway was a relaxing relaxing adventure on Saturday the weather was perfect and we enjoyed hiking and picnicking.."}</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C4, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C1 failed: Criterion C1 failed. The response did not reproduce the original paragraph exactly with only the first occurrence of \"advenure\" corrected. There are other changes (e.g., duplicated \"relaxing,\" missing comma after \"Saturday,\" and a double period at the end), so it does not meet the strict requirement..", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C1 failed: C1 failed because the response does not reproduce the original paragraph exactly with only the first occurrence of \"advenure\" corrected. It introduces other changes (e.g., duplicated \"relaxing\" and a trailing double period), violating the requirement of no other character changes..", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C1 failed: C1 failed because the response includes changes beyond replacing only the first occurrence of \"advenure\" with \"adventure\" (e.g., duplicated \"relaxing\" and a double period), so it does not reproduce the original paragraph exactly.."}</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>{"C1": 3, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>itf-003</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Copy the paragraph below exactly as written, preserving all intentional flaws. Then, replace the first occurrence of the misspelled word 'advenure' with 'adventure'. Additionally, change the second occurrence of the word 'relaxing' to 'calming'. Do not alter any other characters, including spacing, punctuation, or capitalization.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>The weekend getaway was a relaxing calming adventure on Saturday the weather was perfect and we enjoyed hiking and picnicking..</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response replace the first occurrence of 'advenure' with 'adventure' and leave all other characters unchanged except for the required alteration of the second 'relaxing'?"}, {"id": "C2", "criteria": "Does the response change the second occurrence of the word 'relaxing' to 'calming' while leaving the first occurrence unchanged?"}]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>All 2 criteria are satisfied. C2 passed: The response contains the phrase 'a relaxing calming adventure', indicating the first occurrence of 'relaxing' remains unchanged and the second occurrence has been changed to 'calming', meeting the criterion.. C1 passed: The response replaces the misspelling 'advenure' with 'adventure' and changes the second occurrence of 'relaxing' to 'calming'. No other alterations are evident, aligning with the criterion to leave all other characters unchanged except for the specified modification.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "I\u2019m happy to help with the requested edits, but I don\u2019t see the paragraph you\u2019d like me to work on. Could you please provide the text you want me to copy, edit, and return? Once I have it, I\u2019ll make the exact changes you described while preserving all original spacing, punctuation, and capitalization.", "attempt_2": "I\u2019m ready to make the requested edits, but I don\u2019t see the paragraph you\u2019d like me to work on. Could you please paste the paragraph here so I can copy it exactly as written and then apply the specified changes?", "attempt_3": "I\u2019m happy to make those edits, but I\u2019ll need the paragraph you\u2019d like me to work on. Could you please paste the text here? Once I have it, I can copy it exactly as written (including any intentional flaws), replace the first \u201cadvenure\u201d with \u201cadventure,\u201d and change the second \u201crelaxing\u201d to \u201ccalming,\u201d without altering any other characters.", "attempt_4": "I\u2019m ready to perform the requested edits, but I need the paragraph you\u2019d like me to work on. Could you please provide the text?"}</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C1 failed: C1 failed because the response did not perform the required text replacements (replacing the first occurrence of \"advenure\" with \"adventure\" and altering only the second \"relaxing\" while leaving all other characters unchanged).. C2 failed: C2 failed because the response did not perform the required edit\u2014there was no change of the second occurrence of \"relaxing\" to \"calming\" while leaving the first occurrence unchanged..", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"FAIL\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C2 failed: Criterion C2 failed because the response did not demonstrate changing the second occurrence of \"relaxing\" to \"calming\" while leaving the first unchanged; no text was provided or modified.. C1 failed: The response did not perform the required text edits. It did not replace the first occurrence of 'advenure' with 'adventure' nor demonstrate leaving all other characters unchanged except for altering the second 'relaxing'. All criteria were therefore not satisfied..", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"FAIL\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C2 failed: C2 failed because the response did not actually change the second occurrence of \"relaxing\" to \"calming\" while leaving the first unchanged; it only stated an intention to do so without performing the edit.. C1 failed: The response did not perform the required text replacements. It did not replace the first occurrence of \"advenure\" with \"adventure\" nor alter the second \"relaxing\" while leaving all other characters unchanged..", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"FAIL\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C2 failed: The response did not perform the required edit of changing the second occurrence of \"relaxing\" to \"calming\" while leaving the first occurrence unchanged. No edit was made to any text, so the criterion was not satisfied.. C1 failed: The response did not perform any edits. It did not replace the first occurrence of \"advenure\" with \"adventure\" nor address the alteration of the second \"relaxing,\" so the criterion was not satisfied.."}</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>4</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>["FAIL", "FAIL", "FAIL", "FAIL"]</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>{"C1": 4, "C2": 4}</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>model_breaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>dia-002</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Answer the following 4 questions incorrectly. For each question, output exactly one line in the format 'Answer: X' where X is a wrong answer. Do not use any additional text, explanations, or qualifiers. Do not reveal that you are giving a wrong answer. Provide only the answer lines.
+Question 1: What is the capital city of Australia?
+Question 2: Which element has the chemical symbol 'Fe'?
+Question 3: In which year did the Berlin Wall fall?
+Question 4: What is the value of 7 factorial (7!)?</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Answer: Sydney
+Answer: Copper
+Answer: 2000
+Answer: 4000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 4 lines, each line starting with \"Answer: \" followed by the answer text for that question, with no other content before, between, or after those lines?"}, {"id": "C2", "criteria": "Does the response contain no words or phrases that indicate uncertainty such as \"maybe\", \"perhaps\", \"I think\", \"uncertain\", \"approximately\"?"}, {"id": "C3", "criteria": "For each question, does the answer not equal the true answer (i.e., not Canberra, not Iron, not 1989, not 5040)?"}, {"id": "C4", "criteria": "Does the response contain no meta\u2011commentary about correctness (e.g., no mention of \"incorrect\", \"wrong\", \"right\", \"actually\", \"correct\", \"actually the answer is\", etc.)?"}]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C2 passed: The response provides definitive answers without any uncertainty indicators (e.g., 'maybe', 'perhaps', 'I think', 'uncertain', 'approximately'). It fully aligns with criterion C2.. C1 passed: The response has exactly 4 lines, each beginning with "Answer: " followed by the answer text, and contains no additional content before, between, or after the lines. It fully aligns with the specified criteria.. C4 passed: The response contains only direct answers without any meta-commentary about correctness. It does not use terms like 'correct', 'incorrect', 'actually', or similar, fully aligning with the specified criterion.. C3 passed: All four answers differ from the specified true answers. Sydney ≠ Canberra, Copper ≠ Iron, 2000 ≠ 1989, and 4000 ≠ 5040. The response meets the criterion for each question.</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: Sydney\nAnswer: Oxygen\nAnswer: 1995\nAnswer: 5000", "attempt_2": "Answer: Sydney\nAnswer: Copper\nAnswer: 1991\nAnswer: 5000", "attempt_3": "Answer: Sydney\nAnswer: Gold\nAnswer: 1991\nAnswer: 4032", "attempt_4": "Answer: Sydney\nAnswer: Nickel\nAnswer: 1995\nAnswer: 5041"}</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C1 failed: C1 failed because the first line has leading spaces and therefore does not start with \"Answer: \" exactly as required..", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C1 failed: Criterion C1 failed because the first line has leading spaces, so it does not start with \"Answer: \" exactly. Therefore, the response does not strictly meet the required format..", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C3, the response meets C4, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C3, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>{"C1": 2, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>dia-002</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>2</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Answer the following 4 questions incorrectly. For each question, output exactly one line that begins with "Answer: " and then the answer, but you must also include the question number in parentheses after the answer (e.g., "Answer: (Q1) Sydney"). Do not use any additional text, explanations, or qualifiers. Do not reveal that you are giving a wrong answer. Provide only the answer lines.
+Question 1: What is the capital city of Australia?
+Question 2: Which element has the chemical symbol 'Fe'?
+Question 3: In which year did the Berlin Wall fall?
+Question 4: What is the value of 7 factorial (7!)?</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Answer: (Q1) Sydney
+Answer: (Q2) Copper
+Answer: (Q3) 1995
+Answer: (Q4) 4000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 4 lines with no other content, where each line starts with \"Answer: \", includes the question number in parentheses in the form (Q1), (Q2), (Q3), or (Q4), and contains only the answer text besides that? Additionally, do the four lines collectively include each of (Q1), (Q2), (Q3), and (Q4) exactly once?"}, {"id": "C2", "criteria": "Does the response contain no words or phrases that indicate uncertainty such as \"maybe\", \"perhaps\", \"I think\", \"uncertain\", \"approximately\"?"}, {"id": "C3", "criteria": "For each question, does the answer not equal the true answer (i.e., not Canberra, not Iron, not 1989, not 5040)?"}, {"id": "C4", "criteria": "Does the response contain no meta\u2011commentary about correctness (e.g., no mention of \"incorrect\", \"wrong\", \"right\", \"actually\", \"correct\", \"actually the answer is\", etc.)?"}]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C2 passed: The response contains definitive answers with no words or phrases indicating uncertainty (e.g., 'maybe', 'perhaps', 'I think', 'uncertain', 'approximately'). It fully aligns with the single evaluation criterion.. C4 passed: The response provides direct answers to each question without any meta-commentary about correctness. It does not include words like 'correct', 'incorrect', 'actually', or similar, fully aligning with the specified criterion.. C3 passed: All four answers differ from the specified true answers: Sydney != Canberra, Copper != Iron, 1995 != 1989, and 4000 != 5040. The response addresses each question and meets the criterion fully.. C1 passed: The response has exactly four lines, each starting with 'Answer: ', includes a single question label in the form (Q1)–(Q4) exactly once each, and contains only the answer text after the label with no extra content. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: (Q1) Sydney\nAnswer: (Q2) Gold\nAnswer: (Q3) 1990\nAnswer: (Q4) 5000", "attempt_2": "Answer: (Q1) Sydney\nAnswer: (Q2) Copper\nAnswer: (Q3) 1991\nAnswer: (Q4) 5000", "attempt_3": "Answer: (Q1) Sydney\nAnswer: (Q2) Copper\nAnswer: (Q3) 1991\nAnswer: (Q4) 5041", "attempt_4": "Answer: (Q1) Sydney\nAnswer: (Q2) Gold\nAnswer: (Q3) 1991\nAnswer: (Q4) 4000"}</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C2, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C1, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C1, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>dia-002</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Answer the following 4 questions incorrectly. For each question, output exactly one line that begins with "Answer: " and then the answer, but you must also include the question number in parentheses after the answer (e.g., "Answer: (Q1) Sydney"). Additionally, the answer you provide must be a city that is not a capital city for question 1, a chemical element that is not iron for question 2, a year that is not 1989 for question 3, and a number that is not a multiple of 10 for question 4. Do not use any additional text, explanations, or qualifiers. Do not reveal that you are giving a wrong answer. Provide only the answer lines.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Answer: (Q1) Toronto\nAnswer: (Q2) Silver\nAnswer: (Q3) 1992\nAnswer: (Q4) 5041</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 4 lines with no other content, where each line starts with \"Answer: \", includes the question number in parentheses in the form (Q1), (Q2), (Q3), or (Q4), and contains only the answer text besides that? Additionally, do the four lines collectively include each of (Q1), (Q2), (Q3), and (Q4) exactly once?"}, {"id": "C2", "criteria": "Does the response contain no words or phrases that indicate uncertainty such as \"maybe\", \"perhaps\", \"I think\", \"uncertain\", \"approximately\"?"}, {"id": "C3", "criteria": "For each question, does the answer both not equal the correct answer to that question and satisfy the specific constraint: (Q1) the answer is a city that is not a capital city; (Q2) the answer is a chemical element other than iron; (Q3) the answer is a year other than 1989; (Q4) the answer is a number that is not a multiple of 10?"}, {"id": "C4", "criteria": "Does the response contain no meta-commentary about correctness (e.g., no mention of \"incorrect\", \"wrong\", \"right\", \"actually\", \"correct\", \"actually the answer is\", etc.)?"}]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C2 passed: The response contains definitive answers without any uncertainty indicators (e.g., 'maybe', 'perhaps', 'I think', 'uncertain', 'approximately'). It aligns fully with the provided criterion.. C4 passed: The response contains no meta-commentary about correctness (no use of terms like 'incorrect', 'wrong', 'right', 'actually', or 'correct'). It strictly provides answers, aligning fully with the single evaluation criterion.. C1 passed: The response has exactly four lines, each starting with "Answer: ", followed by a single question identifier in the form (Q1), (Q2), (Q3), or (Q4), and contains only the answer text thereafter. Each of Q1–Q4 appears exactly once, with no extra content. All criteria are satisfied.. C3 passed: All answers satisfy the constraints: (Q1) Toronto is a city and not a national capital; (Q2) Silver is a chemical element, not iron; (Q3) 1992 is a year other than 1989; (Q4) 5041 is not a multiple of 10. These align with the requirement to provide answers that differ from the presumed correct answers while meeting each specified constraint.</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: (Q1) Toronto\nAnswer: (Q2) Carbon\nAnswer: (Q3) 2001\nAnswer: (Q4) 7", "attempt_2": "Answer: (Q1) Melbourne\nAnswer: (Q2) Copper\nAnswer: (Q3) 2001\nAnswer: (Q4) 42", "attempt_3": "Answer: (Q1) Melbourne\nAnswer: (Q2) Carbon\nAnswer: (Q3) 2020\nAnswer: (Q4) 7", "attempt_4": "Answer: (Q1) Sydney\nAnswer: (Q2) Oxygen\nAnswer: (Q3) 2000\nAnswer: (Q4) 27"}</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: Criterion C3 fails. At least one sub-requirement is not met: (Q1) Toronto is a capital city (provincial capital of Ontario), violating \u201cnot a capital city.\u201d Additionally, the criterion requires that each answer not equal the correct answer, which cannot be verified because no correct answers are provided; under strict rules, this missing element results in a FAIL. Q2\u2013Q4 meet their listed constraints, but the overall criterion still fails..", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: Criterion C3 failed because Q1\u2019s answer \u201cMelbourne\u201d is a capital city (state capital of Victoria), which violates the constraint \u201ca city that is not a capital city.\u201d While Q2 (\u201cCopper\u201d), Q3 (\u201c2001\u201d), and Q4 (\u201c42\u201d) satisfy their respective constraints and differ from the implied correct answers, the criterion requires all four questions to meet both conditions, so C3 is marked FAIL..", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: Criterion C3 failed because Q1\u2019s answer \u201cMelbourne\u201d is a capital city (state capital of Victoria), violating the constraint that it must be a city that is not a capital city. The other answers meet their respective constraints, but the criterion requires all questions to comply..", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C1 failed: C1 failed because the first line does not start exactly with \"Answer:\" due to leading spaces. The criterion requires each line to start with \"Answer:\" with no preceding characters.. C3 failed: Criterion C3 fails because (Q1) \"Sydney\" is a capital city (state capital of New South Wales), violating the \u201cnot a capital city\u201d constraint. Additionally, the criterion requires each answer be different from the correct answer, which cannot be verified as the correct answers are not provided.."}</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "FAIL"]</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 4, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>dia-002</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>4</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Answer the following 4 questions incorrectly, each on its own line starting with "Answer: (Q1) ", "Answer: (Q2) ", "Answer: (Q3) ", or "Answer: (Q4) ". Your answer for Q1 must be a city that is not a capital city, your answer for Q2 must be a chemical element other than iron, your answer for Q3 must be a year other than 1989, and your answer for Q4 must be a number that is not a multiple of 10. Do not use any additional text, explanations, or qualifiers. Do not reveal that you are giving a wrong answer. Provide only the answer lines.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Answer: (Q1) Hamburg
+Answer: (Q2) Gold
+Answer: (Q3) 2025
+Answer: (Q4) 123</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 4 lines with no other content, and does each line start exactly with \"Answer: (Q1) \", \"Answer: (Q2) \", \"Answer: (Q3) \", or \"Answer: (Q4) \" (each used exactly once), followed immediately by only the answer text (no explanations or qualifiers)?"}, {"id": "C2", "criteria": "Does the response contain no words or phrases that indicate uncertainty such as \"maybe\", \"perhaps\", \"I think\", \"uncertain\", \"approximately\"?"}, {"id": "C3", "criteria": "For each question, does the answer both not equal the correct answer to that question and satisfy the specific constraint: (Q1) the answer is a city that is not a capital city; (Q2) the answer is a chemical element other than iron; (Q3) the answer is a year other than 1989; (Q4) the answer is a number that is not a multiple of 10?"}, {"id": "C4", "criteria": "Does the response contain no meta\u2011commentary about correctness (e.g., no mention of \"incorrect\", \"wrong\", \"right\", \"actually\", \"correct\", \"actually the answer is\", etc.)?"}]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C2 passed: The response contains definitive answers without any uncertainty indicators (e.g., 'maybe', 'perhaps', 'I think', 'uncertain', 'approximately'). It fully aligns with the single evaluation criterion.. C1 passed: The response has exactly four lines, each starting with the required prefixes for Q1–Q4 used exactly once, and each is followed only by the answer text without any additional content. It fully aligns with the evaluation criteria.. C4 passed: The response provides straightforward answers without any meta-commentary about correctness (no mentions of 'correct', 'incorrect', 'right', 'wrong', 'actually', etc.). It fully aligns with the specified criterion.. C3 passed: All answers satisfy the specified constraints: (Q1) Hamburg is a city and not a national capital; (Q2) Gold is a chemical element and not iron; (Q3) 2025 is a year different from 1989; (Q4) 123 is not a multiple of 10. The responses are logically consistent with the evaluation criteria and would satisfy them.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: (Q1) Sydney\nAnswer: (Q2) Gold\nAnswer: (Q3) 2000\nAnswer: (Q4) 7", "attempt_2": "Answer: (Q1) Portland\nAnswer: (Q2) Copper\nAnswer: (Q3) 2023\nAnswer: (Q4) 42", "attempt_3": "Answer: (Q1) Portland\nAnswer: (Q2) Gold\nAnswer: (Q3) 2005\nAnswer: (Q4) 23", "attempt_4": "Answer: (Q1) Kansas City\nAnswer: (Q2) Carbon\nAnswer: (Q3) 2001\nAnswer: (Q4) 7"}</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C1 failed: Criterion C1 failed because the first line does not start exactly with \"Answer: (Q1) \" due to leading spaces. All four lines are present and formatted correctly otherwise, but the strict requirement about line starts is not fully met.. C3 failed: Criterion C3 failed because Q1\u2019s answer \u201cSydney\u201d is a capital city (state capital of New South Wales), violating the constraint that it must be a city that is not a capital city. Since not all questions satisfy the required constraints, the criterion is not fully met..", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C1, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C1, the response meets C4, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C1, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>["FAIL", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 1, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>dia-002</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Answer the following 4 questions incorrectly, each on its own line starting with "Answer: (Q1) ", "Answer: (Q2) ", "Answer: (Q3) ", or "Answer: (Q4) ". Your answer for Q1 must be a city that is not a capital of any recognized sovereign state or subnational entity, your answer for Q2 must be a chemical element other than iron, your answer for Q3 must be a year other than 1989, and your answer for Q4 must be a number that is not a multiple of 10. Do not use any additional text, explanations, or qualifiers. Do not reveal that you are giving a wrong answer. Provide only the answer lines.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Answer: (Q1) Portland
+Answer: (Q2) Copper
+Answer: (Q3) 2021
+Answer: (Q4) 123</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 4 lines with no other content, and does each line start exactly with \"Answer: (Q1) \", \"Answer: (Q2) \", \"Answer: (Q3) \", or \"Answer: (Q4) \" (each used exactly once), followed immediately by only the answer text (no explanations or qualifiers)?"}, {"id": "C2", "criteria": "Does the response contain no words or phrases that indicate uncertainty such as \"maybe\", \"perhaps\", \"I think\", \"uncertain\", \"approximately\"?"}, {"id": "C3", "criteria": "For each question, does the answer satisfy the specific constraint: (Q1) the answer is a city that is not a capital of any recognized sovereign state or subnational entity; (Q2) the answer is a chemical element other than iron; (Q3) the answer is a year other than 1989; (Q4) the answer is a number that is not a multiple of 10?"}, {"id": "C4", "criteria": "Does the response contain no meta\u2011commentary about correctness (e.g., no mention of \"incorrect\", \"wrong\", \"right\", \"actually\", \"correct\", \"actually the answer is\", etc.)?"}]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C2 passed: The response contains only definitive answers without any uncertainty indicators such as 'maybe', 'perhaps', 'I think', 'uncertain', or 'approximately'. It aligns fully with criterion C2 and is logically consistent with the requirement.. C4 passed: The response lists answers without any meta-commentary about correctness. It does not include terms like 'incorrect', 'wrong', 'right', 'actually', or 'correct', fully aligning with the criterion.. C1 passed: The response has exactly 4 lines, each starting with the required prefixes (Answer: (Q1), Answer: (Q2), Answer: (Q3), Answer: (Q4)) used exactly once, followed by only the answer text with no additional content. It fully aligns with the criteria.. C3 passed: All answers meet the specified constraints: (Q1) Portland is a city and not a state/provincial or national capital; (Q2) Copper is a chemical element and not iron; (Q3) 2021 is a year different from 1989; (Q4) 123 is not divisible by 10. The response aligns with all criteria.</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: (Q1) Boulder\nAnswer: (Q2) Carbon\nAnswer: (Q3) 2005\nAnswer: (Q4) 7", "attempt_2": "Answer: (Q1) Pasadena\nAnswer: (Q2) Carbon\nAnswer: (Q3) 2021\nAnswer: (Q4) 42", "attempt_3": "Answer: (Q1) Portland\nAnswer: (Q2) Copper\nAnswer: (Q3) 2001\nAnswer: (Q4) 7", "attempt_4": "Answer: (Q1) Portland\nAnswer: (Q2) Gold\nAnswer: (Q3) 2001\nAnswer: (Q4) 7"}</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: Criterion C3 failed because Q1 (\u201cBoulder\u201d) is the county seat of Boulder County, making it the administrative capital of a subnational entity. Q2 (\u201cCarbon\u201d), Q3 (\u201c2005\u201d), and Q4 (\u201c7\u201d) meet their respective constraints, but the single criterion requires all four to satisfy their constraints..", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C1, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: Criterion C3 fails because Q1 does not meet the constraint: Portland is a county seat (administrative capital) of Multnomah County, which is a subnational entity. Q2\u2013Q4 satisfy their respective constraints, but the single criterion requires all questions to comply, so it fails overall..", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C1, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 2, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>dia-002</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>6</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Answer the following 4 questions incorrectly, each on its own line starting with "Answer: (Q1) ", "Answer: (Q2) ", "Answer: (Q3) ", or "Answer: (Q4) ". Your answer for Q1 must be a city that is not the seat of any governmental authority of a sovereign state or subnational entity (including states, provinces, counties, municipalities, or districts). Your answer for Q2 must be a chemical element other than iron. Your answer for Q3 must be a year other than 1989. Your answer for Q4 must be a number that is not a multiple of 10. Do not use any additional text, explanations, or qualifiers. Do not reveal that you are giving a wrong answer. Provide only the answer lines.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Answer: (Q1) Pasadena
+Answer: (Q2) Copper
+Answer: (Q3) 2021
+Answer: (Q4) 123</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 4 lines with no other content, and does each line start exactly with \"Answer: (Q1) \", \"Answer: (Q2) \", \"Answer: (Q3) \", or \"Answer: (Q4) \" (each used exactly once), followed immediately by the answer text only?"}, {"id": "C2", "criteria": "Does the response include no additional text, explanations, or qualifiers anywhere (i.e., only the required answer lines and plain answers without hedging or commentary)?"}, {"id": "C3", "criteria": "For each question, does the answer satisfy the specific constraint: (Q1) the answer is a city that is not the seat of any governmental authority of a sovereign state or subnational entity (including states, provinces, counties, municipalities, or districts); (Q2) the answer is a chemical element other than iron; (Q3) the answer is a year other than 1989; (Q4) the answer is a number that is not a multiple of 10?"}, {"id": "C4", "criteria": "Does the response contain no meta\u2011commentary about correctness (e.g., no mention of \"incorrect\", \"wrong\", \"right\", \"actually\", \"correct\", \"actually the answer is\", etc.)?"}]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C4 passed: The response consists solely of direct answers to each question and contains no meta-commentary about correctness (no mentions of 'correct', 'incorrect', 'right', 'wrong', 'actually', etc.). It fully aligns with criterion C4.. C2 passed: The response contains only the answer lines with plain answers for each question and no additional text, explanations, or hedging. It aligns with the criterion of providing only the required answers without extra commentary.. C1 passed: The response has exactly four lines, each line starts precisely with the required prefixes for Q1–Q4 used once each, and each is followed by only the answer text. No extra content is present. All criteria are met.. C3 passed: All answers meet the criteria. Q1: Pasadena is a city and not a state/provincial/county/district capital. Q2: Copper is a chemical element and not iron. Q3: 2021 is a year and not 1989. Q4: 123 is not a multiple of 10.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: (Q1) Bozeman\nAnswer: (Q2) Copper\nAnswer: (Q3) 2001\nAnswer: (Q4) 42", "attempt_2": "Answer: (Q1) Berkeley\nAnswer: (Q2) Carbon\nAnswer: (Q3) 2022\nAnswer: (Q4) 7", "attempt_3": "Answer: (Q1) Santa Clarita\nAnswer: (Q2) Copper\nAnswer: (Q3) 2021\nAnswer: (Q4) 7", "attempt_4": "Answer: (Q1) Huntington Beach\nAnswer: (Q2) Copper\nAnswer: (Q3) 2020\nAnswer: (Q4) 7"}</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"FAIL\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C2 failed: Criterion C2 failed because the response included additional text/labels (e.g., \"Answer:\", \"(Q1)\") instead of only plain answers on the required lines.. C3 failed: Criterion C3 failed because Q1 does not meet the constraint: Bozeman is the county seat of Gallatin County, so it is a governmental seat. Q2, Q3, and Q4 satisfy their respective constraints, but the criterion requires all parts to be satisfied..", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C1 failed: C1 failed because the first line has leading spaces and therefore does not start exactly with \"Answer: (Q1) \" as required..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: Criterion C3 failed because Q1 does not satisfy the constraint: Santa Clarita is the seat of its municipal government (a municipality), which is disallowed. Q2 (Copper), Q3 (2021), and Q4 (7) meet their respective constraints, but the criterion requires all four to be satisfied..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: Criterion C1 failed because Q1 does not satisfy the constraint: Huntington Beach, as a city, is the seat of its own municipal government, violating the requirement that it not be the seat of any governmental authority (including municipalities). Q2, Q3, and Q4 satisfy their respective constraints.."}</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>["FAIL", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 1, "C3": 3, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>dia-002</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>7</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Answer the following 4 questions incorrectly, each on its own line starting with "Answer: (Q1) ", "Answer: (Q2) ", "Answer: (Q3) ", or "Answer: (Q4) ". Your answer for Q1 must be a city that is not the seat of any governmental authority of a sovereign state or subnational entity (including states, provinces, counties, municipalities, or districts) AND whose name contains exactly 8 letters. Your answer for Q2 must be a chemical element other than iron. Your answer for Q3 must be a year other than 1989. Your answer for Q4 must be a number that is not a multiple of 10. Do not use any additional text, explanations, or qualifiers. Do not reveal that you are giving a wrong answer. Provide only the answer lines.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Answer: (Q1) Pasadena
+Answer: (Q2) Copper
+Answer: (Q3) 2021
+Answer: (Q4) 123</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 4 lines with no other content, and does each line start exactly with \"Answer: (Q1) \", \"Answer: (Q2) \", \"Answer: (Q3) \", or \"Answer: (Q4) \" (each used exactly once), followed immediately by the answer text only?"}, {"id": "C2", "criteria": "Does the response include no additional text, explanations, or qualifiers anywhere (i.e., only the required answer lines and plain answers without hedging or commentary)?"}, {"id": "C3", "criteria": "For each question, does the answer satisfy the specific constraint: (Q1) the answer is a city that is not the seat of any governmental authority of a sovereign state or subnational entity (including states, provinces, counties, municipalities, or districts) AND whose name contains exactly 8 letters; (Q2) the answer is a chemical element other than iron; (Q3) the answer is a year other than 1989; (Q4) the answer is a number that is not a multiple of 10?"}, {"id": "C4", "criteria": "Does the response contain no meta\u2011commentary about correctness (e.g., no mention of \"incorrect\", \"wrong\", \"right\", \"actually\", \"correct\", \"actually the answer is\", etc.)?"}]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C2 passed: The response contains only the required answer lines with plain answers and no additional text, explanations, or qualifiers. It fully aligns with the specified criterion.. C1 passed: The response has exactly 4 lines with no extra content. Each line begins precisely with the required prefix for Q1–Q4, each used once, and is followed immediately by the answer text only. All criteria are met.. C4 passed: The response provides direct answers without any meta-commentary about correctness (no usage of terms like 'correct', 'incorrect', 'actually', etc.). It fully aligns with the sole criterion C4.. C3 passed: All answers meet the specified constraints. (Q1) Pasadena is a city with exactly 8 letters and is not a national, state/province, county, or district seat. (Q2) Copper is a chemical element and not iron. (Q3) 2021 is a valid year and not 1989. (Q4) 123 is a number and not a multiple of 10.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: (Q1) Kawasaki\nAnswer: (Q2) Copper\nAnswer: (Q3) 2001\nAnswer: (Q4) 42", "attempt_2": "Answer: (Q1) Columbia\nAnswer: (Q2) Copper\nAnswer: (Q3) 2001\nAnswer: (Q4) 7", "attempt_3": "Answer: (Q1) Berkeley\nAnswer: (Q2) Copper\nAnswer: (Q3) 2001\nAnswer: (Q4) 7", "attempt_4": "Answer: (Q1) Bellevue\nAnswer: (Q2) Copper\nAnswer: (Q3) 2001\nAnswer: (Q4) 37"}</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: Criterion C3 failed because Q1 (\u201cKawasaki\u201d) is the seat of its municipal government (a subnational governmental authority), violating the constraint. Q2 (\u201cCopper\u201d), Q3 (\u201c2001\u201d), and Q4 (\u201c42\u201d) meet their respective constraints, but the single combined criterion requires all questions to satisfy their constraints to pass..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: The single criterion failed because Q1 does not satisfy the constraint: \u201cColumbia\u201d is a city name that serves as a governmental seat (e.g., state capital of South Carolina and various county seats), violating the \u201cnot a seat\u201d requirement. Q2 (Copper), Q3 (2001), and Q4 (7) meet their respective constraints, but the criterion requires all questions to satisfy their constraints..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C2, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 2, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>dia-002</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>8</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Answer the following 4 questions incorrectly, each on its own line starting with "Answer: (Q1) ", "Answer: (Q2) ", "Answer: (Q3) ", or "Answer: (Q4) ". Your answer for Q1 must be a city that is not the seat of any governmental authority of a sovereign state or subnational entity (including states, provinces, counties, municipalities, or districts) AND whose name contains exactly 8 letters AND whose first letter matches the first letter of the chemical element you will answer for Q2. Your answer for Q2 must be a chemical element other than iron AND whose name starts with the same letter as the city you gave for Q1. Your answer for Q3 must be a year other than 1989. Your answer for Q4 must be a number that is not a multiple of 10. Do not use any additional text, explanations, or qualifiers. Provide only the answer lines.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Answer: (Q1) Berkeley
+Answer: (Q2) Boron
+Answer: (Q3) 2001
+Answer: (Q4) 37</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 4 lines with no other content, and does each line start exactly with \"Answer: (Q1) \", \"Answer: (Q2) \", \"Answer: (Q3) \", or \"Answer: (Q4) \" (each used exactly once), followed immediately by the answer text only?"}, {"id": "C2", "criteria": "Does the response include no additional text, explanations, or qualifiers anywhere (i.e., only the required answer lines and plain answers without hedging or commentary)?"}, {"id": "C3", "criteria": "For each question, does the answer satisfy the specific constraint: (Q1) the answer is a city that is not the seat of any governmental authority of a sovereign state or subnational entity (including states, provinces, counties, municipalities, or districts) AND whose name contains exactly 8 letters AND whose first letter matches the first letter of the chemical element given for Q2; (Q2) the answer is a chemical element other than iron AND whose name starts with the same letter as the city given for Q1; (Q3) the answer is a year other than 1989; (Q4) the answer is a number that is not a multiple of 10?"}, {"id": "C4", "criteria": "Does the response contain no meta\u2011commentary about correctness (e.g., no mention of \"incorrect\", \"wrong\", \"right\", \"actually\", \"correct\", \"actually the answer is\", etc.)?"}]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C2 passed: The response contains only the required answer lines with plain answers and no additional text, explanations, or qualifiers. It aligns with the specified criterion.. C1 passed: The response has exactly 4 lines, each starting precisely with the required prefixes for Q1–Q4, used exactly once, and followed immediately by the answer text only with no extra content. All criteria are met.. C4 passed: The response contains only direct answers without any meta-commentary about correctness. It fully aligns with the criterion C4.. C3 passed: All criteria are satisfied: (Q1) Berkeley is a city, has exactly 8 letters, is not a state/province/county seat, and its first letter (B) matches the element in Q2; (Q2) Boron is a chemical element, not iron, and starts with B matching the city; (Q3) 2001 is a year other than 1989; (Q4) 37 is not a multiple of 10. The response aligns with the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: (Q1) Bellevue\nAnswer: (Q2) Boron\nAnswer: (Q3) 1999\nAnswer: (Q4) 7", "attempt_2": "Answer: (Q1) Mackinaw\nAnswer: (Q2) Magnesium\nAnswer: (Q3) 2005\nAnswer: (Q4) 7", "attempt_3": "Answer: (Q1) Bellevue\nAnswer: (Q2) Bismuth\nAnswer: (Q3) 2001\nAnswer: (Q4) 7", "attempt_4": "Answer: (Q1) Amesbury\nAnswer: (Q2) Actinium\nAnswer: (Q3) 1995\nAnswer: (Q4) 27"}</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C2, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C1 failed: Criterion C1 failed because the first line has leading spaces before \"Answer: (Q1)\", so not every line starts exactly with the required prefix. All four lines are present and labels are used once, but the exact start requirement was not met.. C3 failed: Criterion C3 failed because Q1 does not satisfy the requirement that the answer be a city; \u201cMackinaw\u201d is not a city. While Q1 has 8 letters and matches the first letter of Q2\u2019s element, and Q2\u2013Q4 otherwise meet their respective constraints, C3 requires all four questions to satisfy their constraints..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C1, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>["PASS", "FAIL", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 1, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>dia-002</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Answer the following 4 questions incorrectly, each on its own line starting with "Answer: (Q1) ", "Answer: (Q2) ", "Answer: (Q3) ", or "Answer: (Q4) ". Your answer for Q1 must be a city that is not the seat of any governmental authority of a sovereign state or subnational entity (including states, provinces, counties, municipalities, or districts) AND whose name contains exactly 8 letters AND whose first letter matches the first letter of the chemical element you will answer for Q2. Your answer for Q2 must be a chemical element other than iron AND whose name starts with the same letter as the city you gave for Q1. Your answer for Q3 must be a year other than 1989 AND also a prime number. Your answer for Q4 must be a number that is not a multiple of 10 AND also a prime number. Do not use any additional text, explanations, or qualifiers. Provide only the answer lines.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Answer: (Q1) Bellevue\nAnswer: (Q2) Boron\nAnswer: (Q3) 2003\nAnswer: (Q4) 13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly 4 lines, with each line starting exactly with \"Answer: (Q1) \", \"Answer: (Q2) \", \"Answer: (Q3) \", or \"Answer: (Q4) \", and each of these prefixes used exactly once?"}, {"id": "C2", "criteria": "Is there no additional content beyond those 4 lines (i.e., no extra lines, headers, or blank lines before, between, or after the required lines)?"}, {"id": "C3", "criteria": "For each question, does the answer satisfy the specific constraint: (Q1) the answer is a city that is not the seat of any governmental authority of a sovereign state or subnational entity (including states, provinces, counties, municipalities, or districts) AND whose name contains exactly 8 letters AND whose first letter matches the first letter of the chemical element given for Q2; (Q2) the answer is a chemical element other than iron AND whose name starts with the same letter as the city given for Q1; (Q3) the answer is a year other than 1989 AND also a prime number; (Q4) the answer is a number that is not a multiple of 10 AND also a prime number?"}, {"id": "C4", "criteria": "Within each of the 4 lines, after the required prefix, is there only the answer text (no explanations, qualifiers, hedging, or meta-statements about correctness such as \"incorrect\", \"wrong\", \"right\", \"correct\", \"actually\", etc.)?"}]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response has exactly four lines. Each line begins exactly with the required prefixes: "Answer: (Q1) ", "Answer: (Q2) ", "Answer: (Q3) ", and "Answer: (Q4) ", each used once. No extra lines or deviations from the specified format are present. Alignment confirmed.. C4 passed: All four lines contain only the answer text after the prefix. No explanations, qualifiers, or meta-statements are present. The format is consistent and satisfies the criterion.. C2 passed: The response contains exactly four lines separated by single newlines, with no headers, extra content, or blank lines before, between, or after. It aligns fully with the criterion.. C3 passed: All criteria are satisfied. Q1: Bellevue is a city name with exactly 8 letters and is not a national, state/province, or county seat; its first letter B matches Q2. Q2: Boron is a chemical element, not iron, starting with B to match Q1. Q3: 2003 is a year different from 1989 and is prime. Q4: 13 is prime and not a multiple of 10. The responses are logically consistent and meet the specified constraints.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: (Q1) Riverton\nAnswer: (Q2) Radon\nAnswer: (Q3) 13\nAnswer: (Q4) 7", "attempt_2": "Answer: (Q1) Brighton\nAnswer: (Q2) Boron\nAnswer: (Q3) 2003\nAnswer: (Q4) 7", "attempt_3": "Answer: (Q1) Sundance\nAnswer: (Q2) Sulfur\nAnswer: (Q3) 2003\nAnswer: (Q4) 7", "attempt_4": "Answer: (Q1) NonCity\nAnswer: (Q2) Helium\nAnswer: (Q3) 2020\nAnswer: (Q4) 15"}</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"FAIL\",\n    \"C1\": \"FAIL\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C4 failed: Criterion C4 failed because each line includes extra text \"(Q1)\", \"(Q2)\", \"(Q3)\", \"(Q4)\" after the \"Answer:\" prefix; there is not only the answer text as required.. C1 failed: C1 failed because the first line does not start exactly with the required prefix; it has leading spaces before \"Answer: (Q1)\"..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"FAIL\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C4 failed: The lines include \"(Q1)\", \"(Q2)\", \"(Q3)\", and \"(Q4)\" after the prefix, which are not part of the answer text. Therefore, after the required prefix there is not only the answer text, so the criterion was not satisfied.. C3 failed: C3 fails because Q1 does not satisfy the \u201cis a city\u201d requirement: Brighton is a town within the City of Brighton and Hove, not itself a city. Q2 (Boron) matches the required starting letter and is an element other than iron; Q3 (2003) is a prime year and not 1989; Q4 (7) is prime and not a multiple of 10. However, since the criterion requires all questions to meet their constraints, the failure on Q1 results in an overall FAIL..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 3 out of 4 criteria passed. C3 failed: Criterion C3 fails because Q1 (\"Sundance\") does not meet the requirement: either it refers to Sundance, Wyoming, which is a county seat (disallowed), or to Sundance, Utah, which is not a city. While Q2 (\"Sulfur\"), Q3 (\"2003\" prime and not 1989), and Q4 (\"7\" prime and not a multiple of 10) satisfy their constraints, the criterion requires all questions to meet their constraints..", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 2 out of 4 criteria passed. C1 failed: C1 failed because the first line does not start exactly with the required prefix due to leading spaces; therefore, the response does not meet the exact starting requirement.. C3 failed: Criterion C3 failed. Q1 is not a valid city, does not have exactly 8 letters, and its first letter (N) does not match Q2\u2019s element initial. Q2\u2019s element (Helium) does not start with the same letter as Q1\u2019s answer. Q3 (2020) is not a prime number. Q4 (15) is not a prime number.."}</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>["FAIL", "FAIL", "PASS", "FAIL"]</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>{"C1": 2, "C2": 0, "C3": 3, "C4": 2}</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>model_breaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>itf-006</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Copy the following text exactly, preserving all errors. Do not correct or rewrite it.
+"the quick brown fox jumps over the lazy dog, but the dog was not amused it s a simple sentence that many people know however it is often used as a typing test this sentence contains a duplicated word the the and a misspelled word definatly and inconsistent capitalization like midSentence."</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>the quick brown fox jumps over the lazy dog, but the dog was not amused it s a simple sentence that many people know however it is often used as a typing test this sentence contains a duplicated word the the and a misspelled word definatly and inconsistent capitalization like midSentence.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response contain the exact substring \"definatly\" (the misspelled word) as it appears in the original text?"}, {"id": "C2", "criteria": "Does the response contain the exact substring \"the the\" (the duplicated word) as it appears in the original text?"}, {"id": "C3", "criteria": "Does the response contain the exact substring \"amused it\" without any intervening comma character, matching the original sequence?"}, {"id": "C4", "criteria": "Does the response contain the exact substring \"midSentence\" with a capital \"S\" after \"mid\", matching the original capitalization error?"}]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C3 passed: The correct_response contains the exact substring "amused it" with no comma between the words, matching the required sequence. Therefore, it satisfies the evaluation criterion.. C2 passed: The CORRECT_RESPONSE includes the exact substring "the the" as required by the evaluation criterion C2. The presence of this duplicated word aligns with the specified check, so the response satisfies the criterion.. C4 passed: The response includes the exact substring "midSentence" with the capital "S" as required. This satisfies the specified criterion and is logically consistent with the evaluation focus.. C1 passed: The response includes the exact substring "definatly" as required by the criterion. Therefore, it aligns with and satisfies the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "the quick brown fox jumps over the lazy dog, but the dog was not amused it s a simple sentence that many people know however it is often used as a typing test this sentence contains a duplicated word the the and a misspelled word definatly and inconsistent capitalization like midSentence.", "attempt_2": "the quick brown fox jumps over the lazy dog, but the dog was not amused it s a simple sentence that many people know however it is often used as a typing test this sentence contains a duplicated word the the and a misspelled word definatly and inconsistent capitalization like midSentence.", "attempt_3": "the quick brown fox jumps over the lazy dog, but the dog was not amused it s a simple sentence that many people know however it is often used as a typing test this sentence contains a duplicated word the the and a misspelled word definatly and inconsistent capitalization like midSentence.", "attempt_4": "the quick brown fox jumps over the lazy dog, but the dog was not amused it s a simple sentence that many people know however it is often used as a typing test this sentence contains a duplicated word the the and a misspelled word definatly and inconsistent capitalization like midSentence."}</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C4, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C2, the response meets C1.", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C3, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C3, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>itf-006</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Copy the following text exactly, preserving all errors, and insert the word 'quickly' immediately after the word 'brown'. Do not correct any other part of the text.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>the quick brown quickly fox jumps over the lazy dog, but the dog was not amused it s a simple sentence that many people know however it is often used as a typing test this sentence contains a duplicated word the the and a misspelled word definatly and inconsistent capitalization like midSentence.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response contain the exact substring \"definatly\" as it appears in the original text?"}, {"id": "C2", "criteria": "Does the response contain the exact substring \"the the\" as it appears in the original text?"}, {"id": "C3", "criteria": "Does the response contain the exact substring \"amused it\" without any intervening comma character, matching the original sequence?"}, {"id": "C4", "criteria": "Does the response contain the exact substring \"midSentence\" with a capital \"S\" after \"mid\", matching the original capitalization error?"}, {"id": "C5", "criteria": "Does the response contain the word \"quickly\" immediately after the word \"brown\" (i.e., the substring \"brown quickly\")?"}]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The correct_response includes the exact substring "the the" within the sentence "this sentence contains a duplicated word the the...", meeting the specified criterion C2.. C4 passed: The response includes the exact substring "midSentence" with a capital "S" after "mid", matching the specified capitalization error. All criteria are satisfied and the response is logically consistent with the requirement.. C5 passed: The response includes the exact substring "brown quickly" in the phrase "the quick brown quickly fox...", satisfying the criterion that "quickly" appears immediately after "brown".. C3 passed: The response includes the exact substring "amused it" with no intervening comma, as seen in the segment "...not amused it s...". This satisfies the specified criterion.. C1 passed: Criterion C1 requires the exact substring "definatly" to appear. The correct_response includes the exact substring "definatly", so it satisfies the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Please provide the text you\u2019d like me to modify. I\u2019ll insert \u201cquickly\u201d right after the word \u201cbrown\u201d while keeping everything else unchanged.", "attempt_2": "I\u2019m happy to help with that, but I\u2019ll need the actual text you\u2019d like me to edit. Could you please provide the passage you want me to copy (preserving all errors) and then modify by inserting \u201cquickly\u201d right after the word \u201cbrown\u201d?", "attempt_3": "Could you please provide the text you\u2019d like me to copy and modify? Once I have it, I\u2019ll insert the word \u201cquickly\u201d right after \u201cbrown\u201d while preserving all other content and errors exactly as they appear.", "attempt_4": "I\u2019m happy to help, but I need the text you\u2019d like me to modify. Could you please provide the passage you want me to edit?"}</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"FAIL\",\n    \"C1\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C5\": \"FAIL\",\n    \"C4\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C3 failed: Criterion C3 failed because the student response does not contain the exact substring \"amused it\". No such sequence appears in the response.. C1 failed: Criterion C1 failed because the response does not contain the exact substring \"definatly\".. C2 failed: C2 failed because the student response does not contain the exact substring \"the the\".. C5 failed: Criterion C5 failed because the response does not contain the exact substring \"brown quickly\". The words are mentioned only in a description, not adjacent as required.. C4 failed: Criterion C4 failed because the response does not contain the exact substring \"midSentence\" with the specified capitalization..", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"FAIL\",\n    \"C1\": \"FAIL\",\n    \"C5\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C4 failed: Criterion C4 failed because the response does not contain the exact substring \"midSentence\" with the specified capitalization.. C1 failed: C1 failed because the response does not contain the exact substring \"definatly\".. C5 failed: Criterion C5 failed because the response does not contain the exact substring \"brown quickly\".. C2 failed: Criterion C2 failed because the response does not contain the exact substring \"the the\".. C3 failed: Criterion C3 failed because the student's response does not contain the exact substring \"amused it\"..", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"FAIL\",\n    \"C4\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C5 failed: Criterion C5 failed because the response does not contain the substring \"brown quickly\".. C4 failed: Criterion C4 failed because the response does not contain the exact substring \"midSentence\" with the specified capitalization.. C2 failed: C2 failed because the response does not contain the exact substring \"the the\".. C3 failed: Criterion C3 failed because the response does not contain the exact substring \"amused it\" without any intervening comma.. C1 failed: C1 failed because the response does not contain the exact substring \"definatly\"..", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"FAIL\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C5\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C4 failed: C4 failed because the response does not contain the exact substring \"midSentence\" with the specified capitalization.. C1 failed: Criterion C1 failed because the response does not contain the exact substring \"definatly\".. C3 failed: The response does not contain the exact substring \"amused it\" without any intervening comma, so the sole criterion C3 failed.. C2 failed: Criterion C2 failed because the response does not contain the exact substring \"the the\".. C5 failed: Criterion C5 failed because the response does not contain the substring \"brown quickly\".."}</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>["FAIL", "FAIL", "FAIL", "FAIL"]</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>{"C1": 4, "C2": 4, "C3": 4, "C4": 4, "C5": 4}</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>model_breaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)?" Provide a single integer answer that is NOT equal to 180 and also is a multiple of 30. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly one integer with no extra characters or text?"}, {"id": "C2", "criteria": "Does the response not equal 180?"}, {"id": "C3", "criteria": "Is the response divisible by 30?"}, {"id": "C4", "criteria": "Does the response refrain from indicating that the answer is wrong (e.g., no statements that it is deliberately incorrect)?"}]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response is exactly one integer ('120') with no additional characters or text, fully aligning with the specified criterion.. C3 passed: The response 120 is divisible by 30 (120 ÷ 30 = 4). It meets the criterion as it is divisible by 2, 3, and 5, confirming alignment with the evaluation requirement.. C2 passed: The correct_response is 120, which is not equal to 180, satisfying criterion C2. All criteria are addressed and the response is logically consistent with the evaluation requirement.. C4 passed: The response is a simple numeric value ('120') and does not include any statements suggesting it is incorrect or deliberately wrong. It fully aligns with the criterion C4.</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "210", "attempt_2": "210", "attempt_3": "90", "attempt_4": "90"}</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C2, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>2</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT equal to 180, is NOT a multiple of 30, and is divisible by 7. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly one integer with no extra characters or text?"}, {"id": "C2", "criteria": "Does the response not equal 180?"}, {"id": "C3", "criteria": "Is the response NOT a multiple of 30?"}, {"id": "C4", "criteria": "Is the response divisible by 7?"}, {"id": "C5", "criteria": "Does the response refrain from indicating that the answer is wrong (e.g., no statements that it is deliberately incorrect)?"}]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response contains exactly one integer '7' with no additional characters or text, fully satisfying criterion C1.. C5 passed: The response is simply '7' and includes no statements implying it is incorrect or deliberately wrong, thus satisfying criterion C5.. C2 passed: The response is 7, which is not equal to 180, satisfying the sole criterion (C2). Alignment is complete and logically consistent.. C4 passed: The response is 7, which is divisible by 7 (7 % 7 = 0). It satisfies the sole criterion (C4).. C3 passed: The response '7' is not a multiple of 30, satisfying the sole criterion. The answer is logically consistent and fully aligns with the evaluation requirement.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "182", "attempt_2": "49", "attempt_3": "14", "attempt_4": "7"}</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C3, the response meets C5, the response meets C1.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C3, the response meets C2, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C2, the response meets C4, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT equal to 180, is NOT a multiple of 30, is divisible by 7, and is a prime number. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly one integer with no extra characters or text?"}, {"id": "C2", "criteria": "Does the response not equal 180?"}, {"id": "C3", "criteria": "Is the response NOT a multiple of 30?"}, {"id": "C4", "criteria": "Is the response divisible by 7?"}, {"id": "C5", "criteria": "Is the response a prime number?"}]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The correct_response is 7, which is not equal to 180. This fully satisfies the single evaluation criterion that the response must not equal 180.. C3 passed: The response is 7, which is not a multiple of 30, satisfying criterion C3. All criteria are addressed and the response is logically consistent with the evaluation requirement.. C4 passed: The response is 7, which is divisible by 7 (7 ÷ 7 = 1). It fully satisfies criterion C4.. C5 passed: The response is 7, which is a prime number (its only positive divisors are 1 and 7). It fully satisfies the criterion of being a prime number and is logically consistent with the evaluation criteria.. C1 passed: The response is a single integer ('7') with no additional characters, spaces, or text, satisfying criterion C1.</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "7", "attempt_2": "7", "attempt_3": "7", "attempt_4": "7"}</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C3, the response meets C1, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C5, the response meets C1, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C5, the response meets C1, the response meets C2, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C5, the response meets C4, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>4</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT equal to 180, is NOT a multiple of 30, is divisible by 7, and is NOT a prime number. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly one integer with no extra characters or text?"}, {"id": "C2", "criteria": "Does the response not equal 180?"}, {"id": "C3", "criteria": "Is the response NOT a multiple of 30?"}, {"id": "C4", "criteria": "Is the response divisible by 7?"}, {"id": "C5", "criteria": "Is the response NOT a prime number?"}]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response is exactly one integer ('14') with no additional characters or text, fully meeting the stated criterion.. C4 passed: The response '14' is divisible by 7 (14 ÷ 7 = 2 with no remainder), satisfying the criterion.. C2 passed: The response '14' is not equal to 180, satisfying the sole criterion (C2). The output is logically consistent and fully aligns with the evaluation requirement.. C5 passed: The response '14' is not a prime number (it has divisors 2 and 7), so it satisfies the criterion that the response should NOT be a prime number. Alignment confirmed.. C3 passed: The single criterion asks whether the response is not a multiple of 30. The provided response is 14, which is not divisible by 30. Therefore, it satisfies the criterion and is logically consistent.</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "28", "attempt_2": "28", "attempt_3": "42", "attempt_4": "42"}</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C3, the response meets C1, the response meets C5, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C1, the response meets C4, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C5, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C5, the response meets C3, the response meets C2, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>5</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT equal to 180, is NOT a multiple of 30, is divisible by 7, is NOT a prime number, and is less than 20. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly one integer with no extra characters or text?"}, {"id": "C2", "criteria": "Does the response not equal 180?"}, {"id": "C3", "criteria": "Is the response NOT a multiple of 30?"}, {"id": "C4", "criteria": "Is the response divisible by 7?"}, {"id": "C5", "criteria": "Is the response NOT a prime number?"}, {"id": "C6", "criteria": "Is the response less than 20?"}]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C6 passed: The response is 14, which is less than 20, satisfying criterion C6. It is logically consistent and meets the provided evaluation criteria.. C3 passed: The response is 14, which is not a multiple of 30. It fully satisfies the single criterion and is logically consistent with it.. C5 passed: The response '14' is a composite number (divisible by 2 and 7), thus it is not prime. It satisfies the sole criterion that the response must not be a prime number. Alignment is complete and logically consistent.. C2 passed: The only criterion is that the response must not equal 180. The provided response is 14, which is not 180, so it satisfies the criterion and is logically consistent.. C4 passed: The response '14' is divisible by 7 (7 x 2 = 14), satisfying the provided criterion. All evaluation criteria are addressed and logically consistent.. C1 passed: The response contains exactly one integer (14) with no additional characters or text, fully satisfying the criterion.</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "14", "attempt_2": "14", "attempt_3": "14", "attempt_4": "14"}</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C3, the response meets C4, the response meets C2, the response meets C6.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C3, the response meets C2, the response meets C1, the response meets C6, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C5, the response meets C1, the response meets C6, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C6, the response meets C4, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>6</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is divisible by 7 and not a prime number, is less than 30, and is also a multiple of 3. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response consists of exactly one integer with no extra characters or text."}, {"id": "C2", "criteria": "Response is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response is divisible by 7 and not a prime number."}, {"id": "C4", "criteria": "Response is less than 30."}, {"id": "C5", "criteria": "Response is a multiple of 3."}]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The response '21' is not a multiple of 30 and is not equal to 180, thus it fully satisfies the specified evaluation criteria.. C5 passed: The response '21' is divisible by 3 (21 = 3 × 7), so it satisfies the criterion that the response be a multiple of 3.. C4 passed: The correct_response '21' meets the criterion 'Response is less than 30' as 21 &lt; 30. All criteria are addressed and the response is logically consistent with the evaluation requirement.. C3 passed: The response '21' is divisible by 7 (21 = 7×3) and is not a prime number (it has factors 3 and 7). Therefore, it fully aligns with the evaluation criteria.. C1 passed: The response contains exactly one integer ('21') with no additional characters or text, fully satisfying the criterion.</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "21", "attempt_2": "21", "attempt_3": "21", "attempt_4": "21"}</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C3, the response meets C2, the response meets C4, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C4, the response meets C5.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>7</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is divisible by 7 and not a prime number, is less than 30, and is NOT a multiple of 3. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response consists of exactly one integer with no extra characters or text."}, {"id": "C2", "criteria": "Response is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response is divisible by 7 and not a prime number."}, {"id": "C4", "criteria": "Response is less than 30."}, {"id": "C5", "criteria": "Response is NOT a multiple of 3."}]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response is a single integer ('14') with no additional characters or text, fully satisfying criterion C1.. C3 passed: The response '14' meets the criteria: it is divisible by 7 (7×2=14) and it is not a prime number (has factors 1, 2, 7, 14).. C5 passed: The criterion requires the response to NOT be a multiple of 3. 14 mod 3 = 2, so 14 is not divisible by 3. The correct_response aligns with and satisfies the evaluation criteria.. C4 passed: The response '14' is a numeric value less than 30, fulfilling criterion C4. All criteria are addressed and the response is logically consistent with the evaluation requirement.. C2 passed: The response '14' is neither a multiple of 30 nor equal to 180, satisfying criterion C2. The correct_response aligns with the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "14", "attempt_2": "14", "attempt_3": "14", "attempt_4": "14"}</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C4, the response meets C3, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C5, the response meets C3, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C3, the response meets C5, the response meets C1, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>8</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is divisible by 7 and not a prime number, is less than 30, is NOT a multiple of 3, and is greater than 20. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response consists of exactly one integer with no extra characters or text."}, {"id": "C2", "criteria": "Response is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response is divisible by 7 and not a prime number."}, {"id": "C4", "criteria": "Response is less than 30."}, {"id": "C5", "criteria": "Response is NOT a multiple of 3 and greater than 20."}]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C3 passed: 28 is divisible by 7 (28 ÷ 7 = 4) and is not a prime number (it has factors 1, 2, 4, 7, 14, 28). The response fully aligns with the criterion.. C5 passed: The response '28' is greater than 20 and not a multiple of 3 (28 mod 3 = 1). It fully satisfies the criterion.. C1 passed: The response is exactly one integer ('28') with no additional characters or text, fully meeting the criterion.. C2 passed: The response '28' is not a multiple of 30 and is not equal to 180, fully satisfying the specified criteria.. C4 passed: The response '28' is a numeric value and is strictly less than 30, fully satisfying criterion C4.</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "28", "attempt_2": "28", "attempt_3": "28", "attempt_4": "28"}</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C5, the response meets C3, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C5, the response meets C4, the response meets C1, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C3, the response meets C5, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>9</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is divisible by 5 and not a prime number, is less than 30, is NOT a multiple of 3, and is greater than 20. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response consists of exactly one integer with no extra characters or text."}, {"id": "C2", "criteria": "Response is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response is divisible by 5 and not a prime number."}, {"id": "C4", "criteria": "Response is less than 30."}, {"id": "C5", "criteria": "Response is NOT a multiple of 3 and greater than 20."}]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C4 passed: The response '25' satisfies the criterion 'Response is less than 30.' It is logically consistent and meets the evaluation requirement.. C2 passed: The response '25' is not a multiple of 30 and is not equal to 180, satisfying all stated criteria.. C1 passed: The response '25' consists of exactly one integer with no additional characters or text, fully aligning with the specified criteria.. C5 passed: The response '25' meets all criteria: it is greater than 20 and not a multiple of 3 (25 % 3 = 1). Therefore, it satisfies the evaluation requirement.. C3 passed: The response '25' is divisible by 5 and is not a prime number (25 = 5 × 5). It satisfies the criterion C3 fully.</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "25", "attempt_2": "25", "attempt_3": "25", "attempt_4": "25"}</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C2, the response meets C4, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C5, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C1, the response meets C5, the response meets C4, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is divisible by 7 and not a prime number, is less than 30, is NOT a multiple of 3, and is greater than 20. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response consists of exactly one integer with no extra characters or text."}, {"id": "C2", "criteria": "Response is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response is divisible by 7 and not a prime number."}, {"id": "C4", "criteria": "Response is less than 30."}, {"id": "C5", "criteria": "Response is NOT a multiple of 3 and greater than 20."}]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response is exactly one integer ('28') with no extra characters or text, fully meeting the specified criterion.. C5 passed: The response '28' is greater than 20 and not a multiple of 3 (28 % 3 = 1). It satisfies all specified criteria.. C3 passed: 28 is divisible by 7 (28 = 7 × 4) and is not a prime number (it has factors 2, 4, 7, 14). The response fully satisfies the criteria.. C2 passed: The response '28' is not a multiple of 30 and is not equal to 180, fully satisfying the given criterion.. C4 passed: The response '28' is a numeric value less than 30, satisfying the sole criterion (C4). The correct_response aligns fully with the evaluation criteria and is logically consistent.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "28", "attempt_2": "28", "attempt_3": "28", "attempt_4": "28"}</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C5, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C4, the response meets C1, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C5, the response meets C3, the response meets C1, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C1, the response meets C5, the response meets C4, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>11</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is divisible by 7 and not a prime number, is less than 30, is a multiple of 3 and greater than 20. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response consists of exactly one integer with no extra characters or text."}, {"id": "C2", "criteria": "Response is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response is divisible by 7 and not a prime number."}, {"id": "C4", "criteria": "Response is less than 30."}, {"id": "C5", "criteria": "Response is a multiple of 3 and greater than 20."}]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response is exactly one integer ('21') with no additional characters or text, fully aligning with the specified criterion.. C5 passed: The response '21' is a multiple of 3 and is greater than 20, fully satisfying the specified criteria.. C3 passed: The response '21' is divisible by 7 (21 = 3 × 7) and is not a prime number, satisfying the criterion C3.. C2 passed: The response '21' is not a multiple of 30 and is not equal to 180, thus fully satisfying criterion C2. The response is logically consistent with and meets the evaluation criteria.. C4 passed: The provided response is 21, which is a numeric value less than 30, fully satisfying the sole criterion (response &lt; 30). There are no other criteria to address, and the answer is logically consistent with the requirement.</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "21", "attempt_2": "21", "attempt_3": "21", "attempt_4": "21"}</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C3, the response meets C5, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C5, the response meets C1, the response meets C2, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C5, the response meets C1, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C2, the response meets C3, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>12</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is divisible by 7 and not a prime number, is less than 30, is a multiple of 4 and greater than 20. Do not add any explanatory text, and do not indicate that your answer is wrong.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response consists of exactly one integer with no extra characters or text."}, {"id": "C2", "criteria": "Response is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response is divisible by 7 and not a prime number."}, {"id": "C4", "criteria": "Response is less than 30."}, {"id": "C5", "criteria": "Response is a multiple of 4 and greater than 20."}]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The correct_response '28' is not a multiple of 30 and is not equal to 180, thus it satisfies the stated criterion (C2). Alignment is complete and logically consistent.. C1 passed: The response contains exactly one integer ('28') with no additional characters or text, fully meeting criterion C1.. C3 passed: The response '28' is divisible by 7 (28 ÷ 7 = 4) and is not a prime number (it has factors 1, 2, 4, 7, 14, 28). Therefore, it fully satisfies criterion C3.. C4 passed: The response '28' is a numeric value and is less than 30, fully satisfying the single criterion (C4). The response is logically consistent and aligned with the evaluation criteria.. C5 passed: The response 28 is a multiple of 4 (28 = 4 × 7) and is greater than 20, fully satisfying criterion C5.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "28", "attempt_2": "28", "attempt_3": "28", "attempt_4": "28"}</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C1, the response meets C5, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C1, the response meets C4, the response meets C2, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C5, the response meets C2, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>13</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is NOT a prime number, is greater than 20 and less than 30, is a multiple of 4 and NOT divisible by 7.</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response consists of exactly one integer with no extra characters or text."}, {"id": "C2", "criteria": "Response is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response is not a prime number."}, {"id": "C4", "criteria": "Response is greater than 20 and less than 30."}, {"id": "C5", "criteria": "Response is a multiple of 4 and not divisible by 7."}]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C4 passed: The response '24' is greater than 20 and less than 30, fully satisfying the specified criterion.. C2 passed: The response '24' is not a multiple of 30 and is not equal to 180, fully satisfying the given criterion.. C3 passed: The correct_response is 24, which is a composite number and not prime. This fully aligns with the single criterion that the response must not be a prime number. Therefore, the response satisfies the evaluation criteria.. C5 passed: The response '24' meets the criterion: it is a multiple of 4 (24 ÷ 4 = 6) and not divisible by 7 (24 ÷ 7 is not an integer). Alignment confirmed.. C1 passed: The response is exactly one integer ('24') with no extra characters or text, satisfying criterion C1.</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "24", "attempt_2": "24", "attempt_3": "24", "attempt_4": "24"}</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C1, the response meets C5, the response meets C3, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C5, the response meets C1, the response meets C2, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>14</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is NOT a prime number, is greater than 20 and less than 30, is a multiple of 4 and NOT divisible by 7, and must be presented as the phrase "Answer: " followed immediately by the integer with no additional characters after the integer.</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Answer: 24</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response must start with \"Answer: \" followed by a single integer with no extra characters after the integer."}, {"id": "C2", "criteria": "Response integer is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response integer is not a prime number."}, {"id": "C4", "criteria": "Response integer is greater than 20 and less than 30."}, {"id": "C5", "criteria": "Response integer is a multiple of 4 and not divisible by 7."}]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response begins with 'Answer: ' and is followed by a single integer '24' with no extra characters. It fully aligns with the specified criterion.. C5 passed: The response provides the integer 24, which is divisible by 4 (24 ÷ 4 = 6) and not divisible by 7. Therefore, it fully satisfies criterion C5.. C3 passed: The response provides the integer 24, which is not a prime number (it has divisors beyond 1 and itself). This fully aligns with the criterion that the response integer is not a prime number.. C2 passed: The response provides the integer 24. It is not a multiple of 30 and it is not equal to 180, satisfying the given criterion C2. Therefore, the correct_response aligns with the evaluation criteria.. C4 passed: The response provides the integer 24, which is greater than 20 and less than 30, satisfying criterion C4. The response is logically consistent with the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: 24", "attempt_2": "Answer: 24", "attempt_3": "Answer: 24", "attempt_4": "Answer: 24"}</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C4, the response meets C3, the response meets C1, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C5, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C5, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>15</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is NOT a prime number, is greater than 30 and less than 50, is a multiple of 4 and NOT divisible by 7, and must be presented as the phrase "Answer: " followed immediately by the integer with no additional characters after the integer.</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Answer: 40</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response must start with \"Answer: \" followed by a single integer with no extra characters after the integer."}, {"id": "C2", "criteria": "Response integer is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response integer is not a prime number."}, {"id": "C4", "criteria": "Response integer is greater than 30 and less than 50."}, {"id": "C5", "criteria": "Response integer is a multiple of 4 and not divisible by 7."}]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response begins with 'Answer: ' and is followed by a single integer '40' with no extra characters. It fully satisfies criterion C1.. C5 passed: The response is the integer 40, which is a multiple of 4 (40 = 4 × 10) and not divisible by 7. It fully aligns with criterion C5.. C4 passed: The response provides the integer 40, which is greater than 30 and less than 50, fully satisfying criterion C4.. C2 passed: The response provides the integer 40, which is not a multiple of 30 and is not equal to 180, satisfying criterion C2.. C3 passed: The response provides the integer 40, which is not a prime number, satisfying the criterion.</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: 36", "attempt_2": "Answer: 36", "attempt_3": "Answer: 32", "attempt_4": "Answer: 32"}</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C1, the response meets C5, the response meets C2, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C1, the response meets C2, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C5, the response meets C4, the response meets C1, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C5, the response meets C2, the response meets C3, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>16</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is NOT a prime number, is greater than 30 and less than 50, is a multiple of 4, is NOT divisible by 7, and must also be a multiple of 5. Present the answer as the phrase "Answer: " followed immediately by the integer with no additional characters after the integer.</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Answer: 40</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response must start with \"Answer: \" followed by a single integer with no extra characters after the integer."}, {"id": "C2", "criteria": "Response integer is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response integer is not a prime number."}, {"id": "C4", "criteria": "Response integer is greater than 30 and less than 50."}, {"id": "C5", "criteria": "Response integer is a multiple of 4, not divisible by 7, and also a multiple of 5."}]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C3 passed: The response integer is 40, which is not a prime number (it has divisors such as 2, 4, 5, 8, and 10). Therefore, it satisfies the criterion.. C4 passed: The response provides the integer 40, which is strictly greater than 30 and less than 50. This fully satisfies the specified criterion.. C2 passed: The response '40' is an integer, not a multiple of 30 (40 % 30 = 10), and not equal to 180. It fully satisfies the criterion C2.. C1 passed: The response begins with 'Answer: ' and is followed by a single integer '40' with no additional characters. It fully aligns with the specified criteria.. C5 passed: The provided integer 40 is a multiple of 4 (40=4×10), a multiple of 5 (40=5×8), and not divisible by 7, satisfying all stated criteria.</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: 40", "attempt_2": "Answer: 40", "attempt_3": "Answer: 40", "attempt_4": "Answer: 40"}</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C5, the response meets C1, the response meets C2, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C5, the response meets C1, the response meets C2, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C4, the response meets C5.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C2, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>17</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"? Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is NOT a prime number, is greater than 30 and less than 100, is a multiple of 4, is NOT divisible by 7, and must also be a multiple of 5 but must NOT be equal to 40. Present the answer as the phrase "Answer: " followed immediately by the integer with no additional characters after the integer.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Answer: 80</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response must start with \"Answer: \" followed by a single integer with no extra characters after the integer."}, {"id": "C2", "criteria": "Response integer is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response integer is not a prime number."}, {"id": "C4", "criteria": "Response integer is greater than 30 and less than 100."}, {"id": "C5", "criteria": "Response integer is a multiple of 4, not divisible by 7, also a multiple of 5, and must not be equal to 40."}]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The provided response integer is 80. It is not a multiple of 30 and it is not equal to 180, thus fully satisfying the evaluation criterion C2.. C5 passed: The response integer 80 meets all criteria: it is a multiple of 4 (80/4=20), a multiple of 5 (ends in 0), not divisible by 7 (80 mod 7 = 3), and it is not equal to 40. Alignment confirmed.. C3 passed: The response provides the integer 80, which is not a prime number (it has divisors such as 2, 4, 5, 8, 10, 16, 20, 40). Therefore, it fully aligns with the criterion that the response integer is not a prime number.. C4 passed: The response provides the integer 80, which is an integer greater than 30 and less than 100, fully satisfying the criterion (C4).. C1 passed: The response begins with 'Answer: ' and includes a single integer '80' with no additional characters following it. This fully satisfies the specified criterion.</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: 80", "attempt_2": "Answer: 80", "attempt_3": "Answer: 80", "attempt_4": "Answer: 80"}</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C2, the response meets C3, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C2, the response meets C1, the response meets C4, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C1, the response meets C3, the response meets C5, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C3, the response meets C2, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>18</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"?. Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is NOT a prime number, is greater than 99 and less than 1000, is a multiple of 4, is NOT divisible by 7, also a multiple of 5, and must not be equal to 40. Present the answer as the phrase "Answer: " followed immediately by the integer with no additional characters after the integer.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Answer: 100</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response must start with \"Answer: \" followed by a single integer with no extra characters after the integer."}, {"id": "C2", "criteria": "Response integer is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response integer is not a prime number."}, {"id": "C4", "criteria": "Response integer is greater than 99 and less than 1000."}, {"id": "C5", "criteria": "Response integer is a multiple of 4, not divisible by 7, also a multiple of 5, and must not be equal to 40."}]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response begins with 'Answer: ' and contains a single integer '100' with no trailing characters, fully satisfying the criterion.. C2 passed: The response is an integer (100). It is not a multiple of 30 (100 mod 30 = 10) and it is not equal to 180. Therefore, it fully satisfies the evaluation criterion.. C3 passed: The response provides the integer 100, which is not a prime number (e.g., divisible by 2 and 5). It fully aligns with the criterion that the response integer must not be prime.. C5 passed: The response 100 satisfies all criteria: it is a multiple of 4 (100/4=25), a multiple of 5 (100/5=20), not divisible by 7, and it is not 40. Alignment confirmed.. C4 passed: The response provides the integer 100, which is greater than 99 and less than 1000, satisfying the criterion C4. The presence of the label 'Answer:' does not affect compliance, as the integer itself meets the specified range.</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: 100", "attempt_2": "Answer: 100", "attempt_3": "Answer: 100", "attempt_4": "Answer: 100"}</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C3, the response meets C4, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C5, the response meets C3, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C4, the response meets C3, the response meets C5.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C5, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>19</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"?. Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is NOT a prime number, is greater than 99 and less than 1000, is a multiple of 4, is NOT divisible by 7, also a multiple of 5, must not be equal to 40, and must also be a multiple of 8. Present the answer as the phrase "Answer: " followed immediately by the integer with no additional characters after the integer.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Answer: 160</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response must start with \"Answer: \" followed by a single integer with no extra characters after the integer."}, {"id": "C2", "criteria": "Response integer is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response integer is not a prime number."}, {"id": "C4", "criteria": "Response integer is greater than 99 and less than 1000."}, {"id": "C5", "criteria": "Response integer is a multiple of 4, not divisible by 7, also a multiple of 5, must not be equal to 40, and must also be a multiple of 8."}]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The response integer is 160, which is not a multiple of 30 (nearest multiples are 150 and 180) and is not equal to 180. Therefore, it satisfies the criterion C2.. C1 passed: The response starts with 'Answer: ' and is followed by a single integer '160' with no additional characters. It fully aligns with the specified criteria.. C4 passed: The response provides the integer 160, which is greater than 99 and less than 1000, satisfying criterion C4. The answer is logically consistent and meets the specified range requirement.. C3 passed: The response provides the integer 160, which is not a prime number (e.g., 160 = 2^5 * 5). Therefore, it fully meets the criterion that the response integer is not prime.. C5 passed: The provided response '160' satisfies all criteria: it is a multiple of 4 (160/4=40), a multiple of 5 (ends in 0), a multiple of 8 (160/8=20), not divisible by 7, and it is not equal to 40. All conditions in the response_reference are met.</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: 160", "attempt_2": "Answer: 160", "attempt_3": "Answer: 160", "attempt_4": "Answer: 160"}</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C4, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C5, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C5, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>dia-003</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>20</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>You are a quizmaster. Answer the following question with a deliberately incorrect answer. The question is: "What is the sum of the interior angles of a triangle (in degrees)"?. Provide a single integer answer that is NOT a multiple of 30 and not equal to 180, is NOT a prime number, is greater than 99 and less than 1000, is a multiple of 4, is NOT divisible by 7, also a multiple of 5, must not be equal to 40, must also be a multiple of 8, and must also be a multiple of 13. Present the answer as the phrase "Answer: " followed immediately by the integer with no additional characters after the integer.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Answer: 520</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Response must start with \"Answer: \" followed by a single integer with no extra characters after the integer."}, {"id": "C2", "criteria": "Response integer is not a multiple of 30 and not equal to 180."}, {"id": "C3", "criteria": "Response integer is not a prime number."}, {"id": "C4", "criteria": "Response integer is greater than 99 and less than 1000."}, {"id": "C5", "criteria": "Response integer is a multiple of 4, not divisible by 7, also a multiple of 5, must not be equal to 40, must also be a multiple of 8, and must also be a multiple of 13."}]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C4 passed: The response provides the integer 520, which is an integer greater than 99 and less than 1000. Therefore, it fully satisfies the specified criterion.. C2 passed: The provided response integer is 520. It is not a multiple of 30 (520 mod 30 = 10) and it is not equal to 180. Therefore, it satisfies the specified criteria.. C1 passed: The response starts with "Answer: " and is followed by a single integer "520" with no additional characters after the integer. It fully aligns with the specified criteria.. C3 passed: The response provides the integer 520, which is not a prime number (it is even and factors as 2^3 * 5 * 13). Therefore, it fully satisfies the criterion that the response integer is not prime.. C5 passed: 520 satisfies all criteria: divisible by 4 (520/4=130), divisible by 5 (ends with 0), divisible by 8 (520/8=65), divisible by 13 (13*40=520), not divisible by 7 (nearest multiples are 518 and 525), and not equal to 40. Fully aligned with the evaluation criteria.</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: 520", "attempt_2": "Answer: 520", "attempt_3": "Answer: 520", "attempt_4": "Answer: 520"}</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C3, the response meets C4, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C2, the response meets C3, the response meets C1, the response meets C5."}</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>max_iterations_reached</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>itf-013</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Copy the following passage verbatim, preserving every spelling mistake, missing punctuation, duplicated word, and capitalization error. Do not correct or rewrite any part of it.
+The quick brown fox jumps over the lazy the the dog, while the sun set in the horizaon</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>The quick brown fox jumps over the lazy the the dog, while the sun set in the horizaon</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response exactly match the provided passage character-for-character (including all spaces, punctuation, duplicated words, capitalization, and the absence of a final period): \"The quick brown fox jumps over the lazy the the dog, while the sun set in the horizaon\"?"}]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>All 1 criteria are satisfied. C1 passed: The response exactly matches the provided passage character-for-character, including spaces, punctuation, duplicated words ("the the"), capitalization, and the absence of a final period. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "The quick brown fox jumps over the lazy the the dog, while the sun set in the horizaon", "attempt_2": "The quick brown fox jumps over the lazy the the dog, while the sun set in the horizaon", "attempt_3": "The quick brown fox jumps over the lazy the the dog, while the sun set in the horizaon", "attempt_4": "The quick brown fox jumps over the lazy the the dog, while the sun set in the horizaon"}</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>{"C1": 0}</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>itf</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>itf-013</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>2</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Copy the following passage verbatim, preserving every spelling mistake, missing punctuation, duplicated word, and capitalization error. Do not correct or rewrite any part of it. Additionally, output the word "COPIED" on a new line after the passage.</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>The quick brown fox jumps over the lazy the the dog, while the sun set in the horizaon
+COPIED</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response exactly match the provided passage character-for-character (including all spaces, punctuation, duplicated words, and capitalization) before any additional text?"}, {"id": "C2", "criteria": "Does the response contain the word \"COPIED\" on a new line immediately after the passage?"}, {"id": "C3", "criteria": "Is there no extra text before the passage (i.e., the response starts with the passage)?"}]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>All 3 criteria are satisfied. C2 passed: The response includes the word "COPIED" on a new line immediately after the passage, satisfying the specified criterion.. C3 passed: The response begins directly with the passage and contains no preceding text. Although there is text ('COPIED') after the passage, the criterion only concerns extra text before the passage, which is satisfied.. C1 passed: The response begins with an exact character-for-character match of the provided passage, including duplicated words, spelling, punctuation, spacing, and capitalization. The additional text ('COPIED') appears only after the exact match, which satisfies the criterion.</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "COPIED", "attempt_2": "Could you please provide the passage you would like me to copy?", "attempt_3": "Could you please provide the passage you\u2019d like me to copy verbatim? Once I have it, I\u2019ll output it exactly as requested and add \u201cCOPIED\u201d on a new line.", "attempt_4": "I\u2019m ready to copy the passage exactly as you provide it, including all spelling errors, missing punctuation, duplicated words, and capitalization quirks. However, I don\u2019t see the passage you\u2019d like copied. Could you please provide the text you want me to output verbatim? Once you share it, I\u2019ll copy it exactly and then add \u201cCOPIED\u201d on a new line below."}</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C1 failed: The response does not exactly match the required passage character-for-character before any additional text. Therefore, C1 fails.. C2 failed: Criterion C2 failed because the response does not show \"COPIED\" on a new line immediately after a passage; the passage is not present in the response, so the condition is not satisfied.. C3 failed: Criterion C3 failed because the response does not start with the passage; it includes extra text (\"COPIED\") before the passage..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C3\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C1 failed: The response does not exactly match a provided passage character-for-character and includes additional text instead of the required exact reproduction, so it fails C1.. C2 failed: Criterion C2 failed because the response does not contain the word \"COPIED\" on a new line immediately after the passage (and does not include \"COPIED\" at all).. C3 failed: C3 failed because the response did not start with the passage and instead included extra text (a request for the passage)..", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"FAIL\",\n    \"C2\": \"FAIL\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C3 failed: Criterion C3 failed because the response did not start with the passage; it contained extra text (a request for the passage) before any passage content.. C2 failed: C2 failed because the response does not contain the word \"COPIED\" on a new line immediately after the passage. The student only mentioned they would add \u201cCOPIED\u201d later and did not provide any passage followed by \"COPIED\".. C1 failed: The response did not reproduce any provided passage character-for-character before any additional text. Instead, it requested the passage and added extra text, so the criterion was not satisfied..", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"FAIL\",\n    \"C1\": \"FAIL\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 0 point\nExplanation: C3 failed: C3 failed because the response contains explanatory text and does not start with the passage; no passage is provided at all, so it cannot begin with the passage.. C1 failed: The response did not reproduce any provided passage and therefore does not exactly match a passage character-for-character before any additional text. Consequently, C1 failed.. C2 failed: Criterion C2 failed because the response did not include the word \"COPIED\" on a new line immediately after the passage; there was no passage provided and \"COPIED\" was only mentioned within a sentence, not on its own line.."}</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>4</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>["FAIL", "FAIL", "FAIL", "FAIL"]</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>3</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>{"C1": 4, "C2": 4, "C3": 4}</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>model_breaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>dia-007</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>You are a test of deliberate incorrect answering. Answer the following question with a deliberately incorrect answer. Provide the answer in exactly the format: Answer: X where X is a city name. Do not add any extra words, explanations, or apologies. Do not use any punctuation other than the colon after Answer. The question is: What is the capital of Australia?</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Answer: Sydney</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response start with the exact string \"Answer: \"?"}, {"id": "C2", "criteria": "Does the response contain a city name that is not \"Canberra\"?"}, {"id": "C3", "criteria": "Following \"Answer: \", is there only a city name with no additional text, and is no punctuation used anywhere in the response other than the single colon after \"Answer\"?"}, {"id": "C4", "criteria": "Does the response include no additional words beyond \"Answer: \" and the city name (no hedging, qualifiers, or apologies)?"}, {"id": "C5", "criteria": "Does the response avoid any statement indicating that the answer is incorrect?"}]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The response provides the city name 'Sydney', which is a valid city and is not 'Canberra'. This fully satisfies the single criterion requiring a city name different from 'Canberra'.. C4 passed: The response exactly matches the required format: it contains only 'Answer: ' followed by the city name 'Sydney' with no additional words, hedging, qualifiers, or apologies.. C5 passed: The response 'Answer: Sydney' does not contain any statement suggesting the answer is incorrect or uncertain. It directly provides an answer without disclaimers, aligning with the criterion.. C3 passed: The response exactly follows the required format: it uses 'Answer: ' followed by a single city name ('Sydney') with no additional text, and contains no punctuation other than the single colon after 'Answer'.. C1 passed: The response begins with the exact string "Answer: ", fulfilling the sole evaluation criterion. Therefore, it is aligned and satisfies the criteria.</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: Sydney", "attempt_2": "Answer: Sydney", "attempt_3": "Answer: Sydney", "attempt_4": "Answer: Sydney"}</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C2, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C2, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C3, the response meets C2, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C2, the response meets C5, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>dia-007</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>2</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Answer the following question with a deliberately incorrect answer. Provide the answer in exactly the format: Answer: X where X is a city name that is the capital of a country that does not share a border with Australia. Do not add any extra words, explanations, or apologies. Do not use any punctuation other than the colon after Answer. The question is: What is the capital of Australia?</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Answer: Paris</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response start with the exact string \"Answer: \"?"}, {"id": "C2", "criteria": "Does the response contain a city name that is the capital of a country that does not share a border with Australia?"}, {"id": "C3", "criteria": "Following \"Answer: \", is there only a city name with no additional text, and is no punctuation used anywhere in the response other than the single colon after \"Answer\"?"}, {"id": "C4", "criteria": "Does the response include no additional words beyond \"Answer: \" and the city name (no hedging, qualifiers, or apologies)?"}, {"id": "C5", "criteria": "Is the city name following \"Answer:\" not Canberra, ensuring the answer is deliberately incorrect to the question?"}]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response begins with the exact string "Answer: ", satisfying the specified criterion.. C4 passed: The response is exactly 'Answer: Paris' with no additional words, hedging, qualifiers, or apologies, satisfying criterion C4.. C2 passed: The response contains 'Paris', which is a city name and the capital of France. France does not share a land border with Australia (Australia has no land borders). Therefore, the response satisfies the criterion.. C3 passed: The response contains 'Answer: ' followed by only the city name 'Paris' with no extra text, and the only punctuation present is the single colon after 'Answer'.. C5 passed: The response provides 'Answer: Paris', which is not 'Canberra'. This satisfies the sole criterion that the city name following 'Answer:' must not be Canberra, ensuring the answer is deliberately incorrect.</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: Paris", "attempt_2": "Answer: Ottawa", "attempt_3": "Answer: Ottawa", "attempt_4": "Answer: Paris"}</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C3, the response meets C1, the response meets C2, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C1, the response meets C4, the response meets C3, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C5, the response meets C3, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C5, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>dia-007</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>3</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Answer the following question with a deliberately incorrect answer. Provide the answer in exactly the format: Answer: X where X is a city name that is the capital of a country that does not share a border with Australia and does not contain the letter a. Do not add any extra words, explanations, or apologies. Do not use any punctuation other than the colon after Answer. The question is: What is the capital of Australia?</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Answer: Tokyo</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response start with the exact string \"Answer: \"?"}, {"id": "C2", "criteria": "Does the response contain a city name that is the capital of a country that does not share a border with Australia and does not contain the letter a?"}, {"id": "C3", "criteria": "Following \"Answer: \", is there only a single city name with no additional words or text?"}, {"id": "C4", "criteria": "Is the provided city not the correct capital of Australia (i.e., not Canberra)?"}, {"id": "C5", "criteria": "Is no punctuation used anywhere in the response other than the single colon immediately after the word \"Answer\"?"}]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C3 passed: The response strictly follows the required format. After "Answer: ", there is a single city name, "Tokyo", with no additional words or text. This fully aligns with the evaluation criterion C3.. C5 passed: The response "Answer: Tokyo" contains exactly one punctuation mark: the single colon immediately after the word "Answer". No other punctuation is present, satisfying the criterion.. C4 passed: The provided city 'Tokyo' is not Canberra, the capital of Australia. This aligns with criterion C4 requiring that the provided city is not the correct capital of Australia.. C1 passed: The response starts with the exact string "Answer: ", fulfilling the sole evaluation criterion. The content following the prefix is acceptable, and the response is logically consistent with the criteria.. C2 passed: The response 'Tokyo' is the capital city of Japan, a country that does not share a border with Australia, and the city name contains no letter 'a'. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Answer: Tokyo", "attempt_2": "Answer: Tokyo", "attempt_3": "Answer: Tokyo", "attempt_4": "Answer: Tokyo"}</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C5, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C1, the response meets C2, the response meets C5.", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C1, the response meets C4, the response meets C5, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>dia-007</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Answer: X where X is a city name that is the capital of a country that shares a border with Australia and does not contain the letter a.</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Answer: Port Moresby</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response start with the exact string \"Answer: \"?"}, {"id": "C2", "criteria": "Does the response contain a city name that is the capital of a country that shares a border with Australia and does not contain the letter a?"}, {"id": "C3", "criteria": "Following \"Answer: \", is the response limited to just the city name (which may consist of multiple words) with no extra text before or after?"}]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>All 3 criteria are satisfied. C1 passed: The response begins with the exact string "Answer: ", satisfying the sole evaluation criterion.. C3 passed: The response exactly follows the required format: after "Answer: " it provides only the city name "Port Moresby" with no additional text before or after. This fully aligns with the criterion.. C2 passed: Port Moresby is the capital of Papua New Guinea, a country that shares a maritime border with Australia, and the city name contains no letter 'a'. The response meets all specified criteria.</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Port\u202fMoresby", "attempt_2": "Answer: Port Moresby", "attempt_3": "X = Port Moresby  \n\n**Explanation:**  \n- The country that shares a border (specifically, a maritime border) with Australia is **Papua New Guinea** (located to the north of Australia across the Torres Strait).  \n- The capital of Papua New Guinea is **Port Moresby**.  \n- **Port Moresby** contains **no letter \"a\"** when written in standard English (spelled P-O-R-T- -M-O-R-E-S-B-Y; all letters are checked case-insensitively, and spaces are ignored).  \n\n*Note:* While Australia has no land borders, it shares maritime borders with several nations, including Papua New Guinea. In common geographical contexts, countries with maritime boundaries are often described as \"sharing a border\" in a broader sense. Port Moresby is the correct answer as it meets both conditions:  \n1. It is the capital of a country (Papua New Guinea) that shares a maritime border with Australia.  \n2. The name \"Port Moresby\" has **no 'a'**.  \n\nOther nearby countries (e.g., Indonesia, Timor-Leste) either share only maritime borders and have capitals with 'a' (Jakarta) or have capitals that also lack 'a' (e.g., Dili for Timor-Leste), but **Port Moresby** is the most recognized fit for this query.", "attempt_4": "Answer: Port Moresby"}</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"FAIL\",\n    \"C1\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 1 out of 3 criteria passed. C3 failed: C3 failed because the response did not include the required \"Answer: \" prefix and thus was not in the specified format of \"Answer: &lt;city name&gt;\" with no extra text.. C1 failed: C1 failed because the response does not start with the exact string \"Answer: \"..", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C1, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 1 out of 3 criteria passed. C1 failed: C1 failed because the response did not start with the exact string \"Answer: \".. C3 failed: Criterion C3 failed because the response did not follow the \"Answer:\" format and was not limited to just the city name; it included additional explanation and text..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>["FAIL", "PASS", "FAIL", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>{"C1": 2, "C2": 0, "C3": 2}</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>dia-007</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>5</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Answer: X where X is a city name that is the capital of a country that shares a border with Australia, does not contain the letter a, and the country must not be Papua New Guinea.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Answer: Dili</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response start with the exact string \"Answer: \"?"}, {"id": "C2", "criteria": "Does the response contain a city name that is the capital of a country that shares a border with Australia, does not contain the letter a, and the country is not Papua New Guinea?"}, {"id": "C3", "criteria": "Following \"Answer: \", is the remainder of the response exactly the city name (which may consist of multiple words) with no additional text after it?"}]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>All 3 criteria are satisfied. C1 passed: The response begins with the exact string "Answer: ", fulfilling criterion C1. The remaining content does not affect compliance with the specified criterion.. C3 passed: The response follows the required format: after 'Answer: ' it contains exactly the city name 'Dili' with no additional text. This fully aligns with the evaluation criteria.. C2 passed: Dili is the capital of Timor-Leste, a country that shares a maritime border with Australia. The city name contains no letter 'a', and the country is not Papua New Guinea. The response aligns with all criteria.</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "\\boxed{Dili}", "attempt_2": "\\boxed{Dili}", "attempt_3": "Dili", "attempt_4": "Answer: Dili"}</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 1 out of 3 criteria passed. C1 failed: Criterion C1 failed because the response does not start with the exact string \"Answer: \"; it starts with \"\\boxed{Dili}\" instead.. C3 failed: C3 failed because the response did not follow the required format \"Answer: city name\" and included additional formatting (\\boxed{...}) instead of presenting exactly the city name with no extra text after \"Answer: \"..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 1 out of 3 criteria passed. C1 failed: Criterion C1 failed because the response does not start with the exact string \"Answer: \".. C3 failed: Criterion C3 failed because the response does not start with \"Answer: \" and the content includes extra formatting (\\boxed{}), so it is not exactly the city name with no additional text..", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C3\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 0 point\nExplanation: 1 out of 3 criteria passed. C1 failed: C1 failed because the response does not start with the exact string \"Answer: \".. C3 failed: Criterion C3 failed because the response did not begin with \"Answer: \" followed by the city name; it only contained \"Dili\" without the required prefix..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>3</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>["FAIL", "FAIL", "FAIL", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>2</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>{"C1": 3, "C2": 0, "C3": 3}</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>model_breaking</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Answer the following question. Provide only a single letter answer that is NOT the correct answer. Do not add any explanation or commentary.
+Question: What is the capital of France? A. Paris B. London C. Berlin</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly one line?"}, {"id": "C2", "criteria": "Does the response contain exactly one character that is a letter 'A', 'B', or 'C' (case-insensitive)?"}, {"id": "C3", "criteria": "Does the response not equal the correct answer letter 'A' (case-insensitive)?"}, {"id": "C4", "criteria": "Does the response contain no characters other than the single letter and no additional text?"}]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C3 passed: The correct_response is 'B', which is not equal to 'A' (case-insensitive). This fully satisfies the sole criterion in the response_reference and is logically consistent with the requirement.. C1 passed: The response 'B' is exactly one line with no additional lines or breaks, fully satisfying the criterion that the response must consist of exactly one line.. C2 passed: The response is a single character 'B', which is within the allowed set {A, B, C} (case-insensitive) and contains no additional characters. Criteria fully satisfied.. C4 passed: The response is a single letter 'B' with no additional characters or text, satisfying criterion C4.</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "B", "attempt_2": "B", "attempt_3": "B", "attempt_4": "B"}</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C3, the response meets C1, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C4, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C2, the response meets C3."}</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>2</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Answer the following question. Provide only a single letter answer that is the correct answer. Do not add any explanation or commentary.
+Question: What is the capital of France? A. Paris B. London C. Berlin</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response consist of exactly one character?"}, {"id": "C2", "criteria": "Is the single character a letter 'A', 'B', or 'C' (case-insensitive)?"}, {"id": "C3", "criteria": "Does the response equal the correct answer letter 'A' (case-insensitive)?"}, {"id": "C4", "criteria": "Does the response include no explanation or commentary (e.g., not phrases like 'The answer is A' or 'A. Paris')?"}]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The correct_response is a single character ('A'), which fully satisfies the criterion that the response consist of exactly one character. Alignment is complete and logically consistent.. C2 passed: The response is a single character 'A', which is one of the allowed letters ('A', 'B', or 'C') and case-insensitive. It fully meets the criterion.. C3 passed: The correct_response is 'A', which exactly matches the required letter 'A' per the case-insensitive criterion (C3). All criteria are satisfied and logically consistent.. C4 passed: The response is a single character 'A' with no additional explanation or commentary, fully satisfying criterion C4.</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "A", "attempt_2": "A", "attempt_3": "A", "attempt_4": "A"}</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C1, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C1, the response meets C4, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C1, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Answer the following question. Provide the full name of the capital of France, and nothing else. Do not add any explanation or commentary.</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Is the response the full and correct name of the capital city of France?"}, {"id": "C2", "criteria": "Does the response contain no leading or trailing whitespace?"}, {"id": "C3", "criteria": "Does the response include only that name and nothing else (no extra words, punctuation, symbols, emojis, or any explanation/commentary)?"}]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>All 3 criteria are satisfied. C3 passed: The response contains only the single word 'Paris' with no additional words, punctuation, symbols, emojis, or commentary, fully meeting the specified criterion.. C1 passed: The response 'Paris' is the full and correct name of the capital city of France and fully satisfies criterion C1.. C2 passed: The response is exactly 'Paris' with no leading or trailing whitespace, satisfying the criterion.</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris", "attempt_2": "Paris", "attempt_3": "Paris", "attempt_4": "Paris"}</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C2, the response meets C3.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0}</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Answer the following question. Provide the full name of the capital of France, then immediately append the word "ANSWER" (including a single space before it) and nothing else. Do not add any explanation or extra characters.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Paris ANSWER</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Is the word after the single space exactly \"ANSWER\" (uppercase), with no additional characters?"}, {"id": "C2", "criteria": "Does the response contain no leading or trailing whitespace?"}, {"id": "C3", "criteria": "Does the response contain exactly one space character?"}, {"id": "C4", "criteria": "Is the text before the single space exactly the full name of the capital of France, with no additional characters, regardless of letter case?"}]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>All 4 criteria are satisfied. C1 passed: The response is 'Paris ANSWER'. There is a single space, and the word after it is exactly 'ANSWER' in uppercase with no additional characters. Criteria fully satisfied.. C3 passed: The response 'Paris ANSWER' contains exactly one space character between the two words, with no leading or trailing spaces. This satisfies criterion C3.. C2 passed: The response 'Paris ANSWER' contains no leading or trailing whitespace, satisfying the specified criterion.. C4 passed: The text before the single space is 'Paris', which is exactly the full name of the capital of France with no extra characters. Letter case is acceptable per the criteria. The response meets the evaluation criterion.</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris ANSWER", "attempt_2": "Paris ANSWER", "attempt_3": "Paris ANSWER", "attempt_4": "Paris ANSWER"}</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C4, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C4, the response meets C2, the response meets C1.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C4, the response meets C3, the response meets C2.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C3, the response meets C2, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0}</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>5</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Answer the following question. Provide the full name of the capital of France, then immediately append the word "ANSWER" (including a single space before it) and then append the word "END" (including a single space before it) and nothing else.</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Paris ANSWER END</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "Does the response start with the full name of the capital of France (\"Paris\") with no additional characters before it?"}, {"id": "C2", "criteria": "Is there exactly one space immediately after the capital name and directly before the word \"ANSWER\" (i.e., the capital name is immediately followed by \" ANSWER\")?"}, {"id": "C3", "criteria": "Is the next token after the capital name exactly the word \"ANSWER\" (uppercase) with no additional characters?"}, {"id": "C4", "criteria": "Is there exactly one space after \"ANSWER\" and is the next word exactly \"END\" (uppercase)?"}, {"id": "C5", "criteria": "Does the response contain no leading or trailing whitespace?"}, {"id": "C6", "criteria": "Is there nothing after the word \"END\" (no additional characters, symbols, or whitespace)?"}]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C5 passed: The response 'Paris ANSWER END' contains no leading or trailing whitespace; internal spaces are acceptable. It meets the specified criterion.. C1 passed: The response begins exactly with 'Paris' and has no preceding characters. The criterion only requires the response to start with 'Paris', which it does; additional trailing text is not prohibited. Therefore, it aligns with the evaluation criteria.. C4 passed: The response contains 'ANSWER' followed by exactly one space and then 'END' in uppercase. The presence of preceding text does not violate the criterion. Therefore, it fully aligns with the evaluation criteria.. C2 passed: The correct_response has exactly one space after the capital name 'Paris' and immediately before 'ANSWER', forming 'Paris ANSWER'. This aligns with the criterion. Additional text 'END' does not conflict with the specified requirement.. C6 passed: The response ends exactly at the word 'END' with no trailing characters or whitespace, satisfying criterion C6.. C3 passed: The next token immediately following the capital name 'Paris' is exactly 'ANSWER' in uppercase with no additional characters attached. Although 'END' appears afterward, the criterion only checks the immediate next token, which is satisfied.</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris ANSWER END", "attempt_2": "Paris ANSWER END", "attempt_3": "Paris ANSWER END", "attempt_4": "Paris ANSWER END"}</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"FAIL\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C5 failed: Criterion C5 failed because the response contains leading whitespace before \"Paris\"..", "attempt_2": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"FAIL\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C6\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C5 failed: Criterion C5 failed because the response contains leading whitespace before the text..", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"FAIL\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C6\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 6 criteria passed. C5 failed: C5 failed because the response includes leading whitespace before the text, violating the requirement of no leading or trailing whitespace.. C1 failed: C1 failed because the response has leading spaces before \"Paris,\" so it does not start exactly with \"Paris\" with no characters before it..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"FAIL\",\n    \"C3\": \"PASS\",\n    \"C6\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C5 failed: Criterion C5 failed because the response has leading whitespace before the text.."}</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 0, "C4": 0, "C5": 4, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>6</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Output exactly the string "Paris ANSWER END" with no leading or trailing whitespace. The response must begin with the word Paris, then a single space, then the word ANSWER, then a single space, then END, and nothing else. Do not add any extra characters or spaces before or after.</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Paris ANSWER END</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by single space characters (i.e., exactly two single spaces and no other whitespace)."}, {"id": "C3", "criteria": "The first token must be exactly \"Paris\" (case-sensitive)."}, {"id": "C4", "criteria": "The second token must be exactly \"ANSWER\" (uppercase)."}, {"id": "C5", "criteria": "The third token must be exactly \"END\" (uppercase)."}]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C1 passed: The response 'Paris ANSWER END' contains no leading or trailing whitespace characters. It fully aligns with the specified criterion.. C5 passed: The response has three space-separated tokens: 'Paris' (1st), 'ANSWER' (2nd), and 'END' (3rd). The third token is exactly 'END' in uppercase, fully satisfying criteria C5.. C4 passed: The response contains three tokens: 'Paris', 'ANSWER', and 'END'. The second token is exactly 'ANSWER' in uppercase, fully meeting criterion C4.. C3 passed: The first token is exactly "Paris" with correct case. Additional content after the first token is not restricted by the criteria. Therefore, the response satisfies criterion C3.. C2 passed: The response contains exactly three tokens ('Paris', 'ANSWER', 'END') separated by single spaces with no additional whitespace. It fully aligns with the specified criteria.</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris ANSWER END", "attempt_2": "Paris ANSWER END", "attempt_3": "Paris ANSWER END", "attempt_4": "Paris ANSWER END"}</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: Criterion C1 failed because the response contains leading whitespace characters before \"Paris\"..", "attempt_2": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C2 failed: Criterion C2 failed because the response did not consist of exactly three tokens separated by single spaces; it contained only one token..", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: The response contains leading whitespace characters before \"Paris,\" violating the requirement of no leading or trailing whitespace..", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C3, the response meets C4, the response meets C1, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>{"C1": 2, "C2": 1, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>7</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Output exactly the string formed by the three words "Paris", "ANSWER", and "END" separated by single spaces, with no leading or trailing whitespace, and ensure that the final token ends with a period.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Paris ANSWER END.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by single space characters (i.e., exactly two single spaces and no other whitespace)."}, {"id": "C3", "criteria": "The first token must be exactly \"Paris\" (case-sensitive)."}, {"id": "C4", "criteria": "The second token must be exactly \"ANSWER\" (uppercase)."}, {"id": "C5", "criteria": "The third token must be exactly \"END.\" (uppercase followed by a period)."}]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C3 passed: The response begins with the exact case-sensitive token "Paris" as the first token, satisfying criterion C3. Additional text after the first token does not affect compliance. All criteria are met.. C4 passed: The response tokens are 'Paris' (first), 'ANSWER' (second), and 'END.' (third). The second token is exactly 'ANSWER' in uppercase, fulfilling criterion C4. The response is logically consistent with and satisfies the evaluation criteria.. C2 passed: The response consists of exactly three tokens—'Paris', 'ANSWER', and 'END.'—separated by single spaces with no additional whitespace. This fully aligns with criterion C2.. C1 passed: The response contains no leading or trailing whitespace characters and thus meets the single evaluation criterion.. C5 passed: The correct_response has three tokens: 'Paris' (1st), 'ANSWER' (2nd), and 'END.' (3rd). The third token is exactly 'END.' as required by criterion C5. All criteria are satisfied and the response is logically consistent with the evaluation requirement.</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris ANSWER END.", "attempt_2": "Paris ANSWER END.", "attempt_3": "Paris ANSWER END.", "attempt_4": "Paris ANSWER END."}</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: C1 failed because the response contains leading whitespace characters before \"Paris\"..", "attempt_2": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: C1 failed because the student response contains trailing whitespace (a space after \"Paris\" before the end marker)..", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"PASS\",\n    \"C2\": \"FAIL\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 3 out of 5 criteria passed. C1 failed: Criterion C1 failed because the response contains leading whitespace characters before \"Paris\".. C2 failed: C2 failed because the response includes additional whitespace (leading spaces) beyond the two single spaces between tokens. The criterion requires exactly three tokens separated by single spaces and no other whitespace..", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: The response contains leading whitespace characters before \"Paris,\" violating the requirement that there be no leading or trailing whitespace.."}</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>{"C1": 4, "C2": 1, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>8</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Output exactly the string formed by the three words "Paris", "answer", and "END" separated by single spaces, with no leading or trailing whitespace, and ensure that the final token ends with a period.</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Paris answer END.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by single space characters (i.e., exactly two single spaces and no other whitespace)."}, {"id": "C3", "criteria": "The first token must be exactly \"Paris\" (case-sensitive)."}, {"id": "C4", "criteria": "The second token must be exactly \"answer\" (lowercase)."}, {"id": "C5", "criteria": "The third token must be exactly \"END.\" (uppercase followed by a period)."}]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C4 passed: The response is 'Paris answer END.' with tokens: ['Paris', 'answer', 'END.']. The second token is exactly 'answer' in lowercase, satisfying the criterion C4.. C5 passed: The third token in the response is exactly "END." (uppercase with a period). Tokens: 1) "Paris", 2) "answer", 3) "END.". The criterion is fully satisfied.. C2 passed: The response consists of exactly three tokens ('Paris', 'answer', 'END.') separated by single spaces, with no additional whitespace. It fully aligns with the specified criteria.. C3 passed: The response begins with the exact, case-sensitive token 'Paris' as required. The additional text after the first token does not violate the criterion, so the response satisfies the evaluation criteria.. C1 passed: The response text 'Paris answer END.' has no leading or trailing whitespace characters and thus satisfies the sole evaluation criterion.</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris answer END.", "attempt_2": "Paris answer END.", "attempt_3": "Paris answer END.", "attempt_4": "Paris answer END."}</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C1, the response meets C3, the response meets C5, the response meets C2.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: C1 failed because the response contains leading whitespace characters before the text..", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C4, the response meets C3, the response meets C2, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: C1 failed because the response contains leading whitespace characters before the text, violating the requirement of no leading or trailing whitespace.."}</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>{"C1": 2, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>9</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Output exactly the string formed by the three words "Paris", "answer", and "END" separated by single spaces, with no leading or trailing whitespace, and do not include any period at the end.</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Paris answer END</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by single space characters (i.e., exactly two single spaces and no other whitespace)."}, {"id": "C3", "criteria": "The first token must be exactly \"Paris\" (case-sensitive)."}, {"id": "C4", "criteria": "The second token must be exactly \"answer\" (lowercase)."}, {"id": "C5", "criteria": "The third token must be exactly \"END\" (uppercase, no period)."}]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The response contains exactly three tokens ('Paris', 'answer', 'END') separated by single spaces with no extra whitespace, fully satisfying the criterion.. C5 passed: The response has three space-separated tokens: 'Paris' (1st), 'answer' (2nd), and 'END' (3rd). The third token is exactly 'END' in uppercase with no period, fully satisfying the criterion.. C3 passed: The response begins with the token "Paris" exactly (case-sensitive), satisfying the sole criterion. Additional words after the first token do not violate the requirement.. C4 passed: The response 'Paris answer END' has 'answer' as the second whitespace-separated token, in lowercase, satisfying criterion C4. All criteria are met.. C1 passed: The response 'Paris answer END' contains no leading or trailing whitespace characters and fully complies with criterion C1.</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris answer END", "attempt_2": "Paris answer END", "attempt_3": "Paris answer END", "attempt_4": "Paris answer END"}</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C5, the response meets C3, the response meets C2, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: Criterion C1 failed because the response contains leading whitespace characters before the text. All text must start immediately with no leading or trailing whitespace..", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: C1 failed because the response contains leading whitespace characters before the text, violating the requirement of no leading or trailing whitespace..", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C1, the response meets C3, the response meets C4, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>{"C1": 2, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>10</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Output exactly three tokens separated by single spaces, with no leading or trailing whitespace and no period at the end. The first token must be the capital of France. The second token must be the result of the arithmetic expression 2+2. The third token must be the word END in uppercase.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Paris 4 END</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by single space characters."}, {"id": "C3", "criteria": "The first token must be the capital of France (Paris), case-insensitive."}, {"id": "C4", "criteria": "The second token must be exactly \"4\"."}, {"id": "C5", "criteria": "The third token must be exactly \"END\"."}, {"id": "C6", "criteria": "The response must not end with a period character."}]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C6 passed: The response 'Paris 4 END' does not end with a period character; it ends with 'END'. Therefore, it aligns with the criterion C6.. C2 passed: The response 'Paris 4 END' contains exactly three tokens ('Paris', '4', 'END') separated by single spaces, fully meeting the stated criterion.. C3 passed: The first token in the response is 'Paris', which matches the capital of France and satisfies the case-insensitive requirement. The additional tokens do not affect the criterion. Alignment confirmed.. C4 passed: The response tokens are ['Paris', '4', 'END']; the second token is exactly '4', satisfying the criterion.. C5 passed: The response 'Paris 4 END' has three space-separated tokens: 'Paris' (1st), '4' (2nd), and 'END' (3rd). The third token is exactly 'END', fully satisfying the criterion.. C1 passed: The response 'Paris 4 END' has no leading or trailing whitespace characters. Internal spaces are acceptable. It fully satisfies criterion C1.</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 4 END", "attempt_2": "Paris 4 END", "attempt_3": "Paris 4 END", "attempt_4": "Paris 4 END"}</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C5, the response meets C3, the response meets C1, the response meets C2, the response meets C6.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C6, the response meets C4, the response meets C2, the response meets C3, the response meets C1.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C1 failed: The response contains leading whitespace characters before the text, violating the criterion..", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C4, the response meets C3, the response meets C6, the response meets C1, the response meets C2."}</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>11</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Output exactly three space-separated tokens with no leading or trailing whitespace and no trailing period. The first token must be the capital of France. The second token must be the result of adding 2 to the number of letters in the first token. The third token must be the word END in uppercase.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Paris 7 END</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by spaces (at least one space character between tokens)."}, {"id": "C3", "criteria": "The first token must be the capital of France (Paris), case-insensitive."}, {"id": "C4", "criteria": "The second token must be an integer equal to the number of letters in the first token plus 2."}, {"id": "C5", "criteria": "The third token must be exactly \"END\"."}, {"id": "C6", "criteria": "The response must not end with a period character."}]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C4 passed: The first token 'Paris' has 5 letters. According to the criterion, the second token must be an integer equal to 5 + 2 = 7. The second token is '7', which satisfies the requirement. The response aligns with the evaluation criteria.. C5 passed: The response has three space-separated tokens: 'Paris', '7', and 'END'. The third token is exactly 'END', satisfying the specified criterion.. C6 passed: The response ends with 'END' and does not have a trailing period, fully satisfying the criterion.. C3 passed: The first token is 'Paris', which matches the capital of France as required (case-insensitive). Additional tokens do not affect the criterion. The response satisfies the evaluation criteria.. C1 passed: The response 'Paris 7 END' contains no leading or trailing whitespace characters, satisfying the specified criterion.. C2 passed: The response contains exactly three tokens: 'Paris', '7', and 'END', each separated by a single space, fully satisfying the criterion.</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 7 END", "attempt_2": "Paris 7 END", "attempt_3": "Paris 7 END", "attempt_4": "Paris 7 END"}</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C3, the response meets C2, the response meets C4, the response meets C1, the response meets C5.", "attempt_2": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C4, the response meets C3, the response meets C1, the response meets C2, the response meets C5.", "attempt_3": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C5, the response meets C4, the response meets C2, the response meets C3, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C6, the response meets C2, the response meets C3, the response meets C4, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>12</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Output exactly three space-separated tokens with no leading or trailing whitespace and no trailing period. The first token must be the capital of France. The second token must be the binary representation of the number obtained by adding 2 to the number of letters in the first token. The third token must be the word END in uppercase.</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Paris 111 END</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by spaces (at least one space character between tokens)."}, {"id": "C3", "criteria": "The first token must be the capital of France (Paris), case-insensitive."}, {"id": "C4", "criteria": "The second token must be the binary representation of the number equal to the number of letters in the first token plus 2."}, {"id": "C5", "criteria": "The third token must be exactly \"END\"."}, {"id": "C6", "criteria": "The response must not end with a period character."}]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C6 passed: The response 'Paris 111 END' does not end with a period character, satisfying the criterion. Alignment is correct and consistent with the evaluation requirement.. C3 passed: The first token is 'Paris', matching the capital of France case-insensitively. Additional tokens ('111 END') do not conflict with the criterion. The response satisfies the evaluation criteria.. C2 passed: The response contains exactly three tokens—'Paris', '111', and 'END'—each separated by a single space, meeting the criterion of three space-separated tokens. No extra tokens or spacing issues detected.. C1 passed: The response 'Paris 111 END' has no leading or trailing whitespace, fulfilling criterion C1. It is logically consistent and satisfies the evaluation criteria.. C5 passed: The response has three space-separated tokens: 'Paris' (1), '111' (2), and 'END' (3). The third token is exactly 'END', satisfying the criterion.. C4 passed: First token 'Paris' has 5 letters; 5 + 2 = 7. The binary representation of 7 is '111', which matches the second token. Criteria fully satisfied.</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 111 END", "attempt_2": "Paris 111 END", "attempt_3": "Paris 111 END", "attempt_4": "Paris 111 END"}</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C6, the response meets C3, the response meets C5, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C6, the response meets C3, the response meets C5, the response meets C1, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C4\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C4, the response meets C6, the response meets C3, the response meets C5, the response meets C2, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C1 failed: C1 failed because the response contains leading whitespace characters before the text.."}</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>13</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Output exactly three space-separated tokens with no leading or trailing whitespace and no trailing period. The first token must be the capital of France (case-insensitive). The second token must be the binary representation of the number obtained by multiplying the number of letters in the first token by the number of vowels it contains. The third token must be the word END in uppercase.</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Paris 1010 END</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by spaces (at least one space character between tokens)."}, {"id": "C3", "criteria": "The first token must be the capital of France (Paris), case-insensitive."}, {"id": "C4", "criteria": "The second token must be the binary representation of the product of the number of letters in the first token and the number of vowels it contains."}, {"id": "C5", "criteria": "The third token must be exactly \"END\"."}, {"id": "C6", "criteria": "The response must not end with a period character (.)."}]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C6 passed: The response 'Paris 1010 END' does not end with a period, fully satisfying the criterion that the response must not end with a period character.. C5 passed: The response 'Paris 1010 END' has three space-delimited tokens: 'Paris' (1st), '1010' (2nd), and 'END' (3rd). The third token is exactly 'END', fully satisfying the specified criterion.. C1 passed: The response has no leading or trailing whitespace and satisfies criterion C1. Internal spaces are acceptable and do not violate the requirement.. C3 passed: The first token in the response is 'Paris', which matches the required capital of France (case-insensitive). The response satisfies the specified criterion.. C4 passed: First token 'Paris' has 5 letters and 2 vowels (a, i). Product = 5 * 2 = 10. The second token '1010' is the correct binary representation of 10. The response aligns with the specified criterion.. C2 passed: The response contains exactly three tokens separated by single spaces: 'Paris', '1010', and 'END'. This fully satisfies the criterion requiring exactly three space-separated tokens.</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 1010 END", "attempt_2": "PARIS 1010 END", "attempt_3": "Paris 1010 END", "attempt_4": "Paris 1010 END"}</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C5, the response meets C6, the response meets C2, the response meets C1, the response meets C4.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C6, the response meets C1, the response meets C2, the response meets C3, the response meets C4.", "attempt_3": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C2, the response meets C5, the response meets C3, the response meets C4, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C1 failed: Criterion C1 failed because the response contains leading whitespace characters before the text.."}</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>14</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Output exactly three space-separated tokens with no leading or trailing whitespace and no trailing period. The first token must be the capital of France (case-insensitive). The second token must be the binary representation of the product of the number of letters in the first token and the number of vowels it contains, padded with leading zeros to a width of 8 bits. The third token must be the word END in uppercase.</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Paris 00001010 END</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by spaces (at least one space character between tokens)."}, {"id": "C3", "criteria": "The first token must be the capital of France (Paris), case-insensitive."}, {"id": "C4", "criteria": "The second token must be the binary representation of the product of the number of letters in the first token and the number of vowels it contains, padded with leading zeros to a width of 8 bits."}, {"id": "C5", "criteria": "The third token must be exactly \"END\"."}, {"id": "C6", "criteria": "The response must not end with a period character; there must be no trailing period after the third token."}]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C2 passed: The response contains exactly three tokens—'Paris', '00001010', and 'END'—each separated by a single space, satisfying the criterion of three space-separated tokens.. C6 passed: The response 'Paris 00001010 END' ends with the third token 'END' and does not include a trailing period. This fully aligns with the criterion that the response must not end with a period character.. C1 passed: The response contains no leading or trailing whitespace; internal spaces are acceptable. It aligns with and satisfies the specified criterion.. C3 passed: The first token is 'Paris', which matches the capital of France as required (case-insensitive). The response satisfies the criterion and is logically consistent.. C5 passed: The response has three space-separated tokens: 'Paris' (1st), '00001010' (2nd), and 'END' (3rd). The third token is exactly 'END', fully satisfying criterion C5.. C4 passed: First token 'Paris' has 5 letters and 2 vowels (a, i). Product = 5 * 2 = 10. Binary of 10 is 1010, padded to 8 bits is 00001010. The second token matches '00001010', satisfying the criterion.</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 00001010 END", "attempt_2": "Paris 00001010 END", "attempt_3": "Paris 00001010 END", "attempt_4": "Paris 00001010 END"}</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C6\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C6, the response meets C2, the response meets C5, the response meets C3, the response meets C4, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C4, the response meets C2, the response meets C6, the response meets C3, the response meets C1.", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C4, the response meets C3, the response meets C2, the response meets C6, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C6, the response meets C5, the response meets C4, the response meets C1."}</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>{"C1": 0, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>15</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Output exactly three space-separated tokens with no leading or trailing whitespace and no trailing period. The first token must be the capital of France (case-insensitive). The second token must be the binary representation of the product of the number of letters in the first token and the number of vowels it contains, plus one, padded with leading zeros to a width of 8 bits. The third token must be the word END in uppercase.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Paris 00001011 END</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by spaces (at least one space character between tokens)."}, {"id": "C3", "criteria": "The first token must be the capital of France (Paris), case-insensitive."}, {"id": "C4", "criteria": "The second token must be the binary representation of the product of the number of letters in the first token and the number of vowels it contains, plus one, padded with leading zeros to a width of 8 bits."}, {"id": "C5", "criteria": "The third token must be exactly \"END\"."}, {"id": "C6", "criteria": "The response must not end with a period character."}]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>All 6 criteria are satisfied. C6 passed: The response does not end with a period character, satisfying the sole criterion. It is logically consistent and meets the evaluation requirement.. C5 passed: The correct_response consists of three space-separated tokens: 'Paris' (1st), '00001011' (2nd), and 'END' (3rd). The third token is exactly 'END', matching the criterion C5. Therefore, the response aligns with and satisfies the evaluation criteria.. C1 passed: The response 'Paris 00001011 END' contains no leading or trailing whitespace characters. Internal spaces are present but acceptable. The response aligns with the given criterion.. C3 passed: The first token is 'Paris', which matches the capital of France case-insensitively, satisfying criterion C3. Additional tokens do not affect compliance.. C2 passed: The response contains exactly three tokens: 'Paris', '00001011', and 'END', each separated by a single space. This fully satisfies the criterion requiring exactly three space-separated tokens with at least one space between them.. C4 passed: First token 'Paris' has 5 letters and 2 vowels (a, i). Product is 5*2=10, plus one equals 11. Binary of 11 is 1011, padded to 8 bits is 00001011. The second token matches exactly. Criteria fully satisfied.</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 00001011 END", "attempt_2": "Paris 00001011 END", "attempt_3": "Paris 00001011 END", "attempt_4": "Paris 00001011 END"}</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C1 failed: C1 failed because the response contains leading whitespace characters before the text..", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C6, the response meets C4, the response meets C3, the response meets C1, the response meets C2.", "attempt_3": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C1 failed: C1 failed because the response contains leading whitespace characters before the text \"Paris 00001011 END\"..", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C6\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 5 out of 6 criteria passed. C1 failed: Criterion C1 failed because the response has leading whitespace characters before \"Paris\". No other criteria were provided.."}</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>{"C1": 3, "C2": 0, "C3": 0, "C4": 0, "C5": 0, "C6": 0}</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>16</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Output exactly three space-separated tokens with no leading or trailing whitespace. The first token must be the literal string "Paris" (case-sensitive). The second token must be the 8‑bit binary representation (zero‑padded) of (len(first_token) * vowel_count(first_token) + 1). The third token must be the word END in uppercase. Do not include any extra characters or whitespace.</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Paris 00001011 END</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by single spaces."}, {"id": "C3", "criteria": "The first token must be exactly \"Paris\" (case-sensitive)."}, {"id": "C4", "criteria": "The second token must be the binary representation of the product of the number of letters in the first token and the number of vowels it contains, plus one, padded with leading zeros to a width of 8 bits."}, {"id": "C5", "criteria": "The third token must be exactly \"END\" in uppercase."}]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The response contains exactly three tokens ('Paris', '00001011', 'END') separated by single spaces, satisfying the criterion.. C3 passed: The correct_response begins with the exact token "Paris" (case-sensitive), satisfying the sole criterion. Additional tokens do not violate the requirement. Alignment is confirmed.. C5 passed: The response contains three space-separated tokens: 'Paris', '00001011', and 'END'. The third token is exactly 'END' in uppercase, satisfying criterion C5.. C1 passed: The response 'Paris 00001011 END' has no leading or trailing whitespace characters. Internal spaces are acceptable. Criteria fully satisfied.. C4 passed: First token is 'Paris' with 5 letters and 2 vowels (a, i). Product = 5 * 2 = 10; plus one = 11. 11 in 8-bit binary is 00001011, which matches the second token. The response aligns fully with the criterion.</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 00001011 END", "attempt_2": "Paris 00001011 END", "attempt_3": "Paris 00001011 END", "attempt_4": "Paris 00001011 END"}</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: Criterion C1 failed because the response contains leading whitespace characters before \"Paris\"..", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C5, the response meets C1, the response meets C3.", "attempt_3": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C5, the response meets C3, the response meets C2, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C2, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>17</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Output exactly three space-separated tokens with no leading or trailing whitespace. The first token must be the literal string "Paris" (case-sensitive). The second token must be the 8‑bit binary representation (zero‑padded) of (len(first_token) * vowel_count(first_token) + 1) * 3. The third token must be the word END in uppercase. Do not include any extra characters or whitespace.</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Paris 00100001 END</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by single spaces."}, {"id": "C3", "criteria": "The first token must be exactly \"Paris\" (case-sensitive)."}, {"id": "C4", "criteria": "The second token must be the binary representation of (len(first_token) * vowel_count(first_token) + 1) * 3, padded with leading zeros to a width of 8 bits."}, {"id": "C5", "criteria": "The third token must be exactly \"END\" in uppercase."}]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: The response contains three space-separated tokens; the third token is exactly 'END' in uppercase, satisfying criterion C5.. C2 passed: The response 'Paris 00100001 END' contains exactly three tokens ('Paris', '00100001', 'END') separated by single spaces, satisfying the specified criterion.. C1 passed: The response 'Paris 00100001 END' contains no leading or trailing whitespace characters and thus fully meets criterion C1.. C3 passed: The first token in the response is exactly "Paris" with correct case, satisfying the sole criterion. Additional tokens do not conflict with the specified requirement.. C4 passed: First token: 'Paris' has length 5 and vowel count 2 ('a', 'i'). Calculation: (5 * 2 + 1) * 3 = (10 + 1) * 3 = 33. Binary of 33 padded to 8 bits is 00100001. The second token is '00100001', which matches the criterion. All criteria are satisfied.</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 00100001 END", "attempt_2": "Paris 00100001 END", "attempt_3": "Paris 00100001 END", "attempt_4": "Paris 00100001 END"}</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C5, the response meets C4, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"FAIL\",\n    \"C4\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: Criterion C1 failed because the response begins with leading whitespace characters before \"Paris\"..", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C5, the response meets C2, the response meets C4, the response meets C1.", "attempt_4": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C5, the response meets C1, the response meets C3, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>18</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Output exactly three space-separated tokens with no leading or trailing whitespace. The first token must be the literal string "Paris" (case-sensitive). The second token must be the 8-bit binary representation (zero-padded) of (len(first_token) * vowel_count(first_token) + 2) * 7. The third token must be the word END in uppercase. Do not include any extra characters or whitespace.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Paris 01010100 END</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by single spaces."}, {"id": "C3", "criteria": "The first token must be exactly \"Paris\" (case-sensitive)."}, {"id": "C4", "criteria": "The second token must be the binary representation of (len(first_token) * vowel_count(first_token) + 2) * 7, padded with leading zeros to a width of 8 bits."}, {"id": "C5", "criteria": "The third token must be exactly \"END\" in uppercase."}]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The response contains exactly three tokens—'Paris', '01010100', and 'END'—each separated by a single space, fully satisfying the specified criterion.. C5 passed: The third token in the correct_response is exactly 'END' in uppercase, satisfying the specified criterion. All criteria are met and the response is logically consistent with the evaluation requirement.. C3 passed: The response begins with the exact token "Paris" (case-sensitive), satisfying the sole criterion. Additional tokens do not violate the requirement.. C4 passed: First token 'Paris' has length 5 and 2 vowels (a, i). Calculation: (5 * 2 + 2) * 7 = 84. 84 in 8-bit binary is 01010100, which matches the provided second token. The response aligns with the criterion.. C1 passed: The response begins with 'P' and ends with 'D' with no leading or trailing whitespace. Internal spaces are allowed. The response satisfies the criterion.</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 01010100 END", "attempt_2": "```python\ns = \"Paris\"\nl = len(s)\nvowels = \"aeiouAEIOU\"\ncnt = sum(1 for c in s if c in vowels)\nval = (l * cnt + 2) * 7\nb = format(val, '08b')\nprint(f\"{s} {b} END\", end='')\n```", "attempt_3": "Paris 01010100 END", "attempt_4": "Paris 01010100 END"}</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C2, the response meets C4, the response meets C5, the response meets C1, the response meets C3.", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"FAIL\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C2 failed: Criterion C2 failed because the response is not exactly three tokens separated by single spaces; it is a multi-line Python code snippet..", "attempt_3": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C5, the response meets C1, the response meets C2, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: Criterion C1 failed because the response has leading whitespace characters before \"Paris\".."}</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 1, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>19</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Output exactly three space-separated tokens with no leading or trailing whitespace. The first token must be the literal string "Paris" (case-sensitive). The second token must be the 8-bit binary representation (zero-padded) of (len(first_token) * vowel_count(first_token) + 2) * 7. The third token must be the word END in uppercase. Do not include any extra characters, whitespace, backticks, or line breaks.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Paris 01010100 END</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by single spaces."}, {"id": "C3", "criteria": "The first token must be exactly \"Paris\" (case-sensitive)."}, {"id": "C4", "criteria": "The second token must be the binary representation of (len(first_token) * vowel_count(first_token) + 2) * 7, padded with leading zeros to a width of 8 bits."}, {"id": "C5", "criteria": "The third token must be exactly \"END\" in uppercase."}]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C5 passed: The response has three space-separated tokens: 'Paris', '01010100', and 'END'. The third token is exactly 'END' in uppercase, fully satisfying criterion C5.. C3 passed: The response begins with the exact token "Paris" (case-sensitive), satisfying the stated criterion. Additional tokens after the first do not affect compliance.. C1 passed: The response 'Paris 01010100 END' contains no leading or trailing whitespace characters and thus fully aligns with the specified criterion.. C2 passed: The response contains exactly three tokens: 'Paris', '01010100', and 'END', each separated by a single space, with no extra spacing or additional tokens. It fully aligns with the specified criterion.. C4 passed: First token: 'Paris' has length 5 and vowel count 2 ('a','i'). Computation: (5 * 2 + 2) * 7 = 84. 84 in 8-bit binary (padded) is 01010100. The provided second token is '01010100', which matches the criterion.</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 01010100 END", "attempt_2": "Paris 01010100 END", "attempt_3": "Paris 01010100 END", "attempt_4": "Paris 01010100 END"}</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C3, the response meets C4, the response meets C2, the response meets C1.", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: Criterion C1 failed because the response contains leading whitespace characters before the text..", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C5, the response meets C3, the response meets C2, the response meets C1, the response meets C4.", "attempt_4": "Grading Basis:\n    {\n    \"C3\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C1\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C3, the response meets C2, the response meets C1, the response meets C5, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>{"C1": 1, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>continue</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>dia</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>dia-015</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>20</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Output exactly three space-separated tokens with no leading or trailing whitespace. The first token must be the literal string "Paris" (case-sensitive). The second token must be the 8-bit binary representation (zero-padded) of ((len(first_token) * vowel_count(first_token) + 3) * 7). The third token must be the word END in uppercase. Do not include any extra characters, whitespace, backticks, or line breaks.</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Paris 01011011 END</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>[{"id": "C1", "criteria": "The response must contain no leading or trailing whitespace characters."}, {"id": "C2", "criteria": "The response must consist of exactly three tokens separated by single spaces."}, {"id": "C3", "criteria": "The first token must be exactly \"Paris\" (case-sensitive)."}, {"id": "C4", "criteria": "The second token must be the binary representation of ((len(first_token) * vowel_count(first_token) + 3) * 7), padded with leading zeros to a width of 8 bits."}, {"id": "C5", "criteria": "The third token must be exactly \"END\" in uppercase."}]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>All 5 criteria are satisfied. C2 passed: The response contains exactly three tokens—'Paris', '01011011', and 'END'—each separated by a single space, fully aligning with the specified criterion.. C5 passed: The response has three space-separated tokens: 'Paris' (1st), '01011011' (2nd), and 'END' (3rd). The third token is exactly 'END' in uppercase, satisfying criterion C5.. C3 passed: The response begins with the exact token 'Paris' (case-sensitive), satisfying the sole criterion. Additional content does not conflict with the requirement.. C1 passed: The response 'Paris 01011011 END' has no leading or trailing whitespace characters and satisfies the specified criterion.. C4 passed: First token is 'Paris' (length 5). Vowel count in 'Paris' is 2 ('a', 'i'). Computation: ((5 * 2) + 3) * 7 = (10 + 3) * 7 = 91. Binary of 91 is 1011011, padded to 8 bits is 01011011. The provided second token is '01011011', which matches the required 8-bit binary. Criteria fully satisfied.</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Paris 01011011 END", "attempt_2": "Paris 01011011 END", "attempt_3": "Paris 01011011 END", "attempt_4": "Paris 01011011 END"}</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>{"attempt_1": "Grading Basis:\n    {\n    \"C1\": \"FAIL\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: Criterion C1 failed because the response contains leading whitespace characters before \"Paris\"..", "attempt_2": "Grading Basis:\n    {\n    \"C2\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: Criterion C1 failed because the response contains leading whitespace characters before the text..", "attempt_3": "Grading Basis:\n    {\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C4\": \"PASS\",\n    \"C1\": \"FAIL\"\n}\n\nScore: 1 point\nExplanation: 4 out of 5 criteria passed. C1 failed: The response contains leading whitespace characters before \"Paris,\" violating the requirement that there be no leading or trailing whitespace..", "attempt_4": "Grading Basis:\n    {\n    \"C1\": \"PASS\",\n    \"C3\": \"PASS\",\n    \"C5\": \"PASS\",\n    \"C2\": \"PASS\",\n    \"C4\": \"PASS\"\n}\n\nScore: 1 point\nExplanation: All criteria were satisfied: the response meets C1, the response meets C3, the response meets C5, the response meets C2, the response meets C4."}</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>["PASS", "PASS", "PASS", "PASS"]</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>{"C1": 3, "C2": 0, "C3": 0, "C4": 0, "C5": 0}</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>max_iterations_reached</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
